--- a/QueryPerformance.xlsx
+++ b/QueryPerformance.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Version Control\XELoader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A74169D-5EF3-4897-AE54-0995C6578DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04981F9A-083A-4771-AA48-33F07281DBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B24106EA-52C9-4BFF-AE52-91EFFBA0713A}"/>
   </bookViews>
   <sheets>
-    <sheet name="AllProcDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="AllProcSummary" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="ReviewProcDetails" sheetId="5" r:id="rId3"/>
-    <sheet name="ReviewProcSummary" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="AllBatchDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="AllBatchSummary" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="ReviewBatchDetails" sheetId="5" r:id="rId3"/>
+    <sheet name="ReviewBatchSummary" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="Charts" sheetId="3" r:id="rId5"/>
     <sheet name="DurationStats" sheetId="7" r:id="rId6"/>
     <sheet name="CPUStats" sheetId="8" r:id="rId7"/>
@@ -27,8 +27,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="619" r:id="rId12"/>
-    <pivotCache cacheId="624" r:id="rId13"/>
+    <pivotCache cacheId="714" r:id="rId12"/>
+    <pivotCache cacheId="720" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,12 +50,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>datetime</t>
-  </si>
-  <si>
-    <t>proc_name</t>
   </si>
   <si>
     <t>execution_count</t>
@@ -286,7 +283,13 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>NormText</t>
+    <t>database_name</t>
+  </si>
+  <si>
+    <t>(blank) Total</t>
+  </si>
+  <si>
+    <t>norm_text</t>
   </si>
 </sst>
 </file>
@@ -337,7 +340,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
     </dxf>
@@ -371,7 +380,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[QueryPerformance.xlsx]AllProcSummary!PivotTable1</c:name>
+    <c:name>[QueryPerformance.xlsx]AllBatchSummary!PivotTable1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -646,7 +655,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AllProcSummary!$B$1</c:f>
+              <c:f>AllBatchSummary!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -669,7 +678,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>AllProcSummary!$A$2:$A$3</c:f>
+              <c:f>AllBatchSummary!$A$2:$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -680,7 +689,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AllProcSummary!$B$2:$B$3</c:f>
+              <c:f>AllBatchSummary!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -926,40 +935,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[QueryPerformance.xlsx]ReviewProcSummary!PivotTable3</c:name>
+    <c:name>[QueryPerformance.xlsx]ReviewBatchSummary!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -3258,6 +3237,492 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3269,11 +3734,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ReviewProcSummary!$B$1:$B$2</c:f>
+              <c:f>ReviewBatchSummary!$B$1:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(blank)</c:v>
+                  <c:v>(blank) - (blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3282,14 +3747,14 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>ReviewProcSummary!$A$3:$A$4</c:f>
+              <c:f>ReviewBatchSummary!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3300,7 +3765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ReviewProcSummary!$B$3:$B$4</c:f>
+              <c:f>ReviewBatchSummary!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4698,17 +5163,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45498.61681053241" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{7AC009E6-F9F3-4083-894A-B72E2FB76FFE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45499.581460300928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{7AC009E6-F9F3-4083-894A-B72E2FB76FFE}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="11">
     <cacheField name="datetime" numFmtId="164">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-05-08T00:00:00" maxDate="2024-07-25T10:59:00" count="2971">
         <m/>
-        <d v="2024-07-25T10:12:00" u="1"/>
-        <d v="2024-07-25T10:13:00" u="1"/>
-        <d v="2024-07-25T10:14:00" u="1"/>
         <d v="2024-07-25T10:15:00" u="1"/>
         <d v="2024-07-25T10:16:00" u="1"/>
         <d v="2024-07-25T10:17:00" u="1"/>
@@ -4754,6 +5216,9 @@
         <d v="2024-07-25T10:57:00" u="1"/>
         <d v="2024-07-25T10:58:00" u="1"/>
         <d v="2024-07-25T10:59:00" u="1"/>
+        <d v="2024-07-25T10:12:00" u="1"/>
+        <d v="2024-07-25T10:13:00" u="1"/>
+        <d v="2024-07-25T10:14:00" u="1"/>
         <d v="2024-07-15T23:00:00" u="1"/>
         <d v="2024-07-15T23:01:00" u="1"/>
         <d v="2024-07-15T23:02:00" u="1"/>
@@ -7678,7 +8143,10 @@
         <d v="2024-05-08T23:41:00" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="proc_name" numFmtId="0">
+    <cacheField name="database_name" numFmtId="164">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="norm_text" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="execution_count" numFmtId="0">
@@ -7715,14 +8183,59 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45498.616810995372" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{BCC07ABF-141E-4A95-B7A4-936B2336CC3F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45499.581460763889" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{BCC07ABF-141E-4A95-B7A4-936B2336CC3F}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="11">
     <cacheField name="datetime" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-05-08T00:00:00" maxDate="2024-07-16T22:57:00" count="2403">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-05-08T00:00:00" maxDate="2024-07-25T10:59:00" count="2448">
         <m/>
+        <d v="2024-07-25T10:15:00" u="1"/>
+        <d v="2024-07-25T10:16:00" u="1"/>
+        <d v="2024-07-25T10:17:00" u="1"/>
+        <d v="2024-07-25T10:18:00" u="1"/>
+        <d v="2024-07-25T10:19:00" u="1"/>
+        <d v="2024-07-25T10:20:00" u="1"/>
+        <d v="2024-07-25T10:21:00" u="1"/>
+        <d v="2024-07-25T10:22:00" u="1"/>
+        <d v="2024-07-25T10:23:00" u="1"/>
+        <d v="2024-07-25T10:24:00" u="1"/>
+        <d v="2024-07-25T10:25:00" u="1"/>
+        <d v="2024-07-25T10:26:00" u="1"/>
+        <d v="2024-07-25T10:27:00" u="1"/>
+        <d v="2024-07-25T10:28:00" u="1"/>
+        <d v="2024-07-25T10:29:00" u="1"/>
+        <d v="2024-07-25T10:30:00" u="1"/>
+        <d v="2024-07-25T10:31:00" u="1"/>
+        <d v="2024-07-25T10:32:00" u="1"/>
+        <d v="2024-07-25T10:33:00" u="1"/>
+        <d v="2024-07-25T10:34:00" u="1"/>
+        <d v="2024-07-25T10:35:00" u="1"/>
+        <d v="2024-07-25T10:36:00" u="1"/>
+        <d v="2024-07-25T10:37:00" u="1"/>
+        <d v="2024-07-25T10:38:00" u="1"/>
+        <d v="2024-07-25T10:39:00" u="1"/>
+        <d v="2024-07-25T10:40:00" u="1"/>
+        <d v="2024-07-25T10:41:00" u="1"/>
+        <d v="2024-07-25T10:42:00" u="1"/>
+        <d v="2024-07-25T10:43:00" u="1"/>
+        <d v="2024-07-25T10:44:00" u="1"/>
+        <d v="2024-07-25T10:45:00" u="1"/>
+        <d v="2024-07-25T10:46:00" u="1"/>
+        <d v="2024-07-25T10:47:00" u="1"/>
+        <d v="2024-07-25T10:48:00" u="1"/>
+        <d v="2024-07-25T10:49:00" u="1"/>
+        <d v="2024-07-25T10:50:00" u="1"/>
+        <d v="2024-07-25T10:51:00" u="1"/>
+        <d v="2024-07-25T10:52:00" u="1"/>
+        <d v="2024-07-25T10:53:00" u="1"/>
+        <d v="2024-07-25T10:54:00" u="1"/>
+        <d v="2024-07-25T10:55:00" u="1"/>
+        <d v="2024-07-25T10:56:00" u="1"/>
+        <d v="2024-07-25T10:57:00" u="1"/>
+        <d v="2024-07-25T10:58:00" u="1"/>
+        <d v="2024-07-25T10:59:00" u="1"/>
         <d v="2024-07-15T23:01:00" u="1"/>
         <d v="2024-07-15T23:03:00" u="1"/>
         <d v="2024-07-15T23:04:00" u="1"/>
@@ -10127,25 +10640,15 @@
         <d v="2024-05-08T23:41:00" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="proc_name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="17">
+    <cacheField name="database_name" numFmtId="164">
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
         <m/>
-        <s v="GetAgencyPayPeriodCountsForDashboardView-20240424" u="1"/>
-        <s v="GetAgencyEmployerPensionSummaries-20240605" u="1"/>
-        <s v="GetMessagesForPayPeriod-20240424" u="1"/>
-        <s v="GetAgencyPayPeriodCountsForPeriodView-20240425" u="1"/>
-        <s v="GetMessagesForRecipient-20240424" u="1"/>
-        <s v="GetTeamMemberInformation-20240424" u="1"/>
-        <s v="GetAgencyPayPeriodCountsForSettingsView-20240424" u="1"/>
-        <s v="GetAgencyPayPeriodCountsForRunPayrollView-20240425" u="1"/>
-        <s v="GetUserProfilesForAgency-20240517" u="1"/>
-        <s v="GetMessages102" u="1"/>
-        <s v="GetAgencyPayPeriodCounts169" u="1"/>
-        <s v="GetAgencyPayPeriodCountsMinimum169" u="1"/>
-        <s v="GetAgencyEmployerPensionSummaries98" u="1"/>
-        <s v="GetPayPeriodCountsNano169" u="1"/>
-        <s v="GetTeamMemberInformation169" u="1"/>
-        <s v="GetUserProfilesForAgency" u="1"/>
+        <s v="PeopleWeb" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="norm_text" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="execution_count" numFmtId="0">
@@ -10194,6 +10697,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -10201,6 +10705,7 @@
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -10216,9 +10721,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ED96754-C7D7-4A08-AC1B-7D4287B3EA00}" name="PivotTable1" cacheId="619" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ED96754-C7D7-4A08-AC1B-7D4287B3EA00}" name="PivotTable1" cacheId="714" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
+  <pivotFields count="11">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="2972">
         <item m="1" x="1549"/>
@@ -13143,7 +13648,9 @@
         <item m="1" x="1486"/>
         <item m="1" x="1487"/>
         <item m="1" x="1488"/>
-        <item x="0"/>
+        <item m="1" x="46"/>
+        <item m="1" x="47"/>
+        <item m="1" x="48"/>
         <item m="1" x="1"/>
         <item m="1" x="2"/>
         <item m="1" x="3"/>
@@ -13189,12 +13696,11 @@
         <item m="1" x="43"/>
         <item m="1" x="44"/>
         <item m="1" x="45"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -13210,7 +13716,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="2922"/>
+      <x v="2970"/>
     </i>
     <i t="grand">
       <x/>
@@ -13220,7 +13726,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of cpu_pct" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of cpu_pct" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="2" format="2" series="1">
@@ -13246,56 +13752,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68B17D1C-59AA-4BF3-88FC-7EF3BD28DCA1}" name="PivotTable3" cacheId="624" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68B17D1C-59AA-4BF3-88FC-7EF3BD28DCA1}" name="PivotTable3" cacheId="720" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A1:D5" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="11">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
-      <items count="2404">
-        <item m="1" x="1190"/>
-        <item m="1" x="1191"/>
-        <item m="1" x="1192"/>
-        <item m="1" x="1193"/>
-        <item m="1" x="1194"/>
-        <item m="1" x="1195"/>
-        <item m="1" x="1196"/>
-        <item m="1" x="1197"/>
-        <item m="1" x="1198"/>
-        <item m="1" x="1199"/>
-        <item m="1" x="1200"/>
-        <item m="1" x="1201"/>
-        <item m="1" x="1202"/>
-        <item m="1" x="1203"/>
-        <item m="1" x="1204"/>
-        <item m="1" x="1205"/>
-        <item m="1" x="1206"/>
-        <item m="1" x="1207"/>
-        <item m="1" x="1208"/>
-        <item m="1" x="1209"/>
-        <item m="1" x="1210"/>
-        <item m="1" x="1211"/>
-        <item m="1" x="1212"/>
-        <item m="1" x="1213"/>
-        <item m="1" x="1214"/>
-        <item m="1" x="1215"/>
-        <item m="1" x="1216"/>
-        <item m="1" x="1217"/>
-        <item m="1" x="1218"/>
-        <item m="1" x="1219"/>
-        <item m="1" x="1220"/>
-        <item m="1" x="1221"/>
-        <item m="1" x="1222"/>
-        <item m="1" x="1223"/>
-        <item m="1" x="1224"/>
-        <item m="1" x="1225"/>
-        <item m="1" x="1226"/>
-        <item m="1" x="1227"/>
-        <item m="1" x="1228"/>
-        <item m="1" x="1229"/>
-        <item m="1" x="1230"/>
-        <item m="1" x="1231"/>
-        <item m="1" x="1232"/>
-        <item m="1" x="1233"/>
-        <item m="1" x="1234"/>
+      <items count="2449">
         <item m="1" x="1235"/>
         <item m="1" x="1236"/>
         <item m="1" x="1237"/>
@@ -14464,51 +14925,51 @@
         <item m="1" x="2400"/>
         <item m="1" x="2401"/>
         <item m="1" x="2402"/>
-        <item m="1" x="1130"/>
-        <item m="1" x="1131"/>
-        <item m="1" x="1132"/>
-        <item m="1" x="1133"/>
-        <item m="1" x="1134"/>
-        <item m="1" x="1135"/>
-        <item m="1" x="1136"/>
-        <item m="1" x="1137"/>
-        <item m="1" x="1138"/>
-        <item m="1" x="1139"/>
-        <item m="1" x="1140"/>
-        <item m="1" x="1141"/>
-        <item m="1" x="1142"/>
-        <item m="1" x="1143"/>
-        <item m="1" x="1144"/>
-        <item m="1" x="1145"/>
-        <item m="1" x="1146"/>
-        <item m="1" x="1147"/>
-        <item m="1" x="1148"/>
-        <item m="1" x="1149"/>
-        <item m="1" x="1150"/>
-        <item m="1" x="1151"/>
-        <item m="1" x="1152"/>
-        <item m="1" x="1153"/>
-        <item m="1" x="1154"/>
-        <item m="1" x="1155"/>
-        <item m="1" x="1156"/>
-        <item m="1" x="1157"/>
-        <item m="1" x="1158"/>
-        <item m="1" x="1159"/>
-        <item m="1" x="1160"/>
-        <item m="1" x="1161"/>
-        <item m="1" x="1162"/>
-        <item m="1" x="1163"/>
-        <item m="1" x="1164"/>
-        <item m="1" x="1165"/>
-        <item m="1" x="1166"/>
-        <item m="1" x="1167"/>
-        <item m="1" x="1168"/>
-        <item m="1" x="1169"/>
-        <item m="1" x="1170"/>
-        <item m="1" x="1171"/>
-        <item m="1" x="1172"/>
-        <item m="1" x="1173"/>
-        <item m="1" x="1174"/>
+        <item m="1" x="2403"/>
+        <item m="1" x="2404"/>
+        <item m="1" x="2405"/>
+        <item m="1" x="2406"/>
+        <item m="1" x="2407"/>
+        <item m="1" x="2408"/>
+        <item m="1" x="2409"/>
+        <item m="1" x="2410"/>
+        <item m="1" x="2411"/>
+        <item m="1" x="2412"/>
+        <item m="1" x="2413"/>
+        <item m="1" x="2414"/>
+        <item m="1" x="2415"/>
+        <item m="1" x="2416"/>
+        <item m="1" x="2417"/>
+        <item m="1" x="2418"/>
+        <item m="1" x="2419"/>
+        <item m="1" x="2420"/>
+        <item m="1" x="2421"/>
+        <item m="1" x="2422"/>
+        <item m="1" x="2423"/>
+        <item m="1" x="2424"/>
+        <item m="1" x="2425"/>
+        <item m="1" x="2426"/>
+        <item m="1" x="2427"/>
+        <item m="1" x="2428"/>
+        <item m="1" x="2429"/>
+        <item m="1" x="2430"/>
+        <item m="1" x="2431"/>
+        <item m="1" x="2432"/>
+        <item m="1" x="2433"/>
+        <item m="1" x="2434"/>
+        <item m="1" x="2435"/>
+        <item m="1" x="2436"/>
+        <item m="1" x="2437"/>
+        <item m="1" x="2438"/>
+        <item m="1" x="2439"/>
+        <item m="1" x="2440"/>
+        <item m="1" x="2441"/>
+        <item m="1" x="2442"/>
+        <item m="1" x="2443"/>
+        <item m="1" x="2444"/>
+        <item m="1" x="2445"/>
+        <item m="1" x="2446"/>
+        <item m="1" x="2447"/>
         <item m="1" x="1175"/>
         <item m="1" x="1176"/>
         <item m="1" x="1177"/>
@@ -14524,51 +14985,51 @@
         <item m="1" x="1187"/>
         <item m="1" x="1188"/>
         <item m="1" x="1189"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item m="1" x="32"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="45"/>
+        <item m="1" x="1190"/>
+        <item m="1" x="1191"/>
+        <item m="1" x="1192"/>
+        <item m="1" x="1193"/>
+        <item m="1" x="1194"/>
+        <item m="1" x="1195"/>
+        <item m="1" x="1196"/>
+        <item m="1" x="1197"/>
+        <item m="1" x="1198"/>
+        <item m="1" x="1199"/>
+        <item m="1" x="1200"/>
+        <item m="1" x="1201"/>
+        <item m="1" x="1202"/>
+        <item m="1" x="1203"/>
+        <item m="1" x="1204"/>
+        <item m="1" x="1205"/>
+        <item m="1" x="1206"/>
+        <item m="1" x="1207"/>
+        <item m="1" x="1208"/>
+        <item m="1" x="1209"/>
+        <item m="1" x="1210"/>
+        <item m="1" x="1211"/>
+        <item m="1" x="1212"/>
+        <item m="1" x="1213"/>
+        <item m="1" x="1214"/>
+        <item m="1" x="1215"/>
+        <item m="1" x="1216"/>
+        <item m="1" x="1217"/>
+        <item m="1" x="1218"/>
+        <item m="1" x="1219"/>
+        <item m="1" x="1220"/>
+        <item m="1" x="1221"/>
+        <item m="1" x="1222"/>
+        <item m="1" x="1223"/>
+        <item m="1" x="1224"/>
+        <item m="1" x="1225"/>
+        <item m="1" x="1226"/>
+        <item m="1" x="1227"/>
+        <item m="1" x="1228"/>
+        <item m="1" x="1229"/>
+        <item m="1" x="1230"/>
+        <item m="1" x="1231"/>
+        <item m="1" x="1232"/>
+        <item m="1" x="1233"/>
+        <item m="1" x="1234"/>
         <item m="1" x="46"/>
         <item m="1" x="47"/>
         <item m="1" x="48"/>
@@ -15653,28 +16114,109 @@
         <item m="1" x="1127"/>
         <item m="1" x="1128"/>
         <item m="1" x="1129"/>
+        <item m="1" x="1130"/>
+        <item m="1" x="1131"/>
+        <item m="1" x="1132"/>
+        <item m="1" x="1133"/>
+        <item m="1" x="1134"/>
+        <item m="1" x="1135"/>
+        <item m="1" x="1136"/>
+        <item m="1" x="1137"/>
+        <item m="1" x="1138"/>
+        <item m="1" x="1139"/>
+        <item m="1" x="1140"/>
+        <item m="1" x="1141"/>
+        <item m="1" x="1142"/>
+        <item m="1" x="1143"/>
+        <item m="1" x="1144"/>
+        <item m="1" x="1145"/>
+        <item m="1" x="1146"/>
+        <item m="1" x="1147"/>
+        <item m="1" x="1148"/>
+        <item m="1" x="1149"/>
+        <item m="1" x="1150"/>
+        <item m="1" x="1151"/>
+        <item m="1" x="1152"/>
+        <item m="1" x="1153"/>
+        <item m="1" x="1154"/>
+        <item m="1" x="1155"/>
+        <item m="1" x="1156"/>
+        <item m="1" x="1157"/>
+        <item m="1" x="1158"/>
+        <item m="1" x="1159"/>
+        <item m="1" x="1160"/>
+        <item m="1" x="1161"/>
+        <item m="1" x="1162"/>
+        <item m="1" x="1163"/>
+        <item m="1" x="1164"/>
+        <item m="1" x="1165"/>
+        <item m="1" x="1166"/>
+        <item m="1" x="1167"/>
+        <item m="1" x="1168"/>
+        <item m="1" x="1169"/>
+        <item m="1" x="1170"/>
+        <item m="1" x="1171"/>
+        <item m="1" x="1172"/>
+        <item m="1" x="1173"/>
+        <item m="1" x="1174"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="31"/>
+        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="37"/>
+        <item m="1" x="38"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item m="1" x="45"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="18">
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="10"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
+      <items count="3">
         <item m="1" x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="2"/>
-        <item m="1" x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -15693,152 +16235,37 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="2402"/>
+      <x v="2447"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
+  <colFields count="2">
     <field x="1"/>
+    <field x="2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
-      <x v="16"/>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of cpu_pct" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of cpu_pct" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="11">
+  <chartFormats count="1">
     <chartFormat chart="2" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="31" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="33" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="35" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="36" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="37" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="39" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="40" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="16"/>
           </reference>
         </references>
       </pivotArea>
@@ -15857,11 +16284,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7FA1B7E-C0DA-4D7A-AA35-375029784535}" name="Table1" displayName="Table1" ref="A1:J2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:J2" xr:uid="{C7FA1B7E-C0DA-4D7A-AA35-375029784535}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{69F8F33B-4158-43F5-8204-07D90F01E0EB}" name="datetime" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{17C5FD6B-772D-4EBD-9816-3AAE3664FDF1}" name="proc_name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7FA1B7E-C0DA-4D7A-AA35-375029784535}" name="Table1" displayName="Table1" ref="A1:K2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{C7FA1B7E-C0DA-4D7A-AA35-375029784535}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{69F8F33B-4158-43F5-8204-07D90F01E0EB}" name="datetime" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{51278D32-7C3B-4B59-86DF-7A4B462EB9E9}" name="database_name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{17C5FD6B-772D-4EBD-9816-3AAE3664FDF1}" name="norm_text"/>
     <tableColumn id="3" xr3:uid="{FD3209D6-279F-4A1C-9506-31B9340FD95C}" name="execution_count"/>
     <tableColumn id="4" xr3:uid="{018236F7-AE50-48B1-8F1D-3F620BEB0519}" name="duration_microseconds"/>
     <tableColumn id="5" xr3:uid="{F26D22C1-98F0-496E-A034-163FED3EB541}" name="cpu_microseconds"/>
@@ -15876,11 +16304,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A62E67F2-A94D-40D1-BC6C-D44992EFC38D}" name="Table2" displayName="Table2" ref="A1:J2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:J2" xr:uid="{A62E67F2-A94D-40D1-BC6C-D44992EFC38D}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C9936654-3AC7-4718-9342-9EC0D1ECFFD6}" name="datetime" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{E3EBBBE3-5710-4030-AA38-E20AD4553B08}" name="proc_name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A62E67F2-A94D-40D1-BC6C-D44992EFC38D}" name="Table2" displayName="Table2" ref="A1:K2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{A62E67F2-A94D-40D1-BC6C-D44992EFC38D}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{C9936654-3AC7-4718-9342-9EC0D1ECFFD6}" name="datetime" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{9963A2D7-7F0A-4494-8E13-E2961DC8EAD5}" name="database_name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E3EBBBE3-5710-4030-AA38-E20AD4553B08}" name="norm_text"/>
     <tableColumn id="3" xr3:uid="{171E3D44-C982-47E6-9CFA-6053A5502BA0}" name="execution_count"/>
     <tableColumn id="4" xr3:uid="{082936FB-CE75-4AF1-9141-A3AA9A819EC3}" name="duration_microseconds"/>
     <tableColumn id="5" xr3:uid="{2FA61231-D12A-4CD5-8A9C-080E918E7020}" name="cpu_microseconds"/>
@@ -15895,10 +16324,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}" name="Table3" displayName="Table3" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{9F89287D-53BA-40B5-A5EE-FB681DD6B95F}" name="NormText"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}" name="Table3" displayName="Table3" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}"/>
+  <tableColumns count="13">
+    <tableColumn id="13" xr3:uid="{C2CCC2BD-37A2-45E4-ACAB-0C81405E1697}" name="database_name"/>
+    <tableColumn id="1" xr3:uid="{9F89287D-53BA-40B5-A5EE-FB681DD6B95F}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{ADE2F75D-0AFE-4B1D-8B44-D7C6EE9B28E3}" name="execution_count"/>
     <tableColumn id="3" xr3:uid="{98F9E5BB-3A19-42B7-AA92-2669C9E73486}" name="min_duration"/>
     <tableColumn id="4" xr3:uid="{1FAA5B7E-1AD7-43A8-BFB5-E4AA98594E96}" name="mean_duration"/>
@@ -15916,10 +16346,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{23EB7B8E-749A-41A7-995D-960631E8F9CE}" name="Table3511" displayName="Table3511" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{A1FD3BC7-8B0B-4BD0-8E6C-092A384E08E4}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{01ABADDB-7A04-4D3C-9F67-D2B0D5740743}" name="NormText"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{23EB7B8E-749A-41A7-995D-960631E8F9CE}" name="Table3511" displayName="Table3511" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{A1FD3BC7-8B0B-4BD0-8E6C-092A384E08E4}"/>
+  <tableColumns count="13">
+    <tableColumn id="3" xr3:uid="{3CC2CD8A-004A-4290-937E-EF08FA9CB80B}" name="database_name"/>
+    <tableColumn id="1" xr3:uid="{01ABADDB-7A04-4D3C-9F67-D2B0D5740743}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{E0E9F6EA-D31C-4249-B92D-A8A19924C2F6}" name="execution_count"/>
     <tableColumn id="13" xr3:uid="{F9F1FF0D-8907-43DB-9E0B-4BC23B3DB014}" name="min_cpu_time"/>
     <tableColumn id="14" xr3:uid="{D3A51BD5-6632-4423-A3B6-84758343286B}" name="mean_cpu_time"/>
@@ -15937,10 +16368,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{93BEC30A-09F1-4FEE-97F0-47B6427FBD5E}" name="Table361218" displayName="Table361218" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{174DD456-9DE2-4F9C-B4AE-612141D59BB0}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{7ACB1737-DC9F-4D99-BC7F-881593DC8172}" name="NormText"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{93BEC30A-09F1-4FEE-97F0-47B6427FBD5E}" name="Table361218" displayName="Table361218" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{174DD456-9DE2-4F9C-B4AE-612141D59BB0}"/>
+  <tableColumns count="13">
+    <tableColumn id="3" xr3:uid="{DD1227E5-1935-40AD-B23B-09578193531F}" name="database_name"/>
+    <tableColumn id="1" xr3:uid="{7ACB1737-DC9F-4D99-BC7F-881593DC8172}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{7D95A36B-F8C1-4453-9CD9-01A486DF1C53}" name="execution_count"/>
     <tableColumn id="23" xr3:uid="{AB439EA2-F8AE-4E28-9A0C-C15EBBABA478}" name="min_logical_reads"/>
     <tableColumn id="24" xr3:uid="{90AC7838-4F7E-40E7-86C7-819AA594745A}" name="mean_logical_reads"/>
@@ -15958,10 +16390,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{F0068F5C-7E1A-4797-A0AB-EC2906576BE4}" name="Table37131925" displayName="Table37131925" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{332B5612-12BE-481C-842C-353F69027BA8}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{D7AF0615-D8F9-4E88-BD61-5DFFB69A59E9}" name="NormText"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{F0068F5C-7E1A-4797-A0AB-EC2906576BE4}" name="Table37131925" displayName="Table37131925" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{332B5612-12BE-481C-842C-353F69027BA8}"/>
+  <tableColumns count="13">
+    <tableColumn id="3" xr3:uid="{89165832-E568-4B1C-B848-89303B8115AB}" name="database_name"/>
+    <tableColumn id="1" xr3:uid="{D7AF0615-D8F9-4E88-BD61-5DFFB69A59E9}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{377D8477-4782-4361-A45E-DB348740D2E8}" name="execution_count"/>
     <tableColumn id="33" xr3:uid="{2B9A7491-9CC1-4C5F-B12F-626D91EA2EEA}" name="min_physical_reads"/>
     <tableColumn id="34" xr3:uid="{9D2629A5-5686-41BA-BA83-3A9B3F7A4118}" name="mean_physical_reads"/>
@@ -15979,10 +16412,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{17257BAF-5D37-4780-B03D-AE18CDD9FB34}" name="Table3814202632" displayName="Table3814202632" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{0BF94567-BB14-4990-B412-EE1EFDA0F11A}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C92D9531-D954-4B54-9F8E-9CEBF1B1AAB5}" name="NormText"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{17257BAF-5D37-4780-B03D-AE18CDD9FB34}" name="Table3814202632" displayName="Table3814202632" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{0BF94567-BB14-4990-B412-EE1EFDA0F11A}"/>
+  <tableColumns count="13">
+    <tableColumn id="3" xr3:uid="{699DFBDF-8080-46A4-9748-818B1F406FC1}" name="database_name"/>
+    <tableColumn id="1" xr3:uid="{C92D9531-D954-4B54-9F8E-9CEBF1B1AAB5}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{1365AF57-FCDE-4CA0-BBB4-32B2FFF73881}" name="execution_count"/>
     <tableColumn id="43" xr3:uid="{7089C0A2-49B9-4936-B7C1-7C9AF72ACD37}" name="min_writes"/>
     <tableColumn id="44" xr3:uid="{6CBB548A-9C6F-47E9-A1B2-4F07D1944ECF}" name="mean_writes"/>
@@ -16000,10 +16434,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{01FD9972-1522-4AE0-924C-47A16C3F31A4}" name="Table391521273339" displayName="Table391521273339" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{4547EA9B-8543-48D2-B17D-7794DE8A6E16}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3954441D-135E-4FE2-AB68-8FF413CB516E}" name="NormText"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{01FD9972-1522-4AE0-924C-47A16C3F31A4}" name="Table391521273339" displayName="Table391521273339" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{4547EA9B-8543-48D2-B17D-7794DE8A6E16}"/>
+  <tableColumns count="13">
+    <tableColumn id="3" xr3:uid="{6B13C351-B984-4814-AACF-D33AEC9625F2}" name="database_name"/>
+    <tableColumn id="1" xr3:uid="{3954441D-135E-4FE2-AB68-8FF413CB516E}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{2BE0C866-C963-4119-AA9F-A725F1384B5D}" name="execution_count"/>
     <tableColumn id="53" xr3:uid="{F6DA99E8-55AB-4B5D-930C-0EF02C454A34}" name="min_row_count"/>
     <tableColumn id="54" xr3:uid="{A1AD5065-7603-4D03-8E8C-0DB3988823F1}" name="mean_row_count"/>
@@ -16337,7 +16772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9506BB-2498-4EA9-91C6-C9697376216C}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -16346,47 +16781,51 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -16399,25 +16838,28 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00040C4-3078-44F7-B695-B3399B6FFAD3}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -16458,42 +16900,45 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>62</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -16506,25 +16951,28 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F224642-2D58-4E64-9F68-674F0EB31D92}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="28" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -16565,42 +17013,45 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -16616,32 +17067,33 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -16652,7 +17104,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB83DB8-54CC-4858-8DC1-33FD57E1DFFC}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -16661,47 +17113,51 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -16714,57 +17170,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631114B7-7266-4DF3-84D2-8C5566EE20D7}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="B3" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16783,17 +17262,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -16804,25 +17283,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F347CCB-CBDE-44BF-B642-4C1E4055DDCA}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -16863,42 +17345,45 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -16911,25 +17396,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C97FAF-BC91-4BEC-AB56-3B61CB806F13}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -16970,42 +17458,45 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -17018,25 +17509,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F559BBA-3642-484C-91F4-EEEC18344FA4}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -17077,42 +17571,45 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -17125,25 +17622,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C7D1A4-77A4-445A-9DF8-DA8122B41740}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -17184,42 +17684,45 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/QueryPerformance.xlsx
+++ b/QueryPerformance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Version Control\XELoader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04981F9A-083A-4771-AA48-33F07281DBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19AFA83-E1E3-485B-9CAC-118C79CEE06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B24106EA-52C9-4BFF-AE52-91EFFBA0713A}"/>
   </bookViews>
@@ -27,8 +27,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="714" r:id="rId12"/>
-    <pivotCache cacheId="720" r:id="rId13"/>
+    <pivotCache cacheId="774" r:id="rId12"/>
+    <pivotCache cacheId="781" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>datetime</t>
   </si>
@@ -291,6 +291,9 @@
   <si>
     <t>norm_text</t>
   </si>
+  <si>
+    <t>norm_text_hash_id</t>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +343,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
     </dxf>
@@ -939,6 +948,36 @@
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -3723,6 +3762,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3734,11 +3829,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ReviewBatchSummary!$B$1:$B$3</c:f>
+              <c:f>ReviewBatchSummary!$B$1:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(blank) - (blank)</c:v>
+                  <c:v>(blank) - (blank) - (blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3747,14 +3842,14 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln w="25400">
+            <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>ReviewBatchSummary!$A$4:$A$5</c:f>
+              <c:f>ReviewBatchSummary!$A$5:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3765,7 +3860,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ReviewBatchSummary!$B$4:$B$5</c:f>
+              <c:f>ReviewBatchSummary!$B$5:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5087,13 +5182,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5125,13 +5220,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5163,11 +5258,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45499.581460300928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{7AC009E6-F9F3-4083-894A-B72E2FB76FFE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45503.441248263887" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{7AC009E6-F9F3-4083-894A-B72E2FB76FFE}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="12">
     <cacheField name="datetime" numFmtId="164">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-05-08T00:00:00" maxDate="2024-07-25T10:59:00" count="2971">
         <m/>
@@ -8143,6 +8238,9 @@
         <d v="2024-05-08T23:41:00" u="1"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="norm_text_hash_id" numFmtId="164">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
     <cacheField name="database_name" numFmtId="164">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
@@ -8183,11 +8281,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45499.581460763889" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{BCC07ABF-141E-4A95-B7A4-936B2336CC3F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45503.441248842595" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{BCC07ABF-141E-4A95-B7A4-936B2336CC3F}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="12">
     <cacheField name="datetime" numFmtId="164">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-05-08T00:00:00" maxDate="2024-07-25T10:59:00" count="2448">
         <m/>
@@ -10640,6 +10738,11 @@
         <d v="2024-05-08T23:41:00" u="1"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="norm_text_hash_id" numFmtId="164">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="database_name" numFmtId="164">
       <sharedItems containsNonDate="0" containsBlank="1" count="2">
         <m/>
@@ -10698,6 +10801,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -10705,6 +10809,7 @@
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -10721,9 +10826,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ED96754-C7D7-4A08-AC1B-7D4287B3EA00}" name="PivotTable1" cacheId="714" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ED96754-C7D7-4A08-AC1B-7D4287B3EA00}" name="PivotTable1" cacheId="774" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
+  <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="2972">
         <item m="1" x="1549"/>
@@ -13705,6 +13810,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -13726,7 +13832,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of cpu_pct" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of cpu_pct" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="2" format="2" series="1">
@@ -13752,9 +13858,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68B17D1C-59AA-4BF3-88FC-7EF3BD28DCA1}" name="PivotTable3" cacheId="720" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A1:D5" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68B17D1C-59AA-4BF3-88FC-7EF3BD28DCA1}" name="PivotTable3" cacheId="781" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A1:E6" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+  <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="2449">
         <item m="1" x="1235"/>
@@ -16209,6 +16315,12 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item m="1" x="1"/>
         <item x="0"/>
@@ -16241,30 +16353,50 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
+  <colFields count="3">
     <field x="1"/>
     <field x="2"/>
+    <field x="3"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
+      <x/>
       <x v="1"/>
       <x/>
     </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
     <i t="default">
-      <x v="1"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of cpu_pct" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of cpu_pct" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="2" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="59" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -16284,11 +16416,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7FA1B7E-C0DA-4D7A-AA35-375029784535}" name="Table1" displayName="Table1" ref="A1:K2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{C7FA1B7E-C0DA-4D7A-AA35-375029784535}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{69F8F33B-4158-43F5-8204-07D90F01E0EB}" name="datetime" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{51278D32-7C3B-4B59-86DF-7A4B462EB9E9}" name="database_name" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7FA1B7E-C0DA-4D7A-AA35-375029784535}" name="Table1" displayName="Table1" ref="A1:L2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:L2" xr:uid="{C7FA1B7E-C0DA-4D7A-AA35-375029784535}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{69F8F33B-4158-43F5-8204-07D90F01E0EB}" name="datetime" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{B58890FF-E583-4DBD-A2F5-9F589D2466B5}" name="norm_text_hash_id" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{51278D32-7C3B-4B59-86DF-7A4B462EB9E9}" name="database_name" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{17C5FD6B-772D-4EBD-9816-3AAE3664FDF1}" name="norm_text"/>
     <tableColumn id="3" xr3:uid="{FD3209D6-279F-4A1C-9506-31B9340FD95C}" name="execution_count"/>
     <tableColumn id="4" xr3:uid="{018236F7-AE50-48B1-8F1D-3F620BEB0519}" name="duration_microseconds"/>
@@ -16304,11 +16437,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A62E67F2-A94D-40D1-BC6C-D44992EFC38D}" name="Table2" displayName="Table2" ref="A1:K2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{A62E67F2-A94D-40D1-BC6C-D44992EFC38D}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C9936654-3AC7-4718-9342-9EC0D1ECFFD6}" name="datetime" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{9963A2D7-7F0A-4494-8E13-E2961DC8EAD5}" name="database_name" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A62E67F2-A94D-40D1-BC6C-D44992EFC38D}" name="Table2" displayName="Table2" ref="A1:L2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:L2" xr:uid="{A62E67F2-A94D-40D1-BC6C-D44992EFC38D}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{C9936654-3AC7-4718-9342-9EC0D1ECFFD6}" name="datetime" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{EEBAE9C0-0C27-4C31-A029-C5CDBD7FE1C5}" name="norm_text_hash_id" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{9963A2D7-7F0A-4494-8E13-E2961DC8EAD5}" name="database_name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{E3EBBBE3-5710-4030-AA38-E20AD4553B08}" name="norm_text"/>
     <tableColumn id="3" xr3:uid="{171E3D44-C982-47E6-9CFA-6053A5502BA0}" name="execution_count"/>
     <tableColumn id="4" xr3:uid="{082936FB-CE75-4AF1-9141-A3AA9A819EC3}" name="duration_microseconds"/>
@@ -16324,9 +16458,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}" name="Table3" displayName="Table3" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}"/>
+  <tableColumns count="14">
+    <tableColumn id="14" xr3:uid="{7C30B4D4-2B90-4AB7-8491-B1D3F256A847}" name="norm_text_hash_id"/>
     <tableColumn id="13" xr3:uid="{C2CCC2BD-37A2-45E4-ACAB-0C81405E1697}" name="database_name"/>
     <tableColumn id="1" xr3:uid="{9F89287D-53BA-40B5-A5EE-FB681DD6B95F}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{ADE2F75D-0AFE-4B1D-8B44-D7C6EE9B28E3}" name="execution_count"/>
@@ -16346,9 +16481,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{23EB7B8E-749A-41A7-995D-960631E8F9CE}" name="Table3511" displayName="Table3511" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2" xr:uid="{A1FD3BC7-8B0B-4BD0-8E6C-092A384E08E4}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{23EB7B8E-749A-41A7-995D-960631E8F9CE}" name="Table3511" displayName="Table3511" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2" xr:uid="{A1FD3BC7-8B0B-4BD0-8E6C-092A384E08E4}"/>
+  <tableColumns count="14">
+    <tableColumn id="4" xr3:uid="{50F77733-CFDF-4D86-B2DC-68B01A81A9A9}" name="norm_text_hash_id"/>
     <tableColumn id="3" xr3:uid="{3CC2CD8A-004A-4290-937E-EF08FA9CB80B}" name="database_name"/>
     <tableColumn id="1" xr3:uid="{01ABADDB-7A04-4D3C-9F67-D2B0D5740743}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{E0E9F6EA-D31C-4249-B92D-A8A19924C2F6}" name="execution_count"/>
@@ -16368,9 +16504,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{93BEC30A-09F1-4FEE-97F0-47B6427FBD5E}" name="Table361218" displayName="Table361218" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2" xr:uid="{174DD456-9DE2-4F9C-B4AE-612141D59BB0}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{93BEC30A-09F1-4FEE-97F0-47B6427FBD5E}" name="Table361218" displayName="Table361218" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2" xr:uid="{174DD456-9DE2-4F9C-B4AE-612141D59BB0}"/>
+  <tableColumns count="14">
+    <tableColumn id="4" xr3:uid="{79C1C2BD-7F08-42F5-9A11-9EB4BF3C059F}" name="norm_text_hash_id"/>
     <tableColumn id="3" xr3:uid="{DD1227E5-1935-40AD-B23B-09578193531F}" name="database_name"/>
     <tableColumn id="1" xr3:uid="{7ACB1737-DC9F-4D99-BC7F-881593DC8172}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{7D95A36B-F8C1-4453-9CD9-01A486DF1C53}" name="execution_count"/>
@@ -16390,9 +16527,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{F0068F5C-7E1A-4797-A0AB-EC2906576BE4}" name="Table37131925" displayName="Table37131925" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2" xr:uid="{332B5612-12BE-481C-842C-353F69027BA8}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{F0068F5C-7E1A-4797-A0AB-EC2906576BE4}" name="Table37131925" displayName="Table37131925" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2" xr:uid="{332B5612-12BE-481C-842C-353F69027BA8}"/>
+  <tableColumns count="14">
+    <tableColumn id="4" xr3:uid="{F1CD3BE9-5D34-4829-9FAD-C8126D2C138C}" name="norm_text_hash_id"/>
     <tableColumn id="3" xr3:uid="{89165832-E568-4B1C-B848-89303B8115AB}" name="database_name"/>
     <tableColumn id="1" xr3:uid="{D7AF0615-D8F9-4E88-BD61-5DFFB69A59E9}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{377D8477-4782-4361-A45E-DB348740D2E8}" name="execution_count"/>
@@ -16412,9 +16550,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{17257BAF-5D37-4780-B03D-AE18CDD9FB34}" name="Table3814202632" displayName="Table3814202632" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2" xr:uid="{0BF94567-BB14-4990-B412-EE1EFDA0F11A}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{17257BAF-5D37-4780-B03D-AE18CDD9FB34}" name="Table3814202632" displayName="Table3814202632" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2" xr:uid="{0BF94567-BB14-4990-B412-EE1EFDA0F11A}"/>
+  <tableColumns count="14">
+    <tableColumn id="4" xr3:uid="{783FA46B-7D1F-43D3-AD99-D577449EDA3D}" name="norm_text_hash_id"/>
     <tableColumn id="3" xr3:uid="{699DFBDF-8080-46A4-9748-818B1F406FC1}" name="database_name"/>
     <tableColumn id="1" xr3:uid="{C92D9531-D954-4B54-9F8E-9CEBF1B1AAB5}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{1365AF57-FCDE-4CA0-BBB4-32B2FFF73881}" name="execution_count"/>
@@ -16434,9 +16573,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{01FD9972-1522-4AE0-924C-47A16C3F31A4}" name="Table391521273339" displayName="Table391521273339" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2" xr:uid="{4547EA9B-8543-48D2-B17D-7794DE8A6E16}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{01FD9972-1522-4AE0-924C-47A16C3F31A4}" name="Table391521273339" displayName="Table391521273339" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2" xr:uid="{4547EA9B-8543-48D2-B17D-7794DE8A6E16}"/>
+  <tableColumns count="14">
+    <tableColumn id="4" xr3:uid="{C54D8228-E07B-40EC-A782-FA7B249AB8BF}" name="norm_text_hash_id"/>
     <tableColumn id="3" xr3:uid="{6B13C351-B984-4814-AACF-D33AEC9625F2}" name="database_name"/>
     <tableColumn id="1" xr3:uid="{3954441D-135E-4FE2-AB68-8FF413CB516E}" name="norm_text"/>
     <tableColumn id="2" xr3:uid="{2BE0C866-C963-4119-AA9F-A725F1384B5D}" name="execution_count"/>
@@ -16772,7 +16912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9506BB-2498-4EA9-91C6-C9697376216C}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -16780,51 +16920,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16838,7 +16981,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00040C4-3078-44F7-B695-B3399B6FFAD3}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -16900,44 +17043,47 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16951,7 +17097,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F224642-2D58-4E64-9F68-674F0EB31D92}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -17013,44 +17159,47 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -17104,7 +17253,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB83DB8-54CC-4858-8DC1-33FD57E1DFFC}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -17112,51 +17261,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -17170,7 +17322,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631114B7-7266-4DF3-84D2-8C5566EE20D7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -17180,9 +17332,8 @@
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
@@ -17202,7 +17353,7 @@
     <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -17210,40 +17361,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>76</v>
       </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17252,7 +17413,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CCB406-45EE-4FF1-B58B-FE788B02DE98}">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -17265,13 +17426,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>75</v>
       </c>
     </row>
@@ -17283,7 +17444,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F347CCB-CBDE-44BF-B642-4C1E4055DDCA}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -17345,44 +17506,47 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17396,7 +17560,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C97FAF-BC91-4BEC-AB56-3B61CB806F13}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -17458,44 +17622,47 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17509,7 +17676,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F559BBA-3642-484C-91F4-EEEC18344FA4}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -17571,44 +17738,47 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -17622,7 +17792,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C7D1A4-77A4-445A-9DF8-DA8122B41740}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -17684,44 +17854,47 @@
     <col min="59" max="61" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>52</v>
       </c>
     </row>

--- a/QueryPerformance.xlsx
+++ b/QueryPerformance.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Version Control\XELoader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19AFA83-E1E3-485B-9CAC-118C79CEE06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484A4558-06A9-405D-ACA3-9D6DB98608C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B24106EA-52C9-4BFF-AE52-91EFFBA0713A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B24106EA-52C9-4BFF-AE52-91EFFBA0713A}"/>
   </bookViews>
   <sheets>
     <sheet name="AllBatchDetails" sheetId="1" r:id="rId1"/>
     <sheet name="AllBatchSummary" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="ReviewBatchDetails" sheetId="5" r:id="rId3"/>
-    <sheet name="ReviewBatchSummary" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="ReviewBatchSummary" sheetId="13" state="hidden" r:id="rId4"/>
     <sheet name="Charts" sheetId="3" r:id="rId5"/>
     <sheet name="DurationStats" sheetId="7" r:id="rId6"/>
     <sheet name="CPUStats" sheetId="8" r:id="rId7"/>
@@ -27,8 +27,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="774" r:id="rId12"/>
-    <pivotCache cacheId="781" r:id="rId13"/>
+    <pivotCache cacheId="872" r:id="rId12"/>
+    <pivotCache cacheId="876" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -280,19 +280,19 @@
     <t>Refresh Data to get individual stacked CPU for the stored procedures you wish to review</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
     <t>database_name</t>
-  </si>
-  <si>
-    <t>(blank) Total</t>
   </si>
   <si>
     <t>norm_text</t>
   </si>
   <si>
     <t>norm_text_hash_id</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>(blank) Total</t>
   </si>
 </sst>
 </file>
@@ -348,7 +348,7 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
@@ -357,7 +357,7 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
@@ -944,40 +944,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[QueryPerformance.xlsx]ReviewBatchSummary!PivotTable3</c:name>
+    <c:name>[QueryPerformance.xlsx]ReviewBatchSummary!PivotTable15</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -2212,1612 +2182,6 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="24"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="25"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="26"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="27"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="28"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="29"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="30"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="31"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="32"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="33"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="34"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="35"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="36"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="37"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="38"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="39"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="40"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="41"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="42"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="43"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="44"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="45"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="46"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="47"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="48"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="49"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="50"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="51"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="52"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="53"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="54"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="55"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="56"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="57"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="58"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="59"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3869,7 +2233,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60C3-41A8-8724-E0A28701E6BF}"/>
+              <c16:uniqueId val="{00000000-F651-4B7C-8B4E-4AA7EA2B552B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3881,11 +2245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1110535632"/>
-        <c:axId val="1110516432"/>
+        <c:axId val="577122640"/>
+        <c:axId val="577118800"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1110535632"/>
+        <c:axId val="577122640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,7 +2292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1110516432"/>
+        <c:crossAx val="577118800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3936,7 +2300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1110516432"/>
+        <c:axId val="577118800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,7 +2351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1110535632"/>
+        <c:crossAx val="577122640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5183,13 +3547,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5221,20 +3585,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625EF821-9406-4C0A-BF83-5BBC14F78CF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B16815E-3F08-4450-A208-C927B881CB84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5258,14 +3622,632 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45503.441248263887" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{7AC009E6-F9F3-4083-894A-B72E2FB76FFE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45503.770790740738" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{A2CC90C5-2CA0-4CA6-A146-A487FA37A5F3}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table15"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="datetime" numFmtId="164">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-07-29T10:25:00" maxDate="2024-07-29T14:59:00" count="6">
+        <m/>
+        <d v="2024-07-29T10:25:00" u="1"/>
+        <d v="2024-07-29T10:40:00" u="1"/>
+        <d v="2024-07-29T11:41:00" u="1"/>
+        <d v="2024-07-29T12:47:00" u="1"/>
+        <d v="2024-07-29T14:59:00" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="norm_text_hash_id" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-824985510" maxValue="446085299" count="8">
+        <m/>
+        <n v="-824985510" u="1"/>
+        <n v="-603481762" u="1"/>
+        <n v="-315430440" u="1"/>
+        <n v="446085299" u="1"/>
+        <n v="-813348031" u="1"/>
+        <n v="18926040" u="1"/>
+        <n v="267252008" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="database_name" numFmtId="164">
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
+        <m/>
+        <s v="PeopleWeb" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="norm_text" numFmtId="0">
+      <sharedItems containsNonDate="0" containsBlank="1" count="8" longText="1">
+        <m/>
+        <s v=";WITH af20ed31689dc4dc89a551955a8f51dfa AS (SELECT SUM(&quot;Consistent&quot;) + SUM(&quot;Starters&quot;) AS &quot;EXPRESSION_1687524908995&quot; FROM (SELECT Department, Leavers, Consistent, Starters, Total FROM &quot;PeopleWeb&quot;.Analytics.SnapshotHCMEmployeeLOS WHERE CompanyId = &quot;PeopleWeb&quot;.Analytics.udf_GetCompanyId_ByAccessGUID({STR})) AS sbedada1301ef4258b8d0415c82c42219 ) SELECT * FROM af20ed31689dc4dc89a551955a8f51dfa" u="1"/>
+        <s v=";WITH ac72e0c7689ba43d499f89950c5b13a67 AS (SELECT ISNULL(&quot;EMPLOYEE&quot;, null) AS &quot;EMPLOYEE&quot;, ISNULL(SUM(&quot;TAKEN&quot;), null) AS &quot;SUMTAKEN&quot;, ISNULL(SUM(&quot;BOOKED&quot;), null) AS &quot;SUMBOOKED&quot;, ISNULL(SUM(&quot;LEFT TO BOOK&quot;), null) AS &quot;SUMLEFT TO BOOK&quot; FROM (SELECT Employee, Taken, Booked, &quot;Left To Book&quot; FROM &quot;PeopleWeb&quot;.Analytics.SnapshotPlannedLeaveHolidayStatus WHERE CompanyId = &quot;PeopleWeb&quot;.Analytics.udf_GetCompanyId_ByAccessGUID({STR})) AS m88389c51a46a49b79a4754faf44284a8 GROUP BY &quot;EMPLOYEE&quot; ORDER BY &quot;EMPLOYEE&quot; OFFSET {##} ROWS) SELECT * FROM ac72e0c7689ba43d499f89950c5b13a67" u="1"/>
+        <s v=";WITH a6e201faf2c1545c8a74dbc714ef33c22 AS (SELECT ISNULL(&quot;EMPLOYEE&quot;, null) AS &quot;EMPLOYEE&quot;, ISNULL(&quot;LEAVE TYPE&quot;, null) AS &quot;LEAVE TYPE&quot;, ISNULL(SUM(&quot;AMOUNT BOOKED&quot;), null) AS &quot;SUMAMOUNT BOOKED&quot; FROM (SELECT Employee, &quot;Leave Type&quot;, &quot;Amount Booked&quot; FROM &quot;PeopleWeb&quot;.Analytics.SnapshotPlannedLeaveOtherLeave WHERE CompanyId = &quot;PeopleWeb&quot;.Analytics.udf_GetCompanyId_ByAccessGUID({STR})) AS o4af5209773ea44298a227ae16180af4c GROUP BY &quot;EMPLOYEE&quot;, &quot;LEAVE TYPE&quot; ) SELECT * FROM a6e201faf2c1545c8a74dbc714ef33c22" u="1"/>
+        <s v=";WITH b019a660909024f9c90963f69b88c87f5 AS (SELECT TOP {##} ISNULL(&quot;EMPLOYEE&quot;, null) AS &quot;EMPLOYEE&quot;, ISNULL(&quot;DEPARTMENT&quot;, null) AS &quot;DEPARTMENT&quot;, ISNULL(&quot;JOB ROLE&quot;, null) AS &quot;JOB ROLE&quot;, ISNULL(&quot;TOTAL HOURS CONTRACTED&quot;, null) AS &quot;TOTAL HOURS CONTRACTED&quot;, ISNULL(&quot;MONDAY HOURS&quot;, null) AS &quot;MONDAY HOURS&quot;, ISNULL(&quot;TUESDAY HOURS&quot;, null) AS &quot;TUESDAY HOURS&quot;, ISNULL(&quot;WEDNESDAY HOURS&quot;, null) AS &quot;WEDNESDAY HOURS&quot;, ISNULL(&quot;THURSDAY HOURS&quot;, null) AS &quot;THURSDAY HOURS&quot;, ISNULL(&quot;FRIDAY HOURS&quot;, null) AS &quot;FRIDAY HOURS&quot;, ISNULL(&quot;SATURDAY HOURS&quot;, null) AS &quot;SATURDAY HOURS&quot;, ISNULL(&quot;SUNDAY HOURS&quot;, null) AS &quot;SUNDAY HOURS&quot; , &quot;INSIGHT_QRY_TOT&quot; = COUNT(*) OVER() FROM (SELECT Employee, Department, &quot;Job Role&quot;, &quot;Total Hours Contracted&quot;, &quot;Monday Hours&quot;, &quot;Tuesday Hours&quot;, &quot;Wednesday Hours&quot;, &quot;Thursday Hours&quot;, &quot;Friday Hours&quot;, &quot;Saturday Hours&quot;, &quot;Sunday Hours&quot; FROM &quot;PeopleWeb&quot;.Analytics.SnapshotHCMTotalContractualBase WHERE CompanyId = &quot;PeopleWeb&quot;.Analytics.udf_GetCompanyId_ByAccessGUID({STR})) AS bd512698fd13f4eafbdcdc763b03ee2fb GROUP BY &quot;EMPLOYEE&quot;, &quot;DEPARTMENT&quot;, &quot;JOB ROLE&quot;, &quot;TOTAL HOURS CONTRACTED&quot;, &quot;MONDAY HOURS&quot;, &quot;TUESDAY HOURS&quot;, &quot;WEDNESDAY HOURS&quot;, &quot;THURSDAY HOURS&quot;, &quot;FRIDAY HOURS&quot;, &quot;SATURDAY HOURS&quot;, &quot;SUNDAY HOURS&quot; ) SELECT * FROM b019a660909024f9c90963f69b88c87f5" u="1"/>
+        <s v=";WITH ad9a6df38e0224dd98e4c5f9b499fd58b AS (SELECT ISNULL(SUM(&quot;TOILBALANCELEFTTOBOOK&quot;), null) AS &quot;SUMTOILBALANCELEFTTOBOOK&quot; FROM (SELECT HolidaysLeftToBook ,HolidaysTakenVsTotal ,ToilBalanceLeftToBook ,ToilBalanceVsTotal FROM &quot;PeopleWeb&quot;.Analytics.SnapshotPlannedLeaveStats WHERE CompanyId = &quot;PeopleWeb&quot;.Analytics.udf_GetCompanyId_ByAccessGUID({STR})) AS fbf3416d3a581449d889752c13abad465 ) SELECT * FROM ad9a6df38e0224dd98e4c5f9b499fd58b" u="1"/>
+        <s v=";WITH b05df5f5c5366452fa14f0af3a4ec2503 AS (SELECT ISNULL(SUM(&quot;TOILBALANCEVSTOTAL&quot;), null) AS &quot;SUMTOILBALANCEVSTOTAL&quot; FROM (SELECT HolidaysLeftToBook ,HolidaysTakenVsTotal ,ToilBalanceLeftToBook ,ToilBalanceVsTotal FROM &quot;PeopleWeb&quot;.Analytics.SnapshotPlannedLeaveStats WHERE CompanyId = &quot;PeopleWeb&quot;.Analytics.udf_GetCompanyId_ByAccessGUID({STR})) AS dfe3c161648294020ab27ef132e1be7ae ) SELECT * FROM b05df5f5c5366452fa14f0af3a4ec2503" u="1"/>
+        <s v=";WITH bb65cf6356fca416683852fe26e6670ea AS (SELECT ISNULL(&quot;EMPLOYEE&quot;, null) AS &quot;EMPLOYEE&quot;, ISNULL(SUM(&quot;% ENTITLEMENT TAKEN VS DATE&quot;), null) AS &quot;SUM% ENTITLEMENT TAKEN VS DATE&quot; FROM (SELECT Employee, Department, &quot;Location&quot;, &quot;Job Role&quot;, &quot;Leave Balance&quot;, &quot;Left to Book&quot;, Taken, &quot;Total TOIL&quot;, &quot;TOIL Balance&quot;, &quot;% Entitlement Taken&quot;, &quot;% Entitlement Taken vs Date&quot;, &quot;% Holiday Year Passed&quot; FROM &quot;PeopleWeb&quot;.Analytics.SnapshotPlannedLeaveLeaveBalanceTotals WHERE CompanyId = &quot;PeopleWeb&quot;.Analytics.udf_GetCompanyId_ByAccessGUID({STR})) AS sc6bee77255d643c6a615e76aaa4c747a GROUP BY &quot;EMPLOYEE&quot; ORDER BY &quot;EMPLOYEE&quot; OFFSET {##} ROWS) SELECT * FROM bb65cf6356fca416683852fe26e6670ea" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="execution_count" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="duration_microseconds" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="cpu_microseconds" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="cpu_pct" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="logical_reads_pages" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="physical_reads_pages" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="writes_pages" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="avg_row_count" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45503.7707912037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{7AC009E6-F9F3-4083-894A-B72E2FB76FFE}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="datetime" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-05-08T00:00:00" maxDate="2024-07-25T10:59:00" count="2971">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-05-08T00:00:00" maxDate="2024-07-29T16:59:00" count="3510">
         <m/>
+        <d v="2024-07-29T08:01:00" u="1"/>
+        <d v="2024-07-29T08:02:00" u="1"/>
+        <d v="2024-07-29T08:03:00" u="1"/>
+        <d v="2024-07-29T08:04:00" u="1"/>
+        <d v="2024-07-29T08:05:00" u="1"/>
+        <d v="2024-07-29T08:06:00" u="1"/>
+        <d v="2024-07-29T08:07:00" u="1"/>
+        <d v="2024-07-29T08:08:00" u="1"/>
+        <d v="2024-07-29T08:09:00" u="1"/>
+        <d v="2024-07-29T08:10:00" u="1"/>
+        <d v="2024-07-29T08:11:00" u="1"/>
+        <d v="2024-07-29T08:12:00" u="1"/>
+        <d v="2024-07-29T08:13:00" u="1"/>
+        <d v="2024-07-29T08:14:00" u="1"/>
+        <d v="2024-07-29T08:15:00" u="1"/>
+        <d v="2024-07-29T08:16:00" u="1"/>
+        <d v="2024-07-29T08:17:00" u="1"/>
+        <d v="2024-07-29T08:18:00" u="1"/>
+        <d v="2024-07-29T08:19:00" u="1"/>
+        <d v="2024-07-29T08:20:00" u="1"/>
+        <d v="2024-07-29T08:21:00" u="1"/>
+        <d v="2024-07-29T08:22:00" u="1"/>
+        <d v="2024-07-29T08:23:00" u="1"/>
+        <d v="2024-07-29T08:24:00" u="1"/>
+        <d v="2024-07-29T08:25:00" u="1"/>
+        <d v="2024-07-29T08:26:00" u="1"/>
+        <d v="2024-07-29T08:27:00" u="1"/>
+        <d v="2024-07-29T08:28:00" u="1"/>
+        <d v="2024-07-29T08:29:00" u="1"/>
+        <d v="2024-07-29T08:30:00" u="1"/>
+        <d v="2024-07-29T08:31:00" u="1"/>
+        <d v="2024-07-29T08:32:00" u="1"/>
+        <d v="2024-07-29T08:33:00" u="1"/>
+        <d v="2024-07-29T08:34:00" u="1"/>
+        <d v="2024-07-29T08:35:00" u="1"/>
+        <d v="2024-07-29T08:36:00" u="1"/>
+        <d v="2024-07-29T08:37:00" u="1"/>
+        <d v="2024-07-29T08:38:00" u="1"/>
+        <d v="2024-07-29T08:39:00" u="1"/>
+        <d v="2024-07-29T08:40:00" u="1"/>
+        <d v="2024-07-29T08:41:00" u="1"/>
+        <d v="2024-07-29T08:42:00" u="1"/>
+        <d v="2024-07-29T08:43:00" u="1"/>
+        <d v="2024-07-29T08:44:00" u="1"/>
+        <d v="2024-07-29T08:45:00" u="1"/>
+        <d v="2024-07-29T08:46:00" u="1"/>
+        <d v="2024-07-29T08:47:00" u="1"/>
+        <d v="2024-07-29T08:48:00" u="1"/>
+        <d v="2024-07-29T08:49:00" u="1"/>
+        <d v="2024-07-29T08:50:00" u="1"/>
+        <d v="2024-07-29T08:51:00" u="1"/>
+        <d v="2024-07-29T08:52:00" u="1"/>
+        <d v="2024-07-29T08:53:00" u="1"/>
+        <d v="2024-07-29T08:54:00" u="1"/>
+        <d v="2024-07-29T08:55:00" u="1"/>
+        <d v="2024-07-29T08:56:00" u="1"/>
+        <d v="2024-07-29T08:57:00" u="1"/>
+        <d v="2024-07-29T08:58:00" u="1"/>
+        <d v="2024-07-29T08:59:00" u="1"/>
+        <d v="2024-07-29T09:00:00" u="1"/>
+        <d v="2024-07-29T09:01:00" u="1"/>
+        <d v="2024-07-29T09:02:00" u="1"/>
+        <d v="2024-07-29T09:03:00" u="1"/>
+        <d v="2024-07-29T09:04:00" u="1"/>
+        <d v="2024-07-29T09:05:00" u="1"/>
+        <d v="2024-07-29T09:06:00" u="1"/>
+        <d v="2024-07-29T09:07:00" u="1"/>
+        <d v="2024-07-29T09:08:00" u="1"/>
+        <d v="2024-07-29T09:09:00" u="1"/>
+        <d v="2024-07-29T09:10:00" u="1"/>
+        <d v="2024-07-29T09:11:00" u="1"/>
+        <d v="2024-07-29T09:12:00" u="1"/>
+        <d v="2024-07-29T09:13:00" u="1"/>
+        <d v="2024-07-29T09:14:00" u="1"/>
+        <d v="2024-07-29T09:15:00" u="1"/>
+        <d v="2024-07-29T09:16:00" u="1"/>
+        <d v="2024-07-29T09:17:00" u="1"/>
+        <d v="2024-07-29T09:18:00" u="1"/>
+        <d v="2024-07-29T09:19:00" u="1"/>
+        <d v="2024-07-29T09:20:00" u="1"/>
+        <d v="2024-07-29T09:21:00" u="1"/>
+        <d v="2024-07-29T09:22:00" u="1"/>
+        <d v="2024-07-29T09:23:00" u="1"/>
+        <d v="2024-07-29T09:24:00" u="1"/>
+        <d v="2024-07-29T09:25:00" u="1"/>
+        <d v="2024-07-29T09:26:00" u="1"/>
+        <d v="2024-07-29T09:27:00" u="1"/>
+        <d v="2024-07-29T09:28:00" u="1"/>
+        <d v="2024-07-29T09:29:00" u="1"/>
+        <d v="2024-07-29T09:30:00" u="1"/>
+        <d v="2024-07-29T09:31:00" u="1"/>
+        <d v="2024-07-29T09:32:00" u="1"/>
+        <d v="2024-07-29T09:33:00" u="1"/>
+        <d v="2024-07-29T09:34:00" u="1"/>
+        <d v="2024-07-29T09:35:00" u="1"/>
+        <d v="2024-07-29T09:36:00" u="1"/>
+        <d v="2024-07-29T09:37:00" u="1"/>
+        <d v="2024-07-29T09:38:00" u="1"/>
+        <d v="2024-07-29T09:39:00" u="1"/>
+        <d v="2024-07-29T09:40:00" u="1"/>
+        <d v="2024-07-29T09:41:00" u="1"/>
+        <d v="2024-07-29T09:42:00" u="1"/>
+        <d v="2024-07-29T09:43:00" u="1"/>
+        <d v="2024-07-29T09:44:00" u="1"/>
+        <d v="2024-07-29T09:45:00" u="1"/>
+        <d v="2024-07-29T09:46:00" u="1"/>
+        <d v="2024-07-29T09:47:00" u="1"/>
+        <d v="2024-07-29T09:48:00" u="1"/>
+        <d v="2024-07-29T09:49:00" u="1"/>
+        <d v="2024-07-29T09:50:00" u="1"/>
+        <d v="2024-07-29T09:51:00" u="1"/>
+        <d v="2024-07-29T09:52:00" u="1"/>
+        <d v="2024-07-29T09:53:00" u="1"/>
+        <d v="2024-07-29T09:54:00" u="1"/>
+        <d v="2024-07-29T09:55:00" u="1"/>
+        <d v="2024-07-29T09:56:00" u="1"/>
+        <d v="2024-07-29T09:57:00" u="1"/>
+        <d v="2024-07-29T09:58:00" u="1"/>
+        <d v="2024-07-29T09:59:00" u="1"/>
+        <d v="2024-07-29T10:00:00" u="1"/>
+        <d v="2024-07-29T10:01:00" u="1"/>
+        <d v="2024-07-29T10:02:00" u="1"/>
+        <d v="2024-07-29T10:03:00" u="1"/>
+        <d v="2024-07-29T10:04:00" u="1"/>
+        <d v="2024-07-29T10:05:00" u="1"/>
+        <d v="2024-07-29T10:06:00" u="1"/>
+        <d v="2024-07-29T10:07:00" u="1"/>
+        <d v="2024-07-29T10:08:00" u="1"/>
+        <d v="2024-07-29T10:09:00" u="1"/>
+        <d v="2024-07-29T10:10:00" u="1"/>
+        <d v="2024-07-29T10:11:00" u="1"/>
+        <d v="2024-07-29T10:12:00" u="1"/>
+        <d v="2024-07-29T10:13:00" u="1"/>
+        <d v="2024-07-29T10:14:00" u="1"/>
+        <d v="2024-07-29T10:15:00" u="1"/>
+        <d v="2024-07-29T10:16:00" u="1"/>
+        <d v="2024-07-29T10:17:00" u="1"/>
+        <d v="2024-07-29T10:18:00" u="1"/>
+        <d v="2024-07-29T10:19:00" u="1"/>
+        <d v="2024-07-29T10:20:00" u="1"/>
+        <d v="2024-07-29T10:21:00" u="1"/>
+        <d v="2024-07-29T10:22:00" u="1"/>
+        <d v="2024-07-29T10:23:00" u="1"/>
+        <d v="2024-07-29T10:24:00" u="1"/>
+        <d v="2024-07-29T10:25:00" u="1"/>
+        <d v="2024-07-29T10:26:00" u="1"/>
+        <d v="2024-07-29T10:27:00" u="1"/>
+        <d v="2024-07-29T10:28:00" u="1"/>
+        <d v="2024-07-29T10:29:00" u="1"/>
+        <d v="2024-07-29T10:30:00" u="1"/>
+        <d v="2024-07-29T10:31:00" u="1"/>
+        <d v="2024-07-29T10:32:00" u="1"/>
+        <d v="2024-07-29T10:33:00" u="1"/>
+        <d v="2024-07-29T10:34:00" u="1"/>
+        <d v="2024-07-29T10:35:00" u="1"/>
+        <d v="2024-07-29T10:36:00" u="1"/>
+        <d v="2024-07-29T10:37:00" u="1"/>
+        <d v="2024-07-29T10:38:00" u="1"/>
+        <d v="2024-07-29T10:39:00" u="1"/>
+        <d v="2024-07-29T10:40:00" u="1"/>
+        <d v="2024-07-29T10:41:00" u="1"/>
+        <d v="2024-07-29T10:42:00" u="1"/>
+        <d v="2024-07-29T10:43:00" u="1"/>
+        <d v="2024-07-29T10:44:00" u="1"/>
+        <d v="2024-07-29T10:45:00" u="1"/>
+        <d v="2024-07-29T10:46:00" u="1"/>
+        <d v="2024-07-29T10:47:00" u="1"/>
+        <d v="2024-07-29T10:48:00" u="1"/>
+        <d v="2024-07-29T10:49:00" u="1"/>
+        <d v="2024-07-29T10:50:00" u="1"/>
+        <d v="2024-07-29T10:51:00" u="1"/>
+        <d v="2024-07-29T10:52:00" u="1"/>
+        <d v="2024-07-29T10:53:00" u="1"/>
+        <d v="2024-07-29T10:54:00" u="1"/>
+        <d v="2024-07-29T10:55:00" u="1"/>
+        <d v="2024-07-29T10:56:00" u="1"/>
+        <d v="2024-07-29T10:57:00" u="1"/>
+        <d v="2024-07-29T10:58:00" u="1"/>
+        <d v="2024-07-29T10:59:00" u="1"/>
+        <d v="2024-07-29T11:00:00" u="1"/>
+        <d v="2024-07-29T11:01:00" u="1"/>
+        <d v="2024-07-29T11:02:00" u="1"/>
+        <d v="2024-07-29T11:03:00" u="1"/>
+        <d v="2024-07-29T11:04:00" u="1"/>
+        <d v="2024-07-29T11:05:00" u="1"/>
+        <d v="2024-07-29T11:06:00" u="1"/>
+        <d v="2024-07-29T11:07:00" u="1"/>
+        <d v="2024-07-29T11:08:00" u="1"/>
+        <d v="2024-07-29T11:09:00" u="1"/>
+        <d v="2024-07-29T11:10:00" u="1"/>
+        <d v="2024-07-29T11:11:00" u="1"/>
+        <d v="2024-07-29T11:12:00" u="1"/>
+        <d v="2024-07-29T11:13:00" u="1"/>
+        <d v="2024-07-29T11:14:00" u="1"/>
+        <d v="2024-07-29T11:15:00" u="1"/>
+        <d v="2024-07-29T11:16:00" u="1"/>
+        <d v="2024-07-29T11:17:00" u="1"/>
+        <d v="2024-07-29T11:18:00" u="1"/>
+        <d v="2024-07-29T11:19:00" u="1"/>
+        <d v="2024-07-29T11:20:00" u="1"/>
+        <d v="2024-07-29T11:21:00" u="1"/>
+        <d v="2024-07-29T11:22:00" u="1"/>
+        <d v="2024-07-29T11:23:00" u="1"/>
+        <d v="2024-07-29T11:24:00" u="1"/>
+        <d v="2024-07-29T11:25:00" u="1"/>
+        <d v="2024-07-29T11:26:00" u="1"/>
+        <d v="2024-07-29T11:27:00" u="1"/>
+        <d v="2024-07-29T11:28:00" u="1"/>
+        <d v="2024-07-29T11:29:00" u="1"/>
+        <d v="2024-07-29T11:30:00" u="1"/>
+        <d v="2024-07-29T11:31:00" u="1"/>
+        <d v="2024-07-29T11:32:00" u="1"/>
+        <d v="2024-07-29T11:33:00" u="1"/>
+        <d v="2024-07-29T11:34:00" u="1"/>
+        <d v="2024-07-29T11:35:00" u="1"/>
+        <d v="2024-07-29T11:36:00" u="1"/>
+        <d v="2024-07-29T11:37:00" u="1"/>
+        <d v="2024-07-29T11:38:00" u="1"/>
+        <d v="2024-07-29T11:39:00" u="1"/>
+        <d v="2024-07-29T11:40:00" u="1"/>
+        <d v="2024-07-29T11:41:00" u="1"/>
+        <d v="2024-07-29T11:42:00" u="1"/>
+        <d v="2024-07-29T11:43:00" u="1"/>
+        <d v="2024-07-29T11:44:00" u="1"/>
+        <d v="2024-07-29T11:45:00" u="1"/>
+        <d v="2024-07-29T11:46:00" u="1"/>
+        <d v="2024-07-29T11:47:00" u="1"/>
+        <d v="2024-07-29T11:48:00" u="1"/>
+        <d v="2024-07-29T11:49:00" u="1"/>
+        <d v="2024-07-29T11:50:00" u="1"/>
+        <d v="2024-07-29T11:51:00" u="1"/>
+        <d v="2024-07-29T11:52:00" u="1"/>
+        <d v="2024-07-29T11:53:00" u="1"/>
+        <d v="2024-07-29T11:54:00" u="1"/>
+        <d v="2024-07-29T11:55:00" u="1"/>
+        <d v="2024-07-29T11:56:00" u="1"/>
+        <d v="2024-07-29T11:57:00" u="1"/>
+        <d v="2024-07-29T11:58:00" u="1"/>
+        <d v="2024-07-29T11:59:00" u="1"/>
+        <d v="2024-07-29T12:00:00" u="1"/>
+        <d v="2024-07-29T12:01:00" u="1"/>
+        <d v="2024-07-29T12:02:00" u="1"/>
+        <d v="2024-07-29T12:03:00" u="1"/>
+        <d v="2024-07-29T12:04:00" u="1"/>
+        <d v="2024-07-29T12:05:00" u="1"/>
+        <d v="2024-07-29T12:06:00" u="1"/>
+        <d v="2024-07-29T12:07:00" u="1"/>
+        <d v="2024-07-29T12:08:00" u="1"/>
+        <d v="2024-07-29T12:09:00" u="1"/>
+        <d v="2024-07-29T12:10:00" u="1"/>
+        <d v="2024-07-29T12:11:00" u="1"/>
+        <d v="2024-07-29T12:12:00" u="1"/>
+        <d v="2024-07-29T12:13:00" u="1"/>
+        <d v="2024-07-29T12:14:00" u="1"/>
+        <d v="2024-07-29T12:15:00" u="1"/>
+        <d v="2024-07-29T12:16:00" u="1"/>
+        <d v="2024-07-29T12:17:00" u="1"/>
+        <d v="2024-07-29T12:18:00" u="1"/>
+        <d v="2024-07-29T12:19:00" u="1"/>
+        <d v="2024-07-29T12:20:00" u="1"/>
+        <d v="2024-07-29T12:21:00" u="1"/>
+        <d v="2024-07-29T12:22:00" u="1"/>
+        <d v="2024-07-29T12:23:00" u="1"/>
+        <d v="2024-07-29T12:24:00" u="1"/>
+        <d v="2024-07-29T12:25:00" u="1"/>
+        <d v="2024-07-29T12:26:00" u="1"/>
+        <d v="2024-07-29T12:27:00" u="1"/>
+        <d v="2024-07-29T12:28:00" u="1"/>
+        <d v="2024-07-29T12:29:00" u="1"/>
+        <d v="2024-07-29T12:30:00" u="1"/>
+        <d v="2024-07-29T12:31:00" u="1"/>
+        <d v="2024-07-29T12:32:00" u="1"/>
+        <d v="2024-07-29T12:33:00" u="1"/>
+        <d v="2024-07-29T12:34:00" u="1"/>
+        <d v="2024-07-29T12:35:00" u="1"/>
+        <d v="2024-07-29T12:36:00" u="1"/>
+        <d v="2024-07-29T12:37:00" u="1"/>
+        <d v="2024-07-29T12:38:00" u="1"/>
+        <d v="2024-07-29T12:39:00" u="1"/>
+        <d v="2024-07-29T12:40:00" u="1"/>
+        <d v="2024-07-29T12:41:00" u="1"/>
+        <d v="2024-07-29T12:42:00" u="1"/>
+        <d v="2024-07-29T12:43:00" u="1"/>
+        <d v="2024-07-29T12:44:00" u="1"/>
+        <d v="2024-07-29T12:45:00" u="1"/>
+        <d v="2024-07-29T12:46:00" u="1"/>
+        <d v="2024-07-29T12:47:00" u="1"/>
+        <d v="2024-07-29T12:48:00" u="1"/>
+        <d v="2024-07-29T12:49:00" u="1"/>
+        <d v="2024-07-29T12:50:00" u="1"/>
+        <d v="2024-07-29T12:51:00" u="1"/>
+        <d v="2024-07-29T12:52:00" u="1"/>
+        <d v="2024-07-29T12:53:00" u="1"/>
+        <d v="2024-07-29T12:54:00" u="1"/>
+        <d v="2024-07-29T12:55:00" u="1"/>
+        <d v="2024-07-29T12:56:00" u="1"/>
+        <d v="2024-07-29T12:57:00" u="1"/>
+        <d v="2024-07-29T12:58:00" u="1"/>
+        <d v="2024-07-29T12:59:00" u="1"/>
+        <d v="2024-07-29T13:00:00" u="1"/>
+        <d v="2024-07-29T13:01:00" u="1"/>
+        <d v="2024-07-29T13:02:00" u="1"/>
+        <d v="2024-07-29T13:03:00" u="1"/>
+        <d v="2024-07-29T13:04:00" u="1"/>
+        <d v="2024-07-29T13:05:00" u="1"/>
+        <d v="2024-07-29T13:06:00" u="1"/>
+        <d v="2024-07-29T13:07:00" u="1"/>
+        <d v="2024-07-29T13:08:00" u="1"/>
+        <d v="2024-07-29T13:09:00" u="1"/>
+        <d v="2024-07-29T13:10:00" u="1"/>
+        <d v="2024-07-29T13:11:00" u="1"/>
+        <d v="2024-07-29T13:12:00" u="1"/>
+        <d v="2024-07-29T13:13:00" u="1"/>
+        <d v="2024-07-29T13:14:00" u="1"/>
+        <d v="2024-07-29T13:15:00" u="1"/>
+        <d v="2024-07-29T13:16:00" u="1"/>
+        <d v="2024-07-29T13:17:00" u="1"/>
+        <d v="2024-07-29T13:18:00" u="1"/>
+        <d v="2024-07-29T13:19:00" u="1"/>
+        <d v="2024-07-29T13:20:00" u="1"/>
+        <d v="2024-07-29T13:21:00" u="1"/>
+        <d v="2024-07-29T13:22:00" u="1"/>
+        <d v="2024-07-29T13:23:00" u="1"/>
+        <d v="2024-07-29T13:24:00" u="1"/>
+        <d v="2024-07-29T13:25:00" u="1"/>
+        <d v="2024-07-29T13:26:00" u="1"/>
+        <d v="2024-07-29T13:27:00" u="1"/>
+        <d v="2024-07-29T13:28:00" u="1"/>
+        <d v="2024-07-29T13:29:00" u="1"/>
+        <d v="2024-07-29T13:30:00" u="1"/>
+        <d v="2024-07-29T13:31:00" u="1"/>
+        <d v="2024-07-29T13:32:00" u="1"/>
+        <d v="2024-07-29T13:33:00" u="1"/>
+        <d v="2024-07-29T13:34:00" u="1"/>
+        <d v="2024-07-29T13:35:00" u="1"/>
+        <d v="2024-07-29T13:36:00" u="1"/>
+        <d v="2024-07-29T13:37:00" u="1"/>
+        <d v="2024-07-29T13:38:00" u="1"/>
+        <d v="2024-07-29T13:39:00" u="1"/>
+        <d v="2024-07-29T13:40:00" u="1"/>
+        <d v="2024-07-29T13:41:00" u="1"/>
+        <d v="2024-07-29T13:42:00" u="1"/>
+        <d v="2024-07-29T13:43:00" u="1"/>
+        <d v="2024-07-29T13:44:00" u="1"/>
+        <d v="2024-07-29T13:45:00" u="1"/>
+        <d v="2024-07-29T13:46:00" u="1"/>
+        <d v="2024-07-29T13:47:00" u="1"/>
+        <d v="2024-07-29T13:48:00" u="1"/>
+        <d v="2024-07-29T13:49:00" u="1"/>
+        <d v="2024-07-29T13:50:00" u="1"/>
+        <d v="2024-07-29T13:51:00" u="1"/>
+        <d v="2024-07-29T13:52:00" u="1"/>
+        <d v="2024-07-29T13:53:00" u="1"/>
+        <d v="2024-07-29T13:54:00" u="1"/>
+        <d v="2024-07-29T13:55:00" u="1"/>
+        <d v="2024-07-29T13:56:00" u="1"/>
+        <d v="2024-07-29T13:57:00" u="1"/>
+        <d v="2024-07-29T13:58:00" u="1"/>
+        <d v="2024-07-29T13:59:00" u="1"/>
+        <d v="2024-07-29T14:00:00" u="1"/>
+        <d v="2024-07-29T14:01:00" u="1"/>
+        <d v="2024-07-29T14:02:00" u="1"/>
+        <d v="2024-07-29T14:03:00" u="1"/>
+        <d v="2024-07-29T14:04:00" u="1"/>
+        <d v="2024-07-29T14:05:00" u="1"/>
+        <d v="2024-07-29T14:06:00" u="1"/>
+        <d v="2024-07-29T14:07:00" u="1"/>
+        <d v="2024-07-29T14:08:00" u="1"/>
+        <d v="2024-07-29T14:09:00" u="1"/>
+        <d v="2024-07-29T14:10:00" u="1"/>
+        <d v="2024-07-29T14:11:00" u="1"/>
+        <d v="2024-07-29T14:12:00" u="1"/>
+        <d v="2024-07-29T14:13:00" u="1"/>
+        <d v="2024-07-29T14:14:00" u="1"/>
+        <d v="2024-07-29T14:15:00" u="1"/>
+        <d v="2024-07-29T14:16:00" u="1"/>
+        <d v="2024-07-29T14:17:00" u="1"/>
+        <d v="2024-07-29T14:18:00" u="1"/>
+        <d v="2024-07-29T14:19:00" u="1"/>
+        <d v="2024-07-29T14:20:00" u="1"/>
+        <d v="2024-07-29T14:21:00" u="1"/>
+        <d v="2024-07-29T14:22:00" u="1"/>
+        <d v="2024-07-29T14:23:00" u="1"/>
+        <d v="2024-07-29T14:24:00" u="1"/>
+        <d v="2024-07-29T14:25:00" u="1"/>
+        <d v="2024-07-29T14:26:00" u="1"/>
+        <d v="2024-07-29T14:27:00" u="1"/>
+        <d v="2024-07-29T14:28:00" u="1"/>
+        <d v="2024-07-29T14:29:00" u="1"/>
+        <d v="2024-07-29T14:30:00" u="1"/>
+        <d v="2024-07-29T14:31:00" u="1"/>
+        <d v="2024-07-29T14:32:00" u="1"/>
+        <d v="2024-07-29T14:33:00" u="1"/>
+        <d v="2024-07-29T14:34:00" u="1"/>
+        <d v="2024-07-29T14:35:00" u="1"/>
+        <d v="2024-07-29T14:36:00" u="1"/>
+        <d v="2024-07-29T14:37:00" u="1"/>
+        <d v="2024-07-29T14:38:00" u="1"/>
+        <d v="2024-07-29T14:39:00" u="1"/>
+        <d v="2024-07-29T14:40:00" u="1"/>
+        <d v="2024-07-29T14:41:00" u="1"/>
+        <d v="2024-07-29T14:42:00" u="1"/>
+        <d v="2024-07-29T14:43:00" u="1"/>
+        <d v="2024-07-29T14:44:00" u="1"/>
+        <d v="2024-07-29T14:45:00" u="1"/>
+        <d v="2024-07-29T14:46:00" u="1"/>
+        <d v="2024-07-29T14:47:00" u="1"/>
+        <d v="2024-07-29T14:48:00" u="1"/>
+        <d v="2024-07-29T14:49:00" u="1"/>
+        <d v="2024-07-29T14:50:00" u="1"/>
+        <d v="2024-07-29T14:51:00" u="1"/>
+        <d v="2024-07-29T14:52:00" u="1"/>
+        <d v="2024-07-29T14:53:00" u="1"/>
+        <d v="2024-07-29T14:54:00" u="1"/>
+        <d v="2024-07-29T14:55:00" u="1"/>
+        <d v="2024-07-29T14:56:00" u="1"/>
+        <d v="2024-07-29T14:57:00" u="1"/>
+        <d v="2024-07-29T14:58:00" u="1"/>
+        <d v="2024-07-29T14:59:00" u="1"/>
+        <d v="2024-07-29T15:00:00" u="1"/>
+        <d v="2024-07-29T15:01:00" u="1"/>
+        <d v="2024-07-29T15:02:00" u="1"/>
+        <d v="2024-07-29T15:03:00" u="1"/>
+        <d v="2024-07-29T15:04:00" u="1"/>
+        <d v="2024-07-29T15:05:00" u="1"/>
+        <d v="2024-07-29T15:06:00" u="1"/>
+        <d v="2024-07-29T15:07:00" u="1"/>
+        <d v="2024-07-29T15:08:00" u="1"/>
+        <d v="2024-07-29T15:09:00" u="1"/>
+        <d v="2024-07-29T15:10:00" u="1"/>
+        <d v="2024-07-29T15:11:00" u="1"/>
+        <d v="2024-07-29T15:12:00" u="1"/>
+        <d v="2024-07-29T15:13:00" u="1"/>
+        <d v="2024-07-29T15:14:00" u="1"/>
+        <d v="2024-07-29T15:15:00" u="1"/>
+        <d v="2024-07-29T15:16:00" u="1"/>
+        <d v="2024-07-29T15:17:00" u="1"/>
+        <d v="2024-07-29T15:18:00" u="1"/>
+        <d v="2024-07-29T15:19:00" u="1"/>
+        <d v="2024-07-29T15:20:00" u="1"/>
+        <d v="2024-07-29T15:21:00" u="1"/>
+        <d v="2024-07-29T15:22:00" u="1"/>
+        <d v="2024-07-29T15:23:00" u="1"/>
+        <d v="2024-07-29T15:24:00" u="1"/>
+        <d v="2024-07-29T15:25:00" u="1"/>
+        <d v="2024-07-29T15:26:00" u="1"/>
+        <d v="2024-07-29T15:27:00" u="1"/>
+        <d v="2024-07-29T15:28:00" u="1"/>
+        <d v="2024-07-29T15:29:00" u="1"/>
+        <d v="2024-07-29T15:30:00" u="1"/>
+        <d v="2024-07-29T15:31:00" u="1"/>
+        <d v="2024-07-29T15:32:00" u="1"/>
+        <d v="2024-07-29T15:33:00" u="1"/>
+        <d v="2024-07-29T15:34:00" u="1"/>
+        <d v="2024-07-29T15:35:00" u="1"/>
+        <d v="2024-07-29T15:36:00" u="1"/>
+        <d v="2024-07-29T15:37:00" u="1"/>
+        <d v="2024-07-29T15:38:00" u="1"/>
+        <d v="2024-07-29T15:39:00" u="1"/>
+        <d v="2024-07-29T15:40:00" u="1"/>
+        <d v="2024-07-29T15:41:00" u="1"/>
+        <d v="2024-07-29T15:42:00" u="1"/>
+        <d v="2024-07-29T15:43:00" u="1"/>
+        <d v="2024-07-29T15:44:00" u="1"/>
+        <d v="2024-07-29T15:45:00" u="1"/>
+        <d v="2024-07-29T15:46:00" u="1"/>
+        <d v="2024-07-29T15:47:00" u="1"/>
+        <d v="2024-07-29T15:48:00" u="1"/>
+        <d v="2024-07-29T15:49:00" u="1"/>
+        <d v="2024-07-29T15:50:00" u="1"/>
+        <d v="2024-07-29T15:51:00" u="1"/>
+        <d v="2024-07-29T15:52:00" u="1"/>
+        <d v="2024-07-29T15:53:00" u="1"/>
+        <d v="2024-07-29T15:54:00" u="1"/>
+        <d v="2024-07-29T15:55:00" u="1"/>
+        <d v="2024-07-29T15:56:00" u="1"/>
+        <d v="2024-07-29T15:57:00" u="1"/>
+        <d v="2024-07-29T15:58:00" u="1"/>
+        <d v="2024-07-29T15:59:00" u="1"/>
+        <d v="2024-07-29T16:00:00" u="1"/>
+        <d v="2024-07-29T16:01:00" u="1"/>
+        <d v="2024-07-29T16:02:00" u="1"/>
+        <d v="2024-07-29T16:03:00" u="1"/>
+        <d v="2024-07-29T16:04:00" u="1"/>
+        <d v="2024-07-29T16:05:00" u="1"/>
+        <d v="2024-07-29T16:06:00" u="1"/>
+        <d v="2024-07-29T16:07:00" u="1"/>
+        <d v="2024-07-29T16:08:00" u="1"/>
+        <d v="2024-07-29T16:09:00" u="1"/>
+        <d v="2024-07-29T16:10:00" u="1"/>
+        <d v="2024-07-29T16:11:00" u="1"/>
+        <d v="2024-07-29T16:12:00" u="1"/>
+        <d v="2024-07-29T16:13:00" u="1"/>
+        <d v="2024-07-29T16:14:00" u="1"/>
+        <d v="2024-07-29T16:15:00" u="1"/>
+        <d v="2024-07-29T16:16:00" u="1"/>
+        <d v="2024-07-29T16:17:00" u="1"/>
+        <d v="2024-07-29T16:18:00" u="1"/>
+        <d v="2024-07-29T16:19:00" u="1"/>
+        <d v="2024-07-29T16:20:00" u="1"/>
+        <d v="2024-07-29T16:21:00" u="1"/>
+        <d v="2024-07-29T16:22:00" u="1"/>
+        <d v="2024-07-29T16:23:00" u="1"/>
+        <d v="2024-07-29T16:24:00" u="1"/>
+        <d v="2024-07-29T16:25:00" u="1"/>
+        <d v="2024-07-29T16:26:00" u="1"/>
+        <d v="2024-07-29T16:27:00" u="1"/>
+        <d v="2024-07-29T16:28:00" u="1"/>
+        <d v="2024-07-29T16:29:00" u="1"/>
+        <d v="2024-07-29T16:30:00" u="1"/>
+        <d v="2024-07-29T16:31:00" u="1"/>
+        <d v="2024-07-29T16:32:00" u="1"/>
+        <d v="2024-07-29T16:33:00" u="1"/>
+        <d v="2024-07-29T16:34:00" u="1"/>
+        <d v="2024-07-29T16:35:00" u="1"/>
+        <d v="2024-07-29T16:36:00" u="1"/>
+        <d v="2024-07-29T16:37:00" u="1"/>
+        <d v="2024-07-29T16:38:00" u="1"/>
+        <d v="2024-07-29T16:39:00" u="1"/>
+        <d v="2024-07-29T16:40:00" u="1"/>
+        <d v="2024-07-29T16:41:00" u="1"/>
+        <d v="2024-07-29T16:42:00" u="1"/>
+        <d v="2024-07-29T16:43:00" u="1"/>
+        <d v="2024-07-29T16:44:00" u="1"/>
+        <d v="2024-07-29T16:45:00" u="1"/>
+        <d v="2024-07-29T16:46:00" u="1"/>
+        <d v="2024-07-29T16:47:00" u="1"/>
+        <d v="2024-07-29T16:48:00" u="1"/>
+        <d v="2024-07-29T16:49:00" u="1"/>
+        <d v="2024-07-29T16:50:00" u="1"/>
+        <d v="2024-07-29T16:51:00" u="1"/>
+        <d v="2024-07-29T16:52:00" u="1"/>
+        <d v="2024-07-29T16:53:00" u="1"/>
+        <d v="2024-07-29T16:54:00" u="1"/>
+        <d v="2024-07-29T16:55:00" u="1"/>
+        <d v="2024-07-29T16:56:00" u="1"/>
+        <d v="2024-07-29T16:57:00" u="1"/>
+        <d v="2024-07-29T16:58:00" u="1"/>
+        <d v="2024-07-29T16:59:00" u="1"/>
         <d v="2024-07-25T10:15:00" u="1"/>
         <d v="2024-07-25T10:16:00" u="1"/>
         <d v="2024-07-25T10:17:00" u="1"/>
@@ -8238,7 +7220,7 @@
         <d v="2024-05-08T23:41:00" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="norm_text_hash_id" numFmtId="164">
+    <cacheField name="norm_text_hash_id" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="database_name" numFmtId="164">
@@ -8280,2514 +7262,26 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robert Horrocks" refreshedDate="45503.441248842595" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{BCC07ABF-141E-4A95-B7A4-936B2336CC3F}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table2"/>
-  </cacheSource>
-  <cacheFields count="12">
-    <cacheField name="datetime" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-05-08T00:00:00" maxDate="2024-07-25T10:59:00" count="2448">
-        <m/>
-        <d v="2024-07-25T10:15:00" u="1"/>
-        <d v="2024-07-25T10:16:00" u="1"/>
-        <d v="2024-07-25T10:17:00" u="1"/>
-        <d v="2024-07-25T10:18:00" u="1"/>
-        <d v="2024-07-25T10:19:00" u="1"/>
-        <d v="2024-07-25T10:20:00" u="1"/>
-        <d v="2024-07-25T10:21:00" u="1"/>
-        <d v="2024-07-25T10:22:00" u="1"/>
-        <d v="2024-07-25T10:23:00" u="1"/>
-        <d v="2024-07-25T10:24:00" u="1"/>
-        <d v="2024-07-25T10:25:00" u="1"/>
-        <d v="2024-07-25T10:26:00" u="1"/>
-        <d v="2024-07-25T10:27:00" u="1"/>
-        <d v="2024-07-25T10:28:00" u="1"/>
-        <d v="2024-07-25T10:29:00" u="1"/>
-        <d v="2024-07-25T10:30:00" u="1"/>
-        <d v="2024-07-25T10:31:00" u="1"/>
-        <d v="2024-07-25T10:32:00" u="1"/>
-        <d v="2024-07-25T10:33:00" u="1"/>
-        <d v="2024-07-25T10:34:00" u="1"/>
-        <d v="2024-07-25T10:35:00" u="1"/>
-        <d v="2024-07-25T10:36:00" u="1"/>
-        <d v="2024-07-25T10:37:00" u="1"/>
-        <d v="2024-07-25T10:38:00" u="1"/>
-        <d v="2024-07-25T10:39:00" u="1"/>
-        <d v="2024-07-25T10:40:00" u="1"/>
-        <d v="2024-07-25T10:41:00" u="1"/>
-        <d v="2024-07-25T10:42:00" u="1"/>
-        <d v="2024-07-25T10:43:00" u="1"/>
-        <d v="2024-07-25T10:44:00" u="1"/>
-        <d v="2024-07-25T10:45:00" u="1"/>
-        <d v="2024-07-25T10:46:00" u="1"/>
-        <d v="2024-07-25T10:47:00" u="1"/>
-        <d v="2024-07-25T10:48:00" u="1"/>
-        <d v="2024-07-25T10:49:00" u="1"/>
-        <d v="2024-07-25T10:50:00" u="1"/>
-        <d v="2024-07-25T10:51:00" u="1"/>
-        <d v="2024-07-25T10:52:00" u="1"/>
-        <d v="2024-07-25T10:53:00" u="1"/>
-        <d v="2024-07-25T10:54:00" u="1"/>
-        <d v="2024-07-25T10:55:00" u="1"/>
-        <d v="2024-07-25T10:56:00" u="1"/>
-        <d v="2024-07-25T10:57:00" u="1"/>
-        <d v="2024-07-25T10:58:00" u="1"/>
-        <d v="2024-07-25T10:59:00" u="1"/>
-        <d v="2024-07-15T23:01:00" u="1"/>
-        <d v="2024-07-15T23:03:00" u="1"/>
-        <d v="2024-07-15T23:04:00" u="1"/>
-        <d v="2024-07-15T23:06:00" u="1"/>
-        <d v="2024-07-15T23:08:00" u="1"/>
-        <d v="2024-07-15T23:09:00" u="1"/>
-        <d v="2024-07-15T23:10:00" u="1"/>
-        <d v="2024-07-15T23:11:00" u="1"/>
-        <d v="2024-07-15T23:12:00" u="1"/>
-        <d v="2024-07-15T23:13:00" u="1"/>
-        <d v="2024-07-15T23:15:00" u="1"/>
-        <d v="2024-07-15T23:17:00" u="1"/>
-        <d v="2024-07-15T23:18:00" u="1"/>
-        <d v="2024-07-15T23:24:00" u="1"/>
-        <d v="2024-07-15T23:27:00" u="1"/>
-        <d v="2024-07-15T23:31:00" u="1"/>
-        <d v="2024-07-15T23:32:00" u="1"/>
-        <d v="2024-07-15T23:33:00" u="1"/>
-        <d v="2024-07-15T23:34:00" u="1"/>
-        <d v="2024-07-15T23:35:00" u="1"/>
-        <d v="2024-07-15T23:41:00" u="1"/>
-        <d v="2024-07-15T23:42:00" u="1"/>
-        <d v="2024-07-15T23:47:00" u="1"/>
-        <d v="2024-07-16T00:08:00" u="1"/>
-        <d v="2024-07-16T01:07:00" u="1"/>
-        <d v="2024-07-16T01:08:00" u="1"/>
-        <d v="2024-07-16T01:12:00" u="1"/>
-        <d v="2024-07-16T01:14:00" u="1"/>
-        <d v="2024-07-16T01:26:00" u="1"/>
-        <d v="2024-07-16T02:22:00" u="1"/>
-        <d v="2024-07-16T03:03:00" u="1"/>
-        <d v="2024-07-16T03:11:00" u="1"/>
-        <d v="2024-07-16T03:31:00" u="1"/>
-        <d v="2024-07-16T03:39:00" u="1"/>
-        <d v="2024-07-16T03:40:00" u="1"/>
-        <d v="2024-07-16T03:45:00" u="1"/>
-        <d v="2024-07-16T03:46:00" u="1"/>
-        <d v="2024-07-16T03:48:00" u="1"/>
-        <d v="2024-07-16T03:49:00" u="1"/>
-        <d v="2024-07-16T03:55:00" u="1"/>
-        <d v="2024-07-16T03:56:00" u="1"/>
-        <d v="2024-07-16T03:57:00" u="1"/>
-        <d v="2024-07-16T03:58:00" u="1"/>
-        <d v="2024-07-16T03:59:00" u="1"/>
-        <d v="2024-07-16T04:00:00" u="1"/>
-        <d v="2024-07-16T04:01:00" u="1"/>
-        <d v="2024-07-16T04:02:00" u="1"/>
-        <d v="2024-07-16T04:03:00" u="1"/>
-        <d v="2024-07-16T04:04:00" u="1"/>
-        <d v="2024-07-16T04:05:00" u="1"/>
-        <d v="2024-07-16T04:06:00" u="1"/>
-        <d v="2024-07-16T04:07:00" u="1"/>
-        <d v="2024-07-16T04:08:00" u="1"/>
-        <d v="2024-07-16T04:09:00" u="1"/>
-        <d v="2024-07-16T04:10:00" u="1"/>
-        <d v="2024-07-16T04:11:00" u="1"/>
-        <d v="2024-07-16T04:15:00" u="1"/>
-        <d v="2024-07-16T04:17:00" u="1"/>
-        <d v="2024-07-16T04:18:00" u="1"/>
-        <d v="2024-07-16T04:21:00" u="1"/>
-        <d v="2024-07-16T04:23:00" u="1"/>
-        <d v="2024-07-16T04:24:00" u="1"/>
-        <d v="2024-07-16T04:25:00" u="1"/>
-        <d v="2024-07-16T04:26:00" u="1"/>
-        <d v="2024-07-16T04:28:00" u="1"/>
-        <d v="2024-07-16T04:29:00" u="1"/>
-        <d v="2024-07-16T04:30:00" u="1"/>
-        <d v="2024-07-16T04:31:00" u="1"/>
-        <d v="2024-07-16T04:32:00" u="1"/>
-        <d v="2024-07-16T04:33:00" u="1"/>
-        <d v="2024-07-16T04:34:00" u="1"/>
-        <d v="2024-07-16T04:35:00" u="1"/>
-        <d v="2024-07-16T04:36:00" u="1"/>
-        <d v="2024-07-16T04:37:00" u="1"/>
-        <d v="2024-07-16T04:38:00" u="1"/>
-        <d v="2024-07-16T04:39:00" u="1"/>
-        <d v="2024-07-16T04:40:00" u="1"/>
-        <d v="2024-07-16T04:41:00" u="1"/>
-        <d v="2024-07-16T04:42:00" u="1"/>
-        <d v="2024-07-16T04:43:00" u="1"/>
-        <d v="2024-07-16T04:44:00" u="1"/>
-        <d v="2024-07-16T04:45:00" u="1"/>
-        <d v="2024-07-16T04:46:00" u="1"/>
-        <d v="2024-07-16T04:47:00" u="1"/>
-        <d v="2024-07-16T04:48:00" u="1"/>
-        <d v="2024-07-16T04:49:00" u="1"/>
-        <d v="2024-07-16T04:50:00" u="1"/>
-        <d v="2024-07-16T04:51:00" u="1"/>
-        <d v="2024-07-16T04:52:00" u="1"/>
-        <d v="2024-07-16T04:53:00" u="1"/>
-        <d v="2024-07-16T04:54:00" u="1"/>
-        <d v="2024-07-16T04:55:00" u="1"/>
-        <d v="2024-07-16T04:56:00" u="1"/>
-        <d v="2024-07-16T04:57:00" u="1"/>
-        <d v="2024-07-16T04:58:00" u="1"/>
-        <d v="2024-07-16T04:59:00" u="1"/>
-        <d v="2024-07-16T05:00:00" u="1"/>
-        <d v="2024-07-16T05:01:00" u="1"/>
-        <d v="2024-07-16T05:02:00" u="1"/>
-        <d v="2024-07-16T05:03:00" u="1"/>
-        <d v="2024-07-16T05:04:00" u="1"/>
-        <d v="2024-07-16T05:05:00" u="1"/>
-        <d v="2024-07-16T05:06:00" u="1"/>
-        <d v="2024-07-16T05:07:00" u="1"/>
-        <d v="2024-07-16T05:08:00" u="1"/>
-        <d v="2024-07-16T05:09:00" u="1"/>
-        <d v="2024-07-16T05:10:00" u="1"/>
-        <d v="2024-07-16T05:11:00" u="1"/>
-        <d v="2024-07-16T05:12:00" u="1"/>
-        <d v="2024-07-16T05:13:00" u="1"/>
-        <d v="2024-07-16T05:14:00" u="1"/>
-        <d v="2024-07-16T05:15:00" u="1"/>
-        <d v="2024-07-16T05:16:00" u="1"/>
-        <d v="2024-07-16T05:17:00" u="1"/>
-        <d v="2024-07-16T05:18:00" u="1"/>
-        <d v="2024-07-16T05:19:00" u="1"/>
-        <d v="2024-07-16T05:20:00" u="1"/>
-        <d v="2024-07-16T05:21:00" u="1"/>
-        <d v="2024-07-16T05:22:00" u="1"/>
-        <d v="2024-07-16T05:23:00" u="1"/>
-        <d v="2024-07-16T05:24:00" u="1"/>
-        <d v="2024-07-16T05:25:00" u="1"/>
-        <d v="2024-07-16T05:26:00" u="1"/>
-        <d v="2024-07-16T05:27:00" u="1"/>
-        <d v="2024-07-16T05:28:00" u="1"/>
-        <d v="2024-07-16T05:29:00" u="1"/>
-        <d v="2024-07-16T05:30:00" u="1"/>
-        <d v="2024-07-16T05:31:00" u="1"/>
-        <d v="2024-07-16T05:32:00" u="1"/>
-        <d v="2024-07-16T05:33:00" u="1"/>
-        <d v="2024-07-16T05:34:00" u="1"/>
-        <d v="2024-07-16T05:35:00" u="1"/>
-        <d v="2024-07-16T05:36:00" u="1"/>
-        <d v="2024-07-16T05:37:00" u="1"/>
-        <d v="2024-07-16T05:38:00" u="1"/>
-        <d v="2024-07-16T05:39:00" u="1"/>
-        <d v="2024-07-16T05:40:00" u="1"/>
-        <d v="2024-07-16T05:41:00" u="1"/>
-        <d v="2024-07-16T05:42:00" u="1"/>
-        <d v="2024-07-16T05:43:00" u="1"/>
-        <d v="2024-07-16T05:44:00" u="1"/>
-        <d v="2024-07-16T05:45:00" u="1"/>
-        <d v="2024-07-16T05:46:00" u="1"/>
-        <d v="2024-07-16T05:47:00" u="1"/>
-        <d v="2024-07-16T05:48:00" u="1"/>
-        <d v="2024-07-16T05:49:00" u="1"/>
-        <d v="2024-07-16T05:50:00" u="1"/>
-        <d v="2024-07-16T05:51:00" u="1"/>
-        <d v="2024-07-16T05:52:00" u="1"/>
-        <d v="2024-07-16T05:53:00" u="1"/>
-        <d v="2024-07-16T05:54:00" u="1"/>
-        <d v="2024-07-16T05:55:00" u="1"/>
-        <d v="2024-07-16T05:56:00" u="1"/>
-        <d v="2024-07-16T05:57:00" u="1"/>
-        <d v="2024-07-16T05:58:00" u="1"/>
-        <d v="2024-07-16T05:59:00" u="1"/>
-        <d v="2024-07-16T06:00:00" u="1"/>
-        <d v="2024-07-16T06:01:00" u="1"/>
-        <d v="2024-07-16T06:02:00" u="1"/>
-        <d v="2024-07-16T06:03:00" u="1"/>
-        <d v="2024-07-16T06:04:00" u="1"/>
-        <d v="2024-07-16T06:05:00" u="1"/>
-        <d v="2024-07-16T06:06:00" u="1"/>
-        <d v="2024-07-16T06:07:00" u="1"/>
-        <d v="2024-07-16T06:08:00" u="1"/>
-        <d v="2024-07-16T06:09:00" u="1"/>
-        <d v="2024-07-16T06:10:00" u="1"/>
-        <d v="2024-07-16T06:11:00" u="1"/>
-        <d v="2024-07-16T06:12:00" u="1"/>
-        <d v="2024-07-16T06:13:00" u="1"/>
-        <d v="2024-07-16T06:14:00" u="1"/>
-        <d v="2024-07-16T06:15:00" u="1"/>
-        <d v="2024-07-16T06:16:00" u="1"/>
-        <d v="2024-07-16T06:17:00" u="1"/>
-        <d v="2024-07-16T06:18:00" u="1"/>
-        <d v="2024-07-16T06:19:00" u="1"/>
-        <d v="2024-07-16T06:20:00" u="1"/>
-        <d v="2024-07-16T06:21:00" u="1"/>
-        <d v="2024-07-16T06:22:00" u="1"/>
-        <d v="2024-07-16T06:23:00" u="1"/>
-        <d v="2024-07-16T06:24:00" u="1"/>
-        <d v="2024-07-16T06:25:00" u="1"/>
-        <d v="2024-07-16T06:26:00" u="1"/>
-        <d v="2024-07-16T06:27:00" u="1"/>
-        <d v="2024-07-16T06:28:00" u="1"/>
-        <d v="2024-07-16T06:29:00" u="1"/>
-        <d v="2024-07-16T06:30:00" u="1"/>
-        <d v="2024-07-16T06:31:00" u="1"/>
-        <d v="2024-07-16T06:32:00" u="1"/>
-        <d v="2024-07-16T06:33:00" u="1"/>
-        <d v="2024-07-16T06:34:00" u="1"/>
-        <d v="2024-07-16T06:35:00" u="1"/>
-        <d v="2024-07-16T06:36:00" u="1"/>
-        <d v="2024-07-16T06:37:00" u="1"/>
-        <d v="2024-07-16T06:38:00" u="1"/>
-        <d v="2024-07-16T06:39:00" u="1"/>
-        <d v="2024-07-16T06:40:00" u="1"/>
-        <d v="2024-07-16T06:41:00" u="1"/>
-        <d v="2024-07-16T06:42:00" u="1"/>
-        <d v="2024-07-16T06:43:00" u="1"/>
-        <d v="2024-07-16T06:44:00" u="1"/>
-        <d v="2024-07-16T06:45:00" u="1"/>
-        <d v="2024-07-16T06:46:00" u="1"/>
-        <d v="2024-07-16T06:47:00" u="1"/>
-        <d v="2024-07-16T06:48:00" u="1"/>
-        <d v="2024-07-16T06:49:00" u="1"/>
-        <d v="2024-07-16T06:50:00" u="1"/>
-        <d v="2024-07-16T06:51:00" u="1"/>
-        <d v="2024-07-16T06:52:00" u="1"/>
-        <d v="2024-07-16T06:53:00" u="1"/>
-        <d v="2024-07-16T06:54:00" u="1"/>
-        <d v="2024-07-16T06:55:00" u="1"/>
-        <d v="2024-07-16T06:56:00" u="1"/>
-        <d v="2024-07-16T06:57:00" u="1"/>
-        <d v="2024-07-16T06:58:00" u="1"/>
-        <d v="2024-07-16T06:59:00" u="1"/>
-        <d v="2024-07-16T07:00:00" u="1"/>
-        <d v="2024-07-16T07:01:00" u="1"/>
-        <d v="2024-07-16T07:02:00" u="1"/>
-        <d v="2024-07-16T07:03:00" u="1"/>
-        <d v="2024-07-16T07:04:00" u="1"/>
-        <d v="2024-07-16T07:05:00" u="1"/>
-        <d v="2024-07-16T07:06:00" u="1"/>
-        <d v="2024-07-16T07:07:00" u="1"/>
-        <d v="2024-07-16T07:08:00" u="1"/>
-        <d v="2024-07-16T07:09:00" u="1"/>
-        <d v="2024-07-16T07:10:00" u="1"/>
-        <d v="2024-07-16T07:11:00" u="1"/>
-        <d v="2024-07-16T07:12:00" u="1"/>
-        <d v="2024-07-16T07:13:00" u="1"/>
-        <d v="2024-07-16T07:14:00" u="1"/>
-        <d v="2024-07-16T07:15:00" u="1"/>
-        <d v="2024-07-16T07:16:00" u="1"/>
-        <d v="2024-07-16T07:17:00" u="1"/>
-        <d v="2024-07-16T07:18:00" u="1"/>
-        <d v="2024-07-16T07:19:00" u="1"/>
-        <d v="2024-07-16T07:20:00" u="1"/>
-        <d v="2024-07-16T07:21:00" u="1"/>
-        <d v="2024-07-16T07:22:00" u="1"/>
-        <d v="2024-07-16T07:23:00" u="1"/>
-        <d v="2024-07-16T07:24:00" u="1"/>
-        <d v="2024-07-16T07:25:00" u="1"/>
-        <d v="2024-07-16T07:26:00" u="1"/>
-        <d v="2024-07-16T07:27:00" u="1"/>
-        <d v="2024-07-16T07:28:00" u="1"/>
-        <d v="2024-07-16T07:29:00" u="1"/>
-        <d v="2024-07-16T07:30:00" u="1"/>
-        <d v="2024-07-16T07:31:00" u="1"/>
-        <d v="2024-07-16T07:32:00" u="1"/>
-        <d v="2024-07-16T07:33:00" u="1"/>
-        <d v="2024-07-16T07:34:00" u="1"/>
-        <d v="2024-07-16T07:35:00" u="1"/>
-        <d v="2024-07-16T07:36:00" u="1"/>
-        <d v="2024-07-16T07:37:00" u="1"/>
-        <d v="2024-07-16T07:38:00" u="1"/>
-        <d v="2024-07-16T07:39:00" u="1"/>
-        <d v="2024-07-16T07:40:00" u="1"/>
-        <d v="2024-07-16T07:41:00" u="1"/>
-        <d v="2024-07-16T07:42:00" u="1"/>
-        <d v="2024-07-16T07:43:00" u="1"/>
-        <d v="2024-07-16T07:44:00" u="1"/>
-        <d v="2024-07-16T07:45:00" u="1"/>
-        <d v="2024-07-16T07:46:00" u="1"/>
-        <d v="2024-07-16T07:47:00" u="1"/>
-        <d v="2024-07-16T07:48:00" u="1"/>
-        <d v="2024-07-16T07:49:00" u="1"/>
-        <d v="2024-07-16T07:50:00" u="1"/>
-        <d v="2024-07-16T07:51:00" u="1"/>
-        <d v="2024-07-16T07:52:00" u="1"/>
-        <d v="2024-07-16T07:53:00" u="1"/>
-        <d v="2024-07-16T07:54:00" u="1"/>
-        <d v="2024-07-16T07:55:00" u="1"/>
-        <d v="2024-07-16T07:56:00" u="1"/>
-        <d v="2024-07-16T07:57:00" u="1"/>
-        <d v="2024-07-16T07:58:00" u="1"/>
-        <d v="2024-07-16T07:59:00" u="1"/>
-        <d v="2024-07-16T08:00:00" u="1"/>
-        <d v="2024-07-16T08:01:00" u="1"/>
-        <d v="2024-07-16T08:02:00" u="1"/>
-        <d v="2024-07-16T08:03:00" u="1"/>
-        <d v="2024-07-16T08:04:00" u="1"/>
-        <d v="2024-07-16T08:05:00" u="1"/>
-        <d v="2024-07-16T08:06:00" u="1"/>
-        <d v="2024-07-16T08:07:00" u="1"/>
-        <d v="2024-07-16T08:08:00" u="1"/>
-        <d v="2024-07-16T08:09:00" u="1"/>
-        <d v="2024-07-16T08:10:00" u="1"/>
-        <d v="2024-07-16T08:11:00" u="1"/>
-        <d v="2024-07-16T08:12:00" u="1"/>
-        <d v="2024-07-16T08:13:00" u="1"/>
-        <d v="2024-07-16T08:14:00" u="1"/>
-        <d v="2024-07-16T08:15:00" u="1"/>
-        <d v="2024-07-16T08:16:00" u="1"/>
-        <d v="2024-07-16T08:17:00" u="1"/>
-        <d v="2024-07-16T08:18:00" u="1"/>
-        <d v="2024-07-16T08:19:00" u="1"/>
-        <d v="2024-07-16T08:20:00" u="1"/>
-        <d v="2024-07-16T08:21:00" u="1"/>
-        <d v="2024-07-16T08:22:00" u="1"/>
-        <d v="2024-07-16T08:23:00" u="1"/>
-        <d v="2024-07-16T08:24:00" u="1"/>
-        <d v="2024-07-16T08:25:00" u="1"/>
-        <d v="2024-07-16T08:26:00" u="1"/>
-        <d v="2024-07-16T08:27:00" u="1"/>
-        <d v="2024-07-16T08:28:00" u="1"/>
-        <d v="2024-07-16T08:29:00" u="1"/>
-        <d v="2024-07-16T08:30:00" u="1"/>
-        <d v="2024-07-16T08:31:00" u="1"/>
-        <d v="2024-07-16T08:32:00" u="1"/>
-        <d v="2024-07-16T08:33:00" u="1"/>
-        <d v="2024-07-16T08:34:00" u="1"/>
-        <d v="2024-07-16T08:35:00" u="1"/>
-        <d v="2024-07-16T08:36:00" u="1"/>
-        <d v="2024-07-16T08:37:00" u="1"/>
-        <d v="2024-07-16T08:38:00" u="1"/>
-        <d v="2024-07-16T08:39:00" u="1"/>
-        <d v="2024-07-16T08:40:00" u="1"/>
-        <d v="2024-07-16T08:41:00" u="1"/>
-        <d v="2024-07-16T08:42:00" u="1"/>
-        <d v="2024-07-16T08:43:00" u="1"/>
-        <d v="2024-07-16T08:44:00" u="1"/>
-        <d v="2024-07-16T08:45:00" u="1"/>
-        <d v="2024-07-16T08:46:00" u="1"/>
-        <d v="2024-07-16T08:47:00" u="1"/>
-        <d v="2024-07-16T08:48:00" u="1"/>
-        <d v="2024-07-16T08:49:00" u="1"/>
-        <d v="2024-07-16T08:50:00" u="1"/>
-        <d v="2024-07-16T08:51:00" u="1"/>
-        <d v="2024-07-16T08:52:00" u="1"/>
-        <d v="2024-07-16T08:53:00" u="1"/>
-        <d v="2024-07-16T08:54:00" u="1"/>
-        <d v="2024-07-16T08:55:00" u="1"/>
-        <d v="2024-07-16T08:56:00" u="1"/>
-        <d v="2024-07-16T08:57:00" u="1"/>
-        <d v="2024-07-16T08:58:00" u="1"/>
-        <d v="2024-07-16T08:59:00" u="1"/>
-        <d v="2024-07-16T09:00:00" u="1"/>
-        <d v="2024-07-16T09:01:00" u="1"/>
-        <d v="2024-07-16T09:02:00" u="1"/>
-        <d v="2024-07-16T09:03:00" u="1"/>
-        <d v="2024-07-16T09:04:00" u="1"/>
-        <d v="2024-07-16T09:05:00" u="1"/>
-        <d v="2024-07-16T09:06:00" u="1"/>
-        <d v="2024-07-16T09:07:00" u="1"/>
-        <d v="2024-07-16T09:08:00" u="1"/>
-        <d v="2024-07-16T09:09:00" u="1"/>
-        <d v="2024-07-16T09:10:00" u="1"/>
-        <d v="2024-07-16T09:11:00" u="1"/>
-        <d v="2024-07-16T09:12:00" u="1"/>
-        <d v="2024-07-16T09:13:00" u="1"/>
-        <d v="2024-07-16T09:14:00" u="1"/>
-        <d v="2024-07-16T09:15:00" u="1"/>
-        <d v="2024-07-16T09:16:00" u="1"/>
-        <d v="2024-07-16T09:17:00" u="1"/>
-        <d v="2024-07-16T09:18:00" u="1"/>
-        <d v="2024-07-16T09:19:00" u="1"/>
-        <d v="2024-07-16T09:20:00" u="1"/>
-        <d v="2024-07-16T09:21:00" u="1"/>
-        <d v="2024-07-16T09:22:00" u="1"/>
-        <d v="2024-07-16T09:23:00" u="1"/>
-        <d v="2024-07-16T09:24:00" u="1"/>
-        <d v="2024-07-16T09:25:00" u="1"/>
-        <d v="2024-07-16T09:26:00" u="1"/>
-        <d v="2024-07-16T09:27:00" u="1"/>
-        <d v="2024-07-16T09:28:00" u="1"/>
-        <d v="2024-07-16T09:29:00" u="1"/>
-        <d v="2024-07-16T09:30:00" u="1"/>
-        <d v="2024-07-16T09:31:00" u="1"/>
-        <d v="2024-07-16T09:32:00" u="1"/>
-        <d v="2024-07-16T09:33:00" u="1"/>
-        <d v="2024-07-16T09:34:00" u="1"/>
-        <d v="2024-07-16T09:35:00" u="1"/>
-        <d v="2024-07-16T09:36:00" u="1"/>
-        <d v="2024-07-16T09:37:00" u="1"/>
-        <d v="2024-07-16T09:38:00" u="1"/>
-        <d v="2024-07-16T09:39:00" u="1"/>
-        <d v="2024-07-16T09:40:00" u="1"/>
-        <d v="2024-07-16T09:41:00" u="1"/>
-        <d v="2024-07-16T09:42:00" u="1"/>
-        <d v="2024-07-16T09:43:00" u="1"/>
-        <d v="2024-07-16T09:44:00" u="1"/>
-        <d v="2024-07-16T09:45:00" u="1"/>
-        <d v="2024-07-16T09:46:00" u="1"/>
-        <d v="2024-07-16T09:47:00" u="1"/>
-        <d v="2024-07-16T09:48:00" u="1"/>
-        <d v="2024-07-16T09:49:00" u="1"/>
-        <d v="2024-07-16T09:50:00" u="1"/>
-        <d v="2024-07-16T09:51:00" u="1"/>
-        <d v="2024-07-16T09:52:00" u="1"/>
-        <d v="2024-07-16T09:53:00" u="1"/>
-        <d v="2024-07-16T09:54:00" u="1"/>
-        <d v="2024-07-16T09:55:00" u="1"/>
-        <d v="2024-07-16T09:56:00" u="1"/>
-        <d v="2024-07-16T09:57:00" u="1"/>
-        <d v="2024-07-16T09:58:00" u="1"/>
-        <d v="2024-07-16T09:59:00" u="1"/>
-        <d v="2024-07-16T10:00:00" u="1"/>
-        <d v="2024-07-16T10:01:00" u="1"/>
-        <d v="2024-07-16T10:02:00" u="1"/>
-        <d v="2024-07-16T10:03:00" u="1"/>
-        <d v="2024-07-16T10:04:00" u="1"/>
-        <d v="2024-07-16T10:05:00" u="1"/>
-        <d v="2024-07-16T10:06:00" u="1"/>
-        <d v="2024-07-16T10:07:00" u="1"/>
-        <d v="2024-07-16T10:08:00" u="1"/>
-        <d v="2024-07-16T10:09:00" u="1"/>
-        <d v="2024-07-16T10:10:00" u="1"/>
-        <d v="2024-07-16T10:11:00" u="1"/>
-        <d v="2024-07-16T10:12:00" u="1"/>
-        <d v="2024-07-16T10:13:00" u="1"/>
-        <d v="2024-07-16T10:14:00" u="1"/>
-        <d v="2024-07-16T10:15:00" u="1"/>
-        <d v="2024-07-16T10:16:00" u="1"/>
-        <d v="2024-07-16T10:17:00" u="1"/>
-        <d v="2024-07-16T10:18:00" u="1"/>
-        <d v="2024-07-16T10:19:00" u="1"/>
-        <d v="2024-07-16T10:20:00" u="1"/>
-        <d v="2024-07-16T10:21:00" u="1"/>
-        <d v="2024-07-16T10:22:00" u="1"/>
-        <d v="2024-07-16T10:23:00" u="1"/>
-        <d v="2024-07-16T10:24:00" u="1"/>
-        <d v="2024-07-16T10:25:00" u="1"/>
-        <d v="2024-07-16T10:26:00" u="1"/>
-        <d v="2024-07-16T10:27:00" u="1"/>
-        <d v="2024-07-16T10:28:00" u="1"/>
-        <d v="2024-07-16T10:29:00" u="1"/>
-        <d v="2024-07-16T10:30:00" u="1"/>
-        <d v="2024-07-16T10:31:00" u="1"/>
-        <d v="2024-07-16T10:32:00" u="1"/>
-        <d v="2024-07-16T10:33:00" u="1"/>
-        <d v="2024-07-16T10:34:00" u="1"/>
-        <d v="2024-07-16T10:35:00" u="1"/>
-        <d v="2024-07-16T10:36:00" u="1"/>
-        <d v="2024-07-16T10:37:00" u="1"/>
-        <d v="2024-07-16T10:38:00" u="1"/>
-        <d v="2024-07-16T10:39:00" u="1"/>
-        <d v="2024-07-16T10:40:00" u="1"/>
-        <d v="2024-07-16T10:41:00" u="1"/>
-        <d v="2024-07-16T10:42:00" u="1"/>
-        <d v="2024-07-16T10:43:00" u="1"/>
-        <d v="2024-07-16T10:44:00" u="1"/>
-        <d v="2024-07-16T10:45:00" u="1"/>
-        <d v="2024-07-16T10:46:00" u="1"/>
-        <d v="2024-07-16T10:47:00" u="1"/>
-        <d v="2024-07-16T10:48:00" u="1"/>
-        <d v="2024-07-16T10:49:00" u="1"/>
-        <d v="2024-07-16T10:50:00" u="1"/>
-        <d v="2024-07-16T10:51:00" u="1"/>
-        <d v="2024-07-16T10:52:00" u="1"/>
-        <d v="2024-07-16T10:53:00" u="1"/>
-        <d v="2024-07-16T10:54:00" u="1"/>
-        <d v="2024-07-16T10:55:00" u="1"/>
-        <d v="2024-07-16T10:56:00" u="1"/>
-        <d v="2024-07-16T10:57:00" u="1"/>
-        <d v="2024-07-16T10:58:00" u="1"/>
-        <d v="2024-07-16T10:59:00" u="1"/>
-        <d v="2024-07-16T11:00:00" u="1"/>
-        <d v="2024-07-16T11:01:00" u="1"/>
-        <d v="2024-07-16T11:02:00" u="1"/>
-        <d v="2024-07-16T11:03:00" u="1"/>
-        <d v="2024-07-16T11:04:00" u="1"/>
-        <d v="2024-07-16T11:05:00" u="1"/>
-        <d v="2024-07-16T11:06:00" u="1"/>
-        <d v="2024-07-16T11:07:00" u="1"/>
-        <d v="2024-07-16T11:08:00" u="1"/>
-        <d v="2024-07-16T11:09:00" u="1"/>
-        <d v="2024-07-16T11:10:00" u="1"/>
-        <d v="2024-07-16T11:11:00" u="1"/>
-        <d v="2024-07-16T11:12:00" u="1"/>
-        <d v="2024-07-16T11:13:00" u="1"/>
-        <d v="2024-07-16T11:14:00" u="1"/>
-        <d v="2024-07-16T11:15:00" u="1"/>
-        <d v="2024-07-16T11:16:00" u="1"/>
-        <d v="2024-07-16T11:17:00" u="1"/>
-        <d v="2024-07-16T11:18:00" u="1"/>
-        <d v="2024-07-16T11:19:00" u="1"/>
-        <d v="2024-07-16T11:20:00" u="1"/>
-        <d v="2024-07-16T11:21:00" u="1"/>
-        <d v="2024-07-16T11:22:00" u="1"/>
-        <d v="2024-07-16T11:23:00" u="1"/>
-        <d v="2024-07-16T11:24:00" u="1"/>
-        <d v="2024-07-16T11:25:00" u="1"/>
-        <d v="2024-07-16T11:26:00" u="1"/>
-        <d v="2024-07-16T11:27:00" u="1"/>
-        <d v="2024-07-16T11:28:00" u="1"/>
-        <d v="2024-07-16T11:29:00" u="1"/>
-        <d v="2024-07-16T11:30:00" u="1"/>
-        <d v="2024-07-16T11:31:00" u="1"/>
-        <d v="2024-07-16T11:32:00" u="1"/>
-        <d v="2024-07-16T11:33:00" u="1"/>
-        <d v="2024-07-16T11:34:00" u="1"/>
-        <d v="2024-07-16T11:35:00" u="1"/>
-        <d v="2024-07-16T11:36:00" u="1"/>
-        <d v="2024-07-16T11:37:00" u="1"/>
-        <d v="2024-07-16T11:38:00" u="1"/>
-        <d v="2024-07-16T11:39:00" u="1"/>
-        <d v="2024-07-16T11:40:00" u="1"/>
-        <d v="2024-07-16T11:41:00" u="1"/>
-        <d v="2024-07-16T11:42:00" u="1"/>
-        <d v="2024-07-16T11:43:00" u="1"/>
-        <d v="2024-07-16T11:44:00" u="1"/>
-        <d v="2024-07-16T11:45:00" u="1"/>
-        <d v="2024-07-16T11:46:00" u="1"/>
-        <d v="2024-07-16T11:47:00" u="1"/>
-        <d v="2024-07-16T11:48:00" u="1"/>
-        <d v="2024-07-16T11:49:00" u="1"/>
-        <d v="2024-07-16T11:50:00" u="1"/>
-        <d v="2024-07-16T11:51:00" u="1"/>
-        <d v="2024-07-16T11:52:00" u="1"/>
-        <d v="2024-07-16T11:53:00" u="1"/>
-        <d v="2024-07-16T11:54:00" u="1"/>
-        <d v="2024-07-16T11:55:00" u="1"/>
-        <d v="2024-07-16T11:56:00" u="1"/>
-        <d v="2024-07-16T11:57:00" u="1"/>
-        <d v="2024-07-16T11:58:00" u="1"/>
-        <d v="2024-07-16T11:59:00" u="1"/>
-        <d v="2024-07-16T12:00:00" u="1"/>
-        <d v="2024-07-16T12:01:00" u="1"/>
-        <d v="2024-07-16T12:02:00" u="1"/>
-        <d v="2024-07-16T12:03:00" u="1"/>
-        <d v="2024-07-16T12:04:00" u="1"/>
-        <d v="2024-07-16T12:05:00" u="1"/>
-        <d v="2024-07-16T12:06:00" u="1"/>
-        <d v="2024-07-16T12:07:00" u="1"/>
-        <d v="2024-07-16T12:08:00" u="1"/>
-        <d v="2024-07-16T12:09:00" u="1"/>
-        <d v="2024-07-16T12:10:00" u="1"/>
-        <d v="2024-07-16T12:11:00" u="1"/>
-        <d v="2024-07-16T12:12:00" u="1"/>
-        <d v="2024-07-16T12:13:00" u="1"/>
-        <d v="2024-07-16T12:14:00" u="1"/>
-        <d v="2024-07-16T12:15:00" u="1"/>
-        <d v="2024-07-16T12:16:00" u="1"/>
-        <d v="2024-07-16T12:17:00" u="1"/>
-        <d v="2024-07-16T12:18:00" u="1"/>
-        <d v="2024-07-16T12:19:00" u="1"/>
-        <d v="2024-07-16T12:20:00" u="1"/>
-        <d v="2024-07-16T12:21:00" u="1"/>
-        <d v="2024-07-16T12:22:00" u="1"/>
-        <d v="2024-07-16T12:23:00" u="1"/>
-        <d v="2024-07-16T12:24:00" u="1"/>
-        <d v="2024-07-16T12:25:00" u="1"/>
-        <d v="2024-07-16T12:26:00" u="1"/>
-        <d v="2024-07-16T12:27:00" u="1"/>
-        <d v="2024-07-16T12:28:00" u="1"/>
-        <d v="2024-07-16T12:29:00" u="1"/>
-        <d v="2024-07-16T12:30:00" u="1"/>
-        <d v="2024-07-16T12:31:00" u="1"/>
-        <d v="2024-07-16T12:32:00" u="1"/>
-        <d v="2024-07-16T12:33:00" u="1"/>
-        <d v="2024-07-16T12:34:00" u="1"/>
-        <d v="2024-07-16T12:35:00" u="1"/>
-        <d v="2024-07-16T12:36:00" u="1"/>
-        <d v="2024-07-16T12:37:00" u="1"/>
-        <d v="2024-07-16T12:38:00" u="1"/>
-        <d v="2024-07-16T12:39:00" u="1"/>
-        <d v="2024-07-16T12:40:00" u="1"/>
-        <d v="2024-07-16T12:41:00" u="1"/>
-        <d v="2024-07-16T12:42:00" u="1"/>
-        <d v="2024-07-16T12:43:00" u="1"/>
-        <d v="2024-07-16T12:44:00" u="1"/>
-        <d v="2024-07-16T12:45:00" u="1"/>
-        <d v="2024-07-16T12:46:00" u="1"/>
-        <d v="2024-07-16T12:47:00" u="1"/>
-        <d v="2024-07-16T12:48:00" u="1"/>
-        <d v="2024-07-16T12:49:00" u="1"/>
-        <d v="2024-07-16T12:50:00" u="1"/>
-        <d v="2024-07-16T12:51:00" u="1"/>
-        <d v="2024-07-16T12:52:00" u="1"/>
-        <d v="2024-07-16T12:53:00" u="1"/>
-        <d v="2024-07-16T12:54:00" u="1"/>
-        <d v="2024-07-16T12:55:00" u="1"/>
-        <d v="2024-07-16T12:56:00" u="1"/>
-        <d v="2024-07-16T12:57:00" u="1"/>
-        <d v="2024-07-16T12:58:00" u="1"/>
-        <d v="2024-07-16T12:59:00" u="1"/>
-        <d v="2024-07-16T13:00:00" u="1"/>
-        <d v="2024-07-16T13:01:00" u="1"/>
-        <d v="2024-07-16T13:02:00" u="1"/>
-        <d v="2024-07-16T13:03:00" u="1"/>
-        <d v="2024-07-16T13:04:00" u="1"/>
-        <d v="2024-07-16T13:05:00" u="1"/>
-        <d v="2024-07-16T13:06:00" u="1"/>
-        <d v="2024-07-16T13:07:00" u="1"/>
-        <d v="2024-07-16T13:08:00" u="1"/>
-        <d v="2024-07-16T13:09:00" u="1"/>
-        <d v="2024-07-16T13:10:00" u="1"/>
-        <d v="2024-07-16T13:11:00" u="1"/>
-        <d v="2024-07-16T13:12:00" u="1"/>
-        <d v="2024-07-16T13:13:00" u="1"/>
-        <d v="2024-07-16T13:14:00" u="1"/>
-        <d v="2024-07-16T13:15:00" u="1"/>
-        <d v="2024-07-16T13:16:00" u="1"/>
-        <d v="2024-07-16T13:17:00" u="1"/>
-        <d v="2024-07-16T13:18:00" u="1"/>
-        <d v="2024-07-16T13:19:00" u="1"/>
-        <d v="2024-07-16T13:20:00" u="1"/>
-        <d v="2024-07-16T13:21:00" u="1"/>
-        <d v="2024-07-16T13:22:00" u="1"/>
-        <d v="2024-07-16T13:23:00" u="1"/>
-        <d v="2024-07-16T13:24:00" u="1"/>
-        <d v="2024-07-16T13:25:00" u="1"/>
-        <d v="2024-07-16T13:26:00" u="1"/>
-        <d v="2024-07-16T13:27:00" u="1"/>
-        <d v="2024-07-16T13:28:00" u="1"/>
-        <d v="2024-07-16T13:29:00" u="1"/>
-        <d v="2024-07-16T13:30:00" u="1"/>
-        <d v="2024-07-16T13:31:00" u="1"/>
-        <d v="2024-07-16T13:32:00" u="1"/>
-        <d v="2024-07-16T13:33:00" u="1"/>
-        <d v="2024-07-16T13:34:00" u="1"/>
-        <d v="2024-07-16T13:35:00" u="1"/>
-        <d v="2024-07-16T13:36:00" u="1"/>
-        <d v="2024-07-16T13:37:00" u="1"/>
-        <d v="2024-07-16T13:38:00" u="1"/>
-        <d v="2024-07-16T13:39:00" u="1"/>
-        <d v="2024-07-16T13:40:00" u="1"/>
-        <d v="2024-07-16T13:41:00" u="1"/>
-        <d v="2024-07-16T13:42:00" u="1"/>
-        <d v="2024-07-16T13:43:00" u="1"/>
-        <d v="2024-07-16T13:44:00" u="1"/>
-        <d v="2024-07-16T13:45:00" u="1"/>
-        <d v="2024-07-16T13:46:00" u="1"/>
-        <d v="2024-07-16T13:47:00" u="1"/>
-        <d v="2024-07-16T13:48:00" u="1"/>
-        <d v="2024-07-16T13:49:00" u="1"/>
-        <d v="2024-07-16T13:50:00" u="1"/>
-        <d v="2024-07-16T13:51:00" u="1"/>
-        <d v="2024-07-16T13:52:00" u="1"/>
-        <d v="2024-07-16T13:53:00" u="1"/>
-        <d v="2024-07-16T13:54:00" u="1"/>
-        <d v="2024-07-16T13:55:00" u="1"/>
-        <d v="2024-07-16T13:56:00" u="1"/>
-        <d v="2024-07-16T13:57:00" u="1"/>
-        <d v="2024-07-16T13:58:00" u="1"/>
-        <d v="2024-07-16T13:59:00" u="1"/>
-        <d v="2024-07-16T14:00:00" u="1"/>
-        <d v="2024-07-16T14:01:00" u="1"/>
-        <d v="2024-07-16T14:02:00" u="1"/>
-        <d v="2024-07-16T14:03:00" u="1"/>
-        <d v="2024-07-16T14:04:00" u="1"/>
-        <d v="2024-07-16T14:05:00" u="1"/>
-        <d v="2024-07-16T14:06:00" u="1"/>
-        <d v="2024-07-16T14:07:00" u="1"/>
-        <d v="2024-07-16T14:08:00" u="1"/>
-        <d v="2024-07-16T14:09:00" u="1"/>
-        <d v="2024-07-16T14:10:00" u="1"/>
-        <d v="2024-07-16T14:11:00" u="1"/>
-        <d v="2024-07-16T14:12:00" u="1"/>
-        <d v="2024-07-16T14:13:00" u="1"/>
-        <d v="2024-07-16T14:14:00" u="1"/>
-        <d v="2024-07-16T14:15:00" u="1"/>
-        <d v="2024-07-16T14:16:00" u="1"/>
-        <d v="2024-07-16T14:17:00" u="1"/>
-        <d v="2024-07-16T14:18:00" u="1"/>
-        <d v="2024-07-16T14:19:00" u="1"/>
-        <d v="2024-07-16T14:20:00" u="1"/>
-        <d v="2024-07-16T14:21:00" u="1"/>
-        <d v="2024-07-16T14:22:00" u="1"/>
-        <d v="2024-07-16T14:23:00" u="1"/>
-        <d v="2024-07-16T14:24:00" u="1"/>
-        <d v="2024-07-16T14:25:00" u="1"/>
-        <d v="2024-07-16T14:26:00" u="1"/>
-        <d v="2024-07-16T14:27:00" u="1"/>
-        <d v="2024-07-16T14:28:00" u="1"/>
-        <d v="2024-07-16T14:29:00" u="1"/>
-        <d v="2024-07-16T14:30:00" u="1"/>
-        <d v="2024-07-16T14:31:00" u="1"/>
-        <d v="2024-07-16T14:32:00" u="1"/>
-        <d v="2024-07-16T14:33:00" u="1"/>
-        <d v="2024-07-16T14:34:00" u="1"/>
-        <d v="2024-07-16T14:35:00" u="1"/>
-        <d v="2024-07-16T14:36:00" u="1"/>
-        <d v="2024-07-16T14:37:00" u="1"/>
-        <d v="2024-07-16T14:38:00" u="1"/>
-        <d v="2024-07-16T14:39:00" u="1"/>
-        <d v="2024-07-16T14:40:00" u="1"/>
-        <d v="2024-07-16T14:41:00" u="1"/>
-        <d v="2024-07-16T14:42:00" u="1"/>
-        <d v="2024-07-16T14:43:00" u="1"/>
-        <d v="2024-07-16T14:44:00" u="1"/>
-        <d v="2024-07-16T14:45:00" u="1"/>
-        <d v="2024-07-16T14:46:00" u="1"/>
-        <d v="2024-07-16T14:47:00" u="1"/>
-        <d v="2024-07-16T14:48:00" u="1"/>
-        <d v="2024-07-16T14:49:00" u="1"/>
-        <d v="2024-07-16T14:50:00" u="1"/>
-        <d v="2024-07-16T14:51:00" u="1"/>
-        <d v="2024-07-16T14:52:00" u="1"/>
-        <d v="2024-07-16T14:53:00" u="1"/>
-        <d v="2024-07-16T14:54:00" u="1"/>
-        <d v="2024-07-16T14:55:00" u="1"/>
-        <d v="2024-07-16T14:56:00" u="1"/>
-        <d v="2024-07-16T14:57:00" u="1"/>
-        <d v="2024-07-16T14:58:00" u="1"/>
-        <d v="2024-07-16T14:59:00" u="1"/>
-        <d v="2024-07-16T15:00:00" u="1"/>
-        <d v="2024-07-16T15:01:00" u="1"/>
-        <d v="2024-07-16T15:02:00" u="1"/>
-        <d v="2024-07-16T15:03:00" u="1"/>
-        <d v="2024-07-16T15:04:00" u="1"/>
-        <d v="2024-07-16T15:05:00" u="1"/>
-        <d v="2024-07-16T15:06:00" u="1"/>
-        <d v="2024-07-16T15:07:00" u="1"/>
-        <d v="2024-07-16T15:08:00" u="1"/>
-        <d v="2024-07-16T15:09:00" u="1"/>
-        <d v="2024-07-16T15:10:00" u="1"/>
-        <d v="2024-07-16T15:11:00" u="1"/>
-        <d v="2024-07-16T15:12:00" u="1"/>
-        <d v="2024-07-16T15:13:00" u="1"/>
-        <d v="2024-07-16T15:14:00" u="1"/>
-        <d v="2024-07-16T15:15:00" u="1"/>
-        <d v="2024-07-16T15:16:00" u="1"/>
-        <d v="2024-07-16T15:17:00" u="1"/>
-        <d v="2024-07-16T15:18:00" u="1"/>
-        <d v="2024-07-16T15:19:00" u="1"/>
-        <d v="2024-07-16T15:20:00" u="1"/>
-        <d v="2024-07-16T15:21:00" u="1"/>
-        <d v="2024-07-16T15:22:00" u="1"/>
-        <d v="2024-07-16T15:23:00" u="1"/>
-        <d v="2024-07-16T15:24:00" u="1"/>
-        <d v="2024-07-16T15:25:00" u="1"/>
-        <d v="2024-07-16T15:26:00" u="1"/>
-        <d v="2024-07-16T15:27:00" u="1"/>
-        <d v="2024-07-16T15:28:00" u="1"/>
-        <d v="2024-07-16T15:29:00" u="1"/>
-        <d v="2024-07-16T15:30:00" u="1"/>
-        <d v="2024-07-16T15:31:00" u="1"/>
-        <d v="2024-07-16T15:32:00" u="1"/>
-        <d v="2024-07-16T15:33:00" u="1"/>
-        <d v="2024-07-16T15:34:00" u="1"/>
-        <d v="2024-07-16T15:35:00" u="1"/>
-        <d v="2024-07-16T15:36:00" u="1"/>
-        <d v="2024-07-16T15:37:00" u="1"/>
-        <d v="2024-07-16T15:38:00" u="1"/>
-        <d v="2024-07-16T15:39:00" u="1"/>
-        <d v="2024-07-16T15:40:00" u="1"/>
-        <d v="2024-07-16T15:41:00" u="1"/>
-        <d v="2024-07-16T15:42:00" u="1"/>
-        <d v="2024-07-16T15:43:00" u="1"/>
-        <d v="2024-07-16T15:44:00" u="1"/>
-        <d v="2024-07-16T15:45:00" u="1"/>
-        <d v="2024-07-16T15:46:00" u="1"/>
-        <d v="2024-07-16T15:47:00" u="1"/>
-        <d v="2024-07-16T15:48:00" u="1"/>
-        <d v="2024-07-16T15:49:00" u="1"/>
-        <d v="2024-07-16T15:50:00" u="1"/>
-        <d v="2024-07-16T15:51:00" u="1"/>
-        <d v="2024-07-16T15:52:00" u="1"/>
-        <d v="2024-07-16T15:53:00" u="1"/>
-        <d v="2024-07-16T15:54:00" u="1"/>
-        <d v="2024-07-16T15:55:00" u="1"/>
-        <d v="2024-07-16T15:56:00" u="1"/>
-        <d v="2024-07-16T15:57:00" u="1"/>
-        <d v="2024-07-16T15:58:00" u="1"/>
-        <d v="2024-07-16T15:59:00" u="1"/>
-        <d v="2024-07-16T16:00:00" u="1"/>
-        <d v="2024-07-16T16:01:00" u="1"/>
-        <d v="2024-07-16T16:02:00" u="1"/>
-        <d v="2024-07-16T16:03:00" u="1"/>
-        <d v="2024-07-16T16:04:00" u="1"/>
-        <d v="2024-07-16T16:05:00" u="1"/>
-        <d v="2024-07-16T16:06:00" u="1"/>
-        <d v="2024-07-16T16:07:00" u="1"/>
-        <d v="2024-07-16T16:08:00" u="1"/>
-        <d v="2024-07-16T16:09:00" u="1"/>
-        <d v="2024-07-16T16:10:00" u="1"/>
-        <d v="2024-07-16T16:11:00" u="1"/>
-        <d v="2024-07-16T16:12:00" u="1"/>
-        <d v="2024-07-16T16:13:00" u="1"/>
-        <d v="2024-07-16T16:14:00" u="1"/>
-        <d v="2024-07-16T16:15:00" u="1"/>
-        <d v="2024-07-16T16:16:00" u="1"/>
-        <d v="2024-07-16T16:17:00" u="1"/>
-        <d v="2024-07-16T16:18:00" u="1"/>
-        <d v="2024-07-16T16:19:00" u="1"/>
-        <d v="2024-07-16T16:20:00" u="1"/>
-        <d v="2024-07-16T16:21:00" u="1"/>
-        <d v="2024-07-16T16:22:00" u="1"/>
-        <d v="2024-07-16T16:23:00" u="1"/>
-        <d v="2024-07-16T16:24:00" u="1"/>
-        <d v="2024-07-16T16:25:00" u="1"/>
-        <d v="2024-07-16T16:26:00" u="1"/>
-        <d v="2024-07-16T16:27:00" u="1"/>
-        <d v="2024-07-16T16:28:00" u="1"/>
-        <d v="2024-07-16T16:29:00" u="1"/>
-        <d v="2024-07-16T16:30:00" u="1"/>
-        <d v="2024-07-16T16:31:00" u="1"/>
-        <d v="2024-07-16T16:32:00" u="1"/>
-        <d v="2024-07-16T16:33:00" u="1"/>
-        <d v="2024-07-16T16:34:00" u="1"/>
-        <d v="2024-07-16T16:35:00" u="1"/>
-        <d v="2024-07-16T16:36:00" u="1"/>
-        <d v="2024-07-16T16:37:00" u="1"/>
-        <d v="2024-07-16T16:38:00" u="1"/>
-        <d v="2024-07-16T16:39:00" u="1"/>
-        <d v="2024-07-16T16:40:00" u="1"/>
-        <d v="2024-07-16T16:41:00" u="1"/>
-        <d v="2024-07-16T16:42:00" u="1"/>
-        <d v="2024-07-16T16:43:00" u="1"/>
-        <d v="2024-07-16T16:44:00" u="1"/>
-        <d v="2024-07-16T16:45:00" u="1"/>
-        <d v="2024-07-16T16:46:00" u="1"/>
-        <d v="2024-07-16T16:47:00" u="1"/>
-        <d v="2024-07-16T16:48:00" u="1"/>
-        <d v="2024-07-16T16:49:00" u="1"/>
-        <d v="2024-07-16T16:50:00" u="1"/>
-        <d v="2024-07-16T16:51:00" u="1"/>
-        <d v="2024-07-16T16:52:00" u="1"/>
-        <d v="2024-07-16T16:53:00" u="1"/>
-        <d v="2024-07-16T16:54:00" u="1"/>
-        <d v="2024-07-16T16:55:00" u="1"/>
-        <d v="2024-07-16T16:56:00" u="1"/>
-        <d v="2024-07-16T16:57:00" u="1"/>
-        <d v="2024-07-16T16:58:00" u="1"/>
-        <d v="2024-07-16T16:59:00" u="1"/>
-        <d v="2024-07-16T17:00:00" u="1"/>
-        <d v="2024-07-16T17:01:00" u="1"/>
-        <d v="2024-07-16T17:02:00" u="1"/>
-        <d v="2024-07-16T17:03:00" u="1"/>
-        <d v="2024-07-16T17:04:00" u="1"/>
-        <d v="2024-07-16T17:05:00" u="1"/>
-        <d v="2024-07-16T17:06:00" u="1"/>
-        <d v="2024-07-16T17:07:00" u="1"/>
-        <d v="2024-07-16T17:08:00" u="1"/>
-        <d v="2024-07-16T17:09:00" u="1"/>
-        <d v="2024-07-16T17:10:00" u="1"/>
-        <d v="2024-07-16T17:11:00" u="1"/>
-        <d v="2024-07-16T17:12:00" u="1"/>
-        <d v="2024-07-16T17:13:00" u="1"/>
-        <d v="2024-07-16T17:14:00" u="1"/>
-        <d v="2024-07-16T17:15:00" u="1"/>
-        <d v="2024-07-16T17:16:00" u="1"/>
-        <d v="2024-07-16T17:17:00" u="1"/>
-        <d v="2024-07-16T17:18:00" u="1"/>
-        <d v="2024-07-16T17:19:00" u="1"/>
-        <d v="2024-07-16T17:20:00" u="1"/>
-        <d v="2024-07-16T17:21:00" u="1"/>
-        <d v="2024-07-16T17:22:00" u="1"/>
-        <d v="2024-07-16T17:23:00" u="1"/>
-        <d v="2024-07-16T17:24:00" u="1"/>
-        <d v="2024-07-16T17:25:00" u="1"/>
-        <d v="2024-07-16T17:26:00" u="1"/>
-        <d v="2024-07-16T17:27:00" u="1"/>
-        <d v="2024-07-16T17:28:00" u="1"/>
-        <d v="2024-07-16T17:29:00" u="1"/>
-        <d v="2024-07-16T17:30:00" u="1"/>
-        <d v="2024-07-16T17:31:00" u="1"/>
-        <d v="2024-07-16T17:32:00" u="1"/>
-        <d v="2024-07-16T17:33:00" u="1"/>
-        <d v="2024-07-16T17:34:00" u="1"/>
-        <d v="2024-07-16T17:35:00" u="1"/>
-        <d v="2024-07-16T17:36:00" u="1"/>
-        <d v="2024-07-16T17:37:00" u="1"/>
-        <d v="2024-07-16T17:38:00" u="1"/>
-        <d v="2024-07-16T17:39:00" u="1"/>
-        <d v="2024-07-16T17:40:00" u="1"/>
-        <d v="2024-07-16T17:41:00" u="1"/>
-        <d v="2024-07-16T17:42:00" u="1"/>
-        <d v="2024-07-16T17:43:00" u="1"/>
-        <d v="2024-07-16T17:44:00" u="1"/>
-        <d v="2024-07-16T17:45:00" u="1"/>
-        <d v="2024-07-16T17:46:00" u="1"/>
-        <d v="2024-07-16T17:47:00" u="1"/>
-        <d v="2024-07-16T17:48:00" u="1"/>
-        <d v="2024-07-16T17:49:00" u="1"/>
-        <d v="2024-07-16T17:50:00" u="1"/>
-        <d v="2024-07-16T17:51:00" u="1"/>
-        <d v="2024-07-16T17:52:00" u="1"/>
-        <d v="2024-07-16T17:53:00" u="1"/>
-        <d v="2024-07-16T17:54:00" u="1"/>
-        <d v="2024-07-16T17:55:00" u="1"/>
-        <d v="2024-07-16T17:56:00" u="1"/>
-        <d v="2024-07-16T17:57:00" u="1"/>
-        <d v="2024-07-16T17:58:00" u="1"/>
-        <d v="2024-07-16T17:59:00" u="1"/>
-        <d v="2024-07-16T18:00:00" u="1"/>
-        <d v="2024-07-16T18:01:00" u="1"/>
-        <d v="2024-07-16T18:02:00" u="1"/>
-        <d v="2024-07-16T18:03:00" u="1"/>
-        <d v="2024-07-16T18:04:00" u="1"/>
-        <d v="2024-07-16T18:05:00" u="1"/>
-        <d v="2024-07-16T18:06:00" u="1"/>
-        <d v="2024-07-16T18:07:00" u="1"/>
-        <d v="2024-07-16T18:08:00" u="1"/>
-        <d v="2024-07-16T18:10:00" u="1"/>
-        <d v="2024-07-16T18:11:00" u="1"/>
-        <d v="2024-07-16T18:12:00" u="1"/>
-        <d v="2024-07-16T18:13:00" u="1"/>
-        <d v="2024-07-16T18:14:00" u="1"/>
-        <d v="2024-07-16T18:15:00" u="1"/>
-        <d v="2024-07-16T18:17:00" u="1"/>
-        <d v="2024-07-16T18:19:00" u="1"/>
-        <d v="2024-07-16T18:20:00" u="1"/>
-        <d v="2024-07-16T18:21:00" u="1"/>
-        <d v="2024-07-16T18:22:00" u="1"/>
-        <d v="2024-07-16T18:23:00" u="1"/>
-        <d v="2024-07-16T18:24:00" u="1"/>
-        <d v="2024-07-16T18:25:00" u="1"/>
-        <d v="2024-07-16T18:26:00" u="1"/>
-        <d v="2024-07-16T18:27:00" u="1"/>
-        <d v="2024-07-16T18:28:00" u="1"/>
-        <d v="2024-07-16T18:29:00" u="1"/>
-        <d v="2024-07-16T18:30:00" u="1"/>
-        <d v="2024-07-16T18:31:00" u="1"/>
-        <d v="2024-07-16T18:32:00" u="1"/>
-        <d v="2024-07-16T18:33:00" u="1"/>
-        <d v="2024-07-16T18:35:00" u="1"/>
-        <d v="2024-07-16T18:36:00" u="1"/>
-        <d v="2024-07-16T18:37:00" u="1"/>
-        <d v="2024-07-16T18:38:00" u="1"/>
-        <d v="2024-07-16T18:39:00" u="1"/>
-        <d v="2024-07-16T18:40:00" u="1"/>
-        <d v="2024-07-16T18:41:00" u="1"/>
-        <d v="2024-07-16T18:42:00" u="1"/>
-        <d v="2024-07-16T18:43:00" u="1"/>
-        <d v="2024-07-16T18:44:00" u="1"/>
-        <d v="2024-07-16T18:45:00" u="1"/>
-        <d v="2024-07-16T18:46:00" u="1"/>
-        <d v="2024-07-16T18:47:00" u="1"/>
-        <d v="2024-07-16T18:48:00" u="1"/>
-        <d v="2024-07-16T18:49:00" u="1"/>
-        <d v="2024-07-16T18:50:00" u="1"/>
-        <d v="2024-07-16T18:51:00" u="1"/>
-        <d v="2024-07-16T18:52:00" u="1"/>
-        <d v="2024-07-16T18:53:00" u="1"/>
-        <d v="2024-07-16T18:54:00" u="1"/>
-        <d v="2024-07-16T18:55:00" u="1"/>
-        <d v="2024-07-16T18:56:00" u="1"/>
-        <d v="2024-07-16T18:57:00" u="1"/>
-        <d v="2024-07-16T18:58:00" u="1"/>
-        <d v="2024-07-16T18:59:00" u="1"/>
-        <d v="2024-07-16T19:00:00" u="1"/>
-        <d v="2024-07-16T19:01:00" u="1"/>
-        <d v="2024-07-16T19:02:00" u="1"/>
-        <d v="2024-07-16T19:03:00" u="1"/>
-        <d v="2024-07-16T19:04:00" u="1"/>
-        <d v="2024-07-16T19:05:00" u="1"/>
-        <d v="2024-07-16T19:06:00" u="1"/>
-        <d v="2024-07-16T19:07:00" u="1"/>
-        <d v="2024-07-16T19:08:00" u="1"/>
-        <d v="2024-07-16T19:09:00" u="1"/>
-        <d v="2024-07-16T19:10:00" u="1"/>
-        <d v="2024-07-16T19:11:00" u="1"/>
-        <d v="2024-07-16T19:12:00" u="1"/>
-        <d v="2024-07-16T19:13:00" u="1"/>
-        <d v="2024-07-16T19:14:00" u="1"/>
-        <d v="2024-07-16T19:15:00" u="1"/>
-        <d v="2024-07-16T19:16:00" u="1"/>
-        <d v="2024-07-16T19:17:00" u="1"/>
-        <d v="2024-07-16T19:18:00" u="1"/>
-        <d v="2024-07-16T19:19:00" u="1"/>
-        <d v="2024-07-16T19:20:00" u="1"/>
-        <d v="2024-07-16T19:21:00" u="1"/>
-        <d v="2024-07-16T19:22:00" u="1"/>
-        <d v="2024-07-16T19:23:00" u="1"/>
-        <d v="2024-07-16T19:24:00" u="1"/>
-        <d v="2024-07-16T19:25:00" u="1"/>
-        <d v="2024-07-16T19:26:00" u="1"/>
-        <d v="2024-07-16T19:27:00" u="1"/>
-        <d v="2024-07-16T19:28:00" u="1"/>
-        <d v="2024-07-16T19:29:00" u="1"/>
-        <d v="2024-07-16T19:30:00" u="1"/>
-        <d v="2024-07-16T19:31:00" u="1"/>
-        <d v="2024-07-16T19:32:00" u="1"/>
-        <d v="2024-07-16T19:33:00" u="1"/>
-        <d v="2024-07-16T19:34:00" u="1"/>
-        <d v="2024-07-16T19:35:00" u="1"/>
-        <d v="2024-07-16T19:36:00" u="1"/>
-        <d v="2024-07-16T19:37:00" u="1"/>
-        <d v="2024-07-16T19:38:00" u="1"/>
-        <d v="2024-07-16T19:39:00" u="1"/>
-        <d v="2024-07-16T19:40:00" u="1"/>
-        <d v="2024-07-16T19:41:00" u="1"/>
-        <d v="2024-07-16T19:42:00" u="1"/>
-        <d v="2024-07-16T19:43:00" u="1"/>
-        <d v="2024-07-16T19:44:00" u="1"/>
-        <d v="2024-07-16T19:45:00" u="1"/>
-        <d v="2024-07-16T19:46:00" u="1"/>
-        <d v="2024-07-16T19:47:00" u="1"/>
-        <d v="2024-07-16T19:48:00" u="1"/>
-        <d v="2024-07-16T19:49:00" u="1"/>
-        <d v="2024-07-16T19:50:00" u="1"/>
-        <d v="2024-07-16T19:51:00" u="1"/>
-        <d v="2024-07-16T19:52:00" u="1"/>
-        <d v="2024-07-16T19:53:00" u="1"/>
-        <d v="2024-07-16T19:54:00" u="1"/>
-        <d v="2024-07-16T19:55:00" u="1"/>
-        <d v="2024-07-16T19:56:00" u="1"/>
-        <d v="2024-07-16T19:57:00" u="1"/>
-        <d v="2024-07-16T19:58:00" u="1"/>
-        <d v="2024-07-16T19:59:00" u="1"/>
-        <d v="2024-07-16T20:00:00" u="1"/>
-        <d v="2024-07-16T20:01:00" u="1"/>
-        <d v="2024-07-16T20:02:00" u="1"/>
-        <d v="2024-07-16T20:03:00" u="1"/>
-        <d v="2024-07-16T20:06:00" u="1"/>
-        <d v="2024-07-16T20:07:00" u="1"/>
-        <d v="2024-07-16T20:08:00" u="1"/>
-        <d v="2024-07-16T20:09:00" u="1"/>
-        <d v="2024-07-16T20:10:00" u="1"/>
-        <d v="2024-07-16T20:11:00" u="1"/>
-        <d v="2024-07-16T20:12:00" u="1"/>
-        <d v="2024-07-16T20:13:00" u="1"/>
-        <d v="2024-07-16T20:14:00" u="1"/>
-        <d v="2024-07-16T20:16:00" u="1"/>
-        <d v="2024-07-16T20:18:00" u="1"/>
-        <d v="2024-07-16T20:21:00" u="1"/>
-        <d v="2024-07-16T20:22:00" u="1"/>
-        <d v="2024-07-16T20:24:00" u="1"/>
-        <d v="2024-07-16T20:25:00" u="1"/>
-        <d v="2024-07-16T20:29:00" u="1"/>
-        <d v="2024-07-16T20:30:00" u="1"/>
-        <d v="2024-07-16T20:31:00" u="1"/>
-        <d v="2024-07-16T20:32:00" u="1"/>
-        <d v="2024-07-16T20:33:00" u="1"/>
-        <d v="2024-07-16T20:34:00" u="1"/>
-        <d v="2024-07-16T20:35:00" u="1"/>
-        <d v="2024-07-16T20:36:00" u="1"/>
-        <d v="2024-07-16T20:37:00" u="1"/>
-        <d v="2024-07-16T20:38:00" u="1"/>
-        <d v="2024-07-16T20:39:00" u="1"/>
-        <d v="2024-07-16T20:40:00" u="1"/>
-        <d v="2024-07-16T20:41:00" u="1"/>
-        <d v="2024-07-16T20:42:00" u="1"/>
-        <d v="2024-07-16T20:43:00" u="1"/>
-        <d v="2024-07-16T20:44:00" u="1"/>
-        <d v="2024-07-16T20:45:00" u="1"/>
-        <d v="2024-07-16T20:46:00" u="1"/>
-        <d v="2024-07-16T20:48:00" u="1"/>
-        <d v="2024-07-16T20:49:00" u="1"/>
-        <d v="2024-07-16T20:50:00" u="1"/>
-        <d v="2024-07-16T20:51:00" u="1"/>
-        <d v="2024-07-16T20:52:00" u="1"/>
-        <d v="2024-07-16T20:53:00" u="1"/>
-        <d v="2024-07-16T20:54:00" u="1"/>
-        <d v="2024-07-16T20:55:00" u="1"/>
-        <d v="2024-07-16T20:56:00" u="1"/>
-        <d v="2024-07-16T20:57:00" u="1"/>
-        <d v="2024-07-16T20:58:00" u="1"/>
-        <d v="2024-07-16T20:59:00" u="1"/>
-        <d v="2024-07-16T21:00:00" u="1"/>
-        <d v="2024-07-16T21:01:00" u="1"/>
-        <d v="2024-07-16T21:02:00" u="1"/>
-        <d v="2024-07-16T21:03:00" u="1"/>
-        <d v="2024-07-16T21:04:00" u="1"/>
-        <d v="2024-07-16T21:05:00" u="1"/>
-        <d v="2024-07-16T21:06:00" u="1"/>
-        <d v="2024-07-16T21:08:00" u="1"/>
-        <d v="2024-07-16T21:09:00" u="1"/>
-        <d v="2024-07-16T21:10:00" u="1"/>
-        <d v="2024-07-16T21:11:00" u="1"/>
-        <d v="2024-07-16T21:12:00" u="1"/>
-        <d v="2024-07-16T21:13:00" u="1"/>
-        <d v="2024-07-16T21:14:00" u="1"/>
-        <d v="2024-07-16T21:15:00" u="1"/>
-        <d v="2024-07-16T21:17:00" u="1"/>
-        <d v="2024-07-16T21:18:00" u="1"/>
-        <d v="2024-07-16T21:19:00" u="1"/>
-        <d v="2024-07-16T21:20:00" u="1"/>
-        <d v="2024-07-16T21:21:00" u="1"/>
-        <d v="2024-07-16T21:22:00" u="1"/>
-        <d v="2024-07-16T21:23:00" u="1"/>
-        <d v="2024-07-16T21:24:00" u="1"/>
-        <d v="2024-07-16T21:25:00" u="1"/>
-        <d v="2024-07-16T21:26:00" u="1"/>
-        <d v="2024-07-16T21:27:00" u="1"/>
-        <d v="2024-07-16T21:28:00" u="1"/>
-        <d v="2024-07-16T21:30:00" u="1"/>
-        <d v="2024-07-16T21:31:00" u="1"/>
-        <d v="2024-07-16T21:32:00" u="1"/>
-        <d v="2024-07-16T21:33:00" u="1"/>
-        <d v="2024-07-16T21:34:00" u="1"/>
-        <d v="2024-07-16T21:35:00" u="1"/>
-        <d v="2024-07-16T21:36:00" u="1"/>
-        <d v="2024-07-16T21:37:00" u="1"/>
-        <d v="2024-07-16T21:38:00" u="1"/>
-        <d v="2024-07-16T21:39:00" u="1"/>
-        <d v="2024-07-16T21:41:00" u="1"/>
-        <d v="2024-07-16T21:42:00" u="1"/>
-        <d v="2024-07-16T21:44:00" u="1"/>
-        <d v="2024-07-16T21:47:00" u="1"/>
-        <d v="2024-07-16T21:48:00" u="1"/>
-        <d v="2024-07-16T21:49:00" u="1"/>
-        <d v="2024-07-16T21:52:00" u="1"/>
-        <d v="2024-07-16T21:53:00" u="1"/>
-        <d v="2024-07-16T21:56:00" u="1"/>
-        <d v="2024-07-16T21:57:00" u="1"/>
-        <d v="2024-07-16T21:58:00" u="1"/>
-        <d v="2024-07-16T21:59:00" u="1"/>
-        <d v="2024-07-16T22:00:00" u="1"/>
-        <d v="2024-07-16T22:01:00" u="1"/>
-        <d v="2024-07-16T22:06:00" u="1"/>
-        <d v="2024-07-16T22:08:00" u="1"/>
-        <d v="2024-07-16T22:09:00" u="1"/>
-        <d v="2024-07-16T22:10:00" u="1"/>
-        <d v="2024-07-16T22:11:00" u="1"/>
-        <d v="2024-07-16T22:12:00" u="1"/>
-        <d v="2024-07-16T22:14:00" u="1"/>
-        <d v="2024-07-16T22:15:00" u="1"/>
-        <d v="2024-07-16T22:18:00" u="1"/>
-        <d v="2024-07-16T22:19:00" u="1"/>
-        <d v="2024-07-16T22:22:00" u="1"/>
-        <d v="2024-07-16T22:23:00" u="1"/>
-        <d v="2024-07-16T22:24:00" u="1"/>
-        <d v="2024-07-16T22:25:00" u="1"/>
-        <d v="2024-07-16T22:26:00" u="1"/>
-        <d v="2024-07-16T22:27:00" u="1"/>
-        <d v="2024-07-16T22:28:00" u="1"/>
-        <d v="2024-07-16T22:29:00" u="1"/>
-        <d v="2024-07-16T22:31:00" u="1"/>
-        <d v="2024-07-16T22:32:00" u="1"/>
-        <d v="2024-07-16T22:33:00" u="1"/>
-        <d v="2024-07-16T22:34:00" u="1"/>
-        <d v="2024-07-16T22:35:00" u="1"/>
-        <d v="2024-07-16T22:36:00" u="1"/>
-        <d v="2024-07-16T22:38:00" u="1"/>
-        <d v="2024-07-16T22:39:00" u="1"/>
-        <d v="2024-07-16T22:40:00" u="1"/>
-        <d v="2024-07-16T22:42:00" u="1"/>
-        <d v="2024-07-16T22:44:00" u="1"/>
-        <d v="2024-07-16T22:45:00" u="1"/>
-        <d v="2024-07-16T22:46:00" u="1"/>
-        <d v="2024-07-16T22:51:00" u="1"/>
-        <d v="2024-07-16T22:52:00" u="1"/>
-        <d v="2024-07-16T22:53:00" u="1"/>
-        <d v="2024-07-16T22:54:00" u="1"/>
-        <d v="2024-07-16T22:56:00" u="1"/>
-        <d v="2024-07-16T22:57:00" u="1"/>
-        <d v="2024-07-15T13:00:00" u="1"/>
-        <d v="2024-07-15T13:01:00" u="1"/>
-        <d v="2024-07-15T13:02:00" u="1"/>
-        <d v="2024-07-15T13:03:00" u="1"/>
-        <d v="2024-07-15T13:04:00" u="1"/>
-        <d v="2024-07-15T13:05:00" u="1"/>
-        <d v="2024-07-15T13:06:00" u="1"/>
-        <d v="2024-07-15T13:07:00" u="1"/>
-        <d v="2024-07-15T13:08:00" u="1"/>
-        <d v="2024-07-15T13:09:00" u="1"/>
-        <d v="2024-07-15T13:10:00" u="1"/>
-        <d v="2024-07-15T13:11:00" u="1"/>
-        <d v="2024-07-15T13:12:00" u="1"/>
-        <d v="2024-07-15T13:13:00" u="1"/>
-        <d v="2024-07-15T13:14:00" u="1"/>
-        <d v="2024-07-15T13:15:00" u="1"/>
-        <d v="2024-07-15T13:16:00" u="1"/>
-        <d v="2024-07-15T13:17:00" u="1"/>
-        <d v="2024-07-15T13:18:00" u="1"/>
-        <d v="2024-07-15T13:19:00" u="1"/>
-        <d v="2024-07-15T13:20:00" u="1"/>
-        <d v="2024-07-15T13:21:00" u="1"/>
-        <d v="2024-07-15T13:22:00" u="1"/>
-        <d v="2024-07-15T13:23:00" u="1"/>
-        <d v="2024-07-15T13:24:00" u="1"/>
-        <d v="2024-07-15T13:25:00" u="1"/>
-        <d v="2024-07-15T13:26:00" u="1"/>
-        <d v="2024-07-15T13:27:00" u="1"/>
-        <d v="2024-07-15T13:28:00" u="1"/>
-        <d v="2024-07-15T13:29:00" u="1"/>
-        <d v="2024-07-15T13:30:00" u="1"/>
-        <d v="2024-07-15T13:31:00" u="1"/>
-        <d v="2024-07-15T13:32:00" u="1"/>
-        <d v="2024-07-15T13:33:00" u="1"/>
-        <d v="2024-07-15T13:34:00" u="1"/>
-        <d v="2024-07-15T13:35:00" u="1"/>
-        <d v="2024-07-15T13:36:00" u="1"/>
-        <d v="2024-07-15T13:37:00" u="1"/>
-        <d v="2024-07-15T13:38:00" u="1"/>
-        <d v="2024-07-15T13:39:00" u="1"/>
-        <d v="2024-07-15T13:40:00" u="1"/>
-        <d v="2024-07-15T13:41:00" u="1"/>
-        <d v="2024-07-15T13:42:00" u="1"/>
-        <d v="2024-07-15T13:43:00" u="1"/>
-        <d v="2024-07-15T13:44:00" u="1"/>
-        <d v="2024-07-15T13:45:00" u="1"/>
-        <d v="2024-07-15T13:46:00" u="1"/>
-        <d v="2024-07-15T13:47:00" u="1"/>
-        <d v="2024-07-15T13:48:00" u="1"/>
-        <d v="2024-07-15T13:49:00" u="1"/>
-        <d v="2024-07-15T13:50:00" u="1"/>
-        <d v="2024-07-15T13:51:00" u="1"/>
-        <d v="2024-07-15T13:52:00" u="1"/>
-        <d v="2024-07-15T13:53:00" u="1"/>
-        <d v="2024-07-15T13:54:00" u="1"/>
-        <d v="2024-07-15T13:55:00" u="1"/>
-        <d v="2024-07-15T13:56:00" u="1"/>
-        <d v="2024-07-15T13:57:00" u="1"/>
-        <d v="2024-07-15T13:58:00" u="1"/>
-        <d v="2024-07-15T13:59:00" u="1"/>
-        <d v="2024-05-08T00:00:00" u="1"/>
-        <d v="2024-05-08T00:02:00" u="1"/>
-        <d v="2024-05-08T00:05:00" u="1"/>
-        <d v="2024-05-08T00:06:00" u="1"/>
-        <d v="2024-05-08T00:10:00" u="1"/>
-        <d v="2024-05-08T00:12:00" u="1"/>
-        <d v="2024-05-08T00:15:00" u="1"/>
-        <d v="2024-05-08T00:16:00" u="1"/>
-        <d v="2024-05-08T00:20:00" u="1"/>
-        <d v="2024-05-08T00:21:00" u="1"/>
-        <d v="2024-05-08T00:26:00" u="1"/>
-        <d v="2024-05-08T00:30:00" u="1"/>
-        <d v="2024-05-08T00:31:00" u="1"/>
-        <d v="2024-05-08T00:35:00" u="1"/>
-        <d v="2024-05-08T00:36:00" u="1"/>
-        <d v="2024-05-08T00:37:00" u="1"/>
-        <d v="2024-05-08T00:40:00" u="1"/>
-        <d v="2024-05-08T00:41:00" u="1"/>
-        <d v="2024-05-08T00:43:00" u="1"/>
-        <d v="2024-05-08T00:45:00" u="1"/>
-        <d v="2024-05-08T00:46:00" u="1"/>
-        <d v="2024-05-08T00:50:00" u="1"/>
-        <d v="2024-05-08T00:51:00" u="1"/>
-        <d v="2024-05-08T00:52:00" u="1"/>
-        <d v="2024-05-08T00:53:00" u="1"/>
-        <d v="2024-05-08T00:55:00" u="1"/>
-        <d v="2024-05-08T00:56:00" u="1"/>
-        <d v="2024-05-08T01:00:00" u="1"/>
-        <d v="2024-05-08T01:02:00" u="1"/>
-        <d v="2024-05-08T01:04:00" u="1"/>
-        <d v="2024-05-08T01:05:00" u="1"/>
-        <d v="2024-05-08T01:06:00" u="1"/>
-        <d v="2024-05-08T01:10:00" u="1"/>
-        <d v="2024-05-08T01:11:00" u="1"/>
-        <d v="2024-05-08T01:15:00" u="1"/>
-        <d v="2024-05-08T01:17:00" u="1"/>
-        <d v="2024-05-08T01:21:00" u="1"/>
-        <d v="2024-05-08T01:25:00" u="1"/>
-        <d v="2024-05-08T01:26:00" u="1"/>
-        <d v="2024-05-08T01:30:00" u="1"/>
-        <d v="2024-05-08T01:31:00" u="1"/>
-        <d v="2024-05-08T01:35:00" u="1"/>
-        <d v="2024-05-08T01:36:00" u="1"/>
-        <d v="2024-05-08T01:40:00" u="1"/>
-        <d v="2024-05-08T01:41:00" u="1"/>
-        <d v="2024-05-08T01:45:00" u="1"/>
-        <d v="2024-05-08T01:46:00" u="1"/>
-        <d v="2024-05-08T01:48:00" u="1"/>
-        <d v="2024-05-08T01:49:00" u="1"/>
-        <d v="2024-05-08T01:50:00" u="1"/>
-        <d v="2024-05-08T01:51:00" u="1"/>
-        <d v="2024-05-08T01:53:00" u="1"/>
-        <d v="2024-05-08T01:55:00" u="1"/>
-        <d v="2024-05-08T01:57:00" u="1"/>
-        <d v="2024-05-08T02:00:00" u="1"/>
-        <d v="2024-05-08T02:01:00" u="1"/>
-        <d v="2024-05-08T02:05:00" u="1"/>
-        <d v="2024-05-08T02:06:00" u="1"/>
-        <d v="2024-05-08T02:10:00" u="1"/>
-        <d v="2024-05-08T02:11:00" u="1"/>
-        <d v="2024-05-08T02:16:00" u="1"/>
-        <d v="2024-05-08T02:20:00" u="1"/>
-        <d v="2024-05-08T02:21:00" u="1"/>
-        <d v="2024-05-08T02:25:00" u="1"/>
-        <d v="2024-05-08T02:26:00" u="1"/>
-        <d v="2024-05-08T02:30:00" u="1"/>
-        <d v="2024-05-08T02:31:00" u="1"/>
-        <d v="2024-05-08T02:36:00" u="1"/>
-        <d v="2024-05-08T02:40:00" u="1"/>
-        <d v="2024-05-08T02:41:00" u="1"/>
-        <d v="2024-05-08T02:45:00" u="1"/>
-        <d v="2024-05-08T02:46:00" u="1"/>
-        <d v="2024-05-08T02:50:00" u="1"/>
-        <d v="2024-05-08T02:51:00" u="1"/>
-        <d v="2024-05-08T02:55:00" u="1"/>
-        <d v="2024-05-08T02:56:00" u="1"/>
-        <d v="2024-05-08T02:57:00" u="1"/>
-        <d v="2024-05-08T02:58:00" u="1"/>
-        <d v="2024-05-08T02:59:00" u="1"/>
-        <d v="2024-05-08T03:00:00" u="1"/>
-        <d v="2024-05-08T03:01:00" u="1"/>
-        <d v="2024-05-08T03:02:00" u="1"/>
-        <d v="2024-05-08T03:03:00" u="1"/>
-        <d v="2024-05-08T03:04:00" u="1"/>
-        <d v="2024-05-08T03:05:00" u="1"/>
-        <d v="2024-05-08T03:06:00" u="1"/>
-        <d v="2024-05-08T03:10:00" u="1"/>
-        <d v="2024-05-08T03:11:00" u="1"/>
-        <d v="2024-05-08T03:15:00" u="1"/>
-        <d v="2024-05-08T03:16:00" u="1"/>
-        <d v="2024-05-08T03:20:00" u="1"/>
-        <d v="2024-05-08T03:21:00" u="1"/>
-        <d v="2024-05-08T03:25:00" u="1"/>
-        <d v="2024-05-08T03:26:00" u="1"/>
-        <d v="2024-05-08T03:30:00" u="1"/>
-        <d v="2024-05-08T03:31:00" u="1"/>
-        <d v="2024-05-08T03:35:00" u="1"/>
-        <d v="2024-05-08T03:36:00" u="1"/>
-        <d v="2024-05-08T03:40:00" u="1"/>
-        <d v="2024-05-08T03:41:00" u="1"/>
-        <d v="2024-05-08T03:45:00" u="1"/>
-        <d v="2024-05-08T03:46:00" u="1"/>
-        <d v="2024-05-08T03:50:00" u="1"/>
-        <d v="2024-05-08T03:51:00" u="1"/>
-        <d v="2024-05-08T03:55:00" u="1"/>
-        <d v="2024-05-08T03:56:00" u="1"/>
-        <d v="2024-05-08T04:00:00" u="1"/>
-        <d v="2024-05-08T04:01:00" u="1"/>
-        <d v="2024-05-08T04:02:00" u="1"/>
-        <d v="2024-05-08T04:03:00" u="1"/>
-        <d v="2024-05-08T04:04:00" u="1"/>
-        <d v="2024-05-08T04:05:00" u="1"/>
-        <d v="2024-05-08T04:06:00" u="1"/>
-        <d v="2024-05-08T04:07:00" u="1"/>
-        <d v="2024-05-08T04:10:00" u="1"/>
-        <d v="2024-05-08T04:11:00" u="1"/>
-        <d v="2024-05-08T04:14:00" u="1"/>
-        <d v="2024-05-08T04:15:00" u="1"/>
-        <d v="2024-05-08T04:17:00" u="1"/>
-        <d v="2024-05-08T04:19:00" u="1"/>
-        <d v="2024-05-08T04:20:00" u="1"/>
-        <d v="2024-05-08T04:22:00" u="1"/>
-        <d v="2024-05-08T04:24:00" u="1"/>
-        <d v="2024-05-08T04:25:00" u="1"/>
-        <d v="2024-05-08T04:26:00" u="1"/>
-        <d v="2024-05-08T04:27:00" u="1"/>
-        <d v="2024-05-08T04:28:00" u="1"/>
-        <d v="2024-05-08T04:29:00" u="1"/>
-        <d v="2024-05-08T04:30:00" u="1"/>
-        <d v="2024-05-08T04:31:00" u="1"/>
-        <d v="2024-05-08T04:32:00" u="1"/>
-        <d v="2024-05-08T04:33:00" u="1"/>
-        <d v="2024-05-08T04:34:00" u="1"/>
-        <d v="2024-05-08T04:35:00" u="1"/>
-        <d v="2024-05-08T04:36:00" u="1"/>
-        <d v="2024-05-08T04:37:00" u="1"/>
-        <d v="2024-05-08T04:38:00" u="1"/>
-        <d v="2024-05-08T04:39:00" u="1"/>
-        <d v="2024-05-08T04:40:00" u="1"/>
-        <d v="2024-05-08T04:41:00" u="1"/>
-        <d v="2024-05-08T04:42:00" u="1"/>
-        <d v="2024-05-08T04:43:00" u="1"/>
-        <d v="2024-05-08T04:44:00" u="1"/>
-        <d v="2024-05-08T04:45:00" u="1"/>
-        <d v="2024-05-08T04:46:00" u="1"/>
-        <d v="2024-05-08T04:47:00" u="1"/>
-        <d v="2024-05-08T04:48:00" u="1"/>
-        <d v="2024-05-08T04:49:00" u="1"/>
-        <d v="2024-05-08T04:50:00" u="1"/>
-        <d v="2024-05-08T04:51:00" u="1"/>
-        <d v="2024-05-08T04:52:00" u="1"/>
-        <d v="2024-05-08T04:53:00" u="1"/>
-        <d v="2024-05-08T04:54:00" u="1"/>
-        <d v="2024-05-08T04:55:00" u="1"/>
-        <d v="2024-05-08T04:56:00" u="1"/>
-        <d v="2024-05-08T04:57:00" u="1"/>
-        <d v="2024-05-08T04:58:00" u="1"/>
-        <d v="2024-05-08T04:59:00" u="1"/>
-        <d v="2024-05-08T05:00:00" u="1"/>
-        <d v="2024-05-08T05:01:00" u="1"/>
-        <d v="2024-05-08T05:02:00" u="1"/>
-        <d v="2024-05-08T05:03:00" u="1"/>
-        <d v="2024-05-08T05:04:00" u="1"/>
-        <d v="2024-05-08T05:05:00" u="1"/>
-        <d v="2024-05-08T05:06:00" u="1"/>
-        <d v="2024-05-08T05:07:00" u="1"/>
-        <d v="2024-05-08T05:08:00" u="1"/>
-        <d v="2024-05-08T05:09:00" u="1"/>
-        <d v="2024-05-08T05:10:00" u="1"/>
-        <d v="2024-05-08T05:11:00" u="1"/>
-        <d v="2024-05-08T05:12:00" u="1"/>
-        <d v="2024-05-08T05:13:00" u="1"/>
-        <d v="2024-05-08T05:14:00" u="1"/>
-        <d v="2024-05-08T05:15:00" u="1"/>
-        <d v="2024-05-08T05:16:00" u="1"/>
-        <d v="2024-05-08T05:17:00" u="1"/>
-        <d v="2024-05-08T05:18:00" u="1"/>
-        <d v="2024-05-08T05:19:00" u="1"/>
-        <d v="2024-05-08T05:20:00" u="1"/>
-        <d v="2024-05-08T05:21:00" u="1"/>
-        <d v="2024-05-08T05:22:00" u="1"/>
-        <d v="2024-05-08T05:23:00" u="1"/>
-        <d v="2024-05-08T05:24:00" u="1"/>
-        <d v="2024-05-08T05:25:00" u="1"/>
-        <d v="2024-05-08T05:26:00" u="1"/>
-        <d v="2024-05-08T05:27:00" u="1"/>
-        <d v="2024-05-08T05:28:00" u="1"/>
-        <d v="2024-05-08T05:29:00" u="1"/>
-        <d v="2024-05-08T05:30:00" u="1"/>
-        <d v="2024-05-08T05:31:00" u="1"/>
-        <d v="2024-05-08T05:32:00" u="1"/>
-        <d v="2024-05-08T05:33:00" u="1"/>
-        <d v="2024-05-08T05:34:00" u="1"/>
-        <d v="2024-05-08T05:35:00" u="1"/>
-        <d v="2024-05-08T05:36:00" u="1"/>
-        <d v="2024-05-08T05:37:00" u="1"/>
-        <d v="2024-05-08T05:38:00" u="1"/>
-        <d v="2024-05-08T05:39:00" u="1"/>
-        <d v="2024-05-08T05:40:00" u="1"/>
-        <d v="2024-05-08T05:41:00" u="1"/>
-        <d v="2024-05-08T05:42:00" u="1"/>
-        <d v="2024-05-08T05:43:00" u="1"/>
-        <d v="2024-05-08T05:44:00" u="1"/>
-        <d v="2024-05-08T05:45:00" u="1"/>
-        <d v="2024-05-08T05:46:00" u="1"/>
-        <d v="2024-05-08T05:47:00" u="1"/>
-        <d v="2024-05-08T05:48:00" u="1"/>
-        <d v="2024-05-08T05:49:00" u="1"/>
-        <d v="2024-05-08T05:50:00" u="1"/>
-        <d v="2024-05-08T05:51:00" u="1"/>
-        <d v="2024-05-08T05:52:00" u="1"/>
-        <d v="2024-05-08T05:53:00" u="1"/>
-        <d v="2024-05-08T05:54:00" u="1"/>
-        <d v="2024-05-08T05:55:00" u="1"/>
-        <d v="2024-05-08T05:56:00" u="1"/>
-        <d v="2024-05-08T05:57:00" u="1"/>
-        <d v="2024-05-08T05:58:00" u="1"/>
-        <d v="2024-05-08T05:59:00" u="1"/>
-        <d v="2024-05-08T06:00:00" u="1"/>
-        <d v="2024-05-08T06:01:00" u="1"/>
-        <d v="2024-05-08T06:02:00" u="1"/>
-        <d v="2024-05-08T06:03:00" u="1"/>
-        <d v="2024-05-08T06:04:00" u="1"/>
-        <d v="2024-05-08T06:05:00" u="1"/>
-        <d v="2024-05-08T06:06:00" u="1"/>
-        <d v="2024-05-08T06:07:00" u="1"/>
-        <d v="2024-05-08T06:08:00" u="1"/>
-        <d v="2024-05-08T06:09:00" u="1"/>
-        <d v="2024-05-08T06:10:00" u="1"/>
-        <d v="2024-05-08T06:11:00" u="1"/>
-        <d v="2024-05-08T06:12:00" u="1"/>
-        <d v="2024-05-08T06:13:00" u="1"/>
-        <d v="2024-05-08T06:14:00" u="1"/>
-        <d v="2024-05-08T06:15:00" u="1"/>
-        <d v="2024-05-08T06:16:00" u="1"/>
-        <d v="2024-05-08T06:17:00" u="1"/>
-        <d v="2024-05-08T06:18:00" u="1"/>
-        <d v="2024-05-08T06:19:00" u="1"/>
-        <d v="2024-05-08T06:20:00" u="1"/>
-        <d v="2024-05-08T06:21:00" u="1"/>
-        <d v="2024-05-08T06:22:00" u="1"/>
-        <d v="2024-05-08T06:23:00" u="1"/>
-        <d v="2024-05-08T06:24:00" u="1"/>
-        <d v="2024-05-08T06:25:00" u="1"/>
-        <d v="2024-05-08T06:26:00" u="1"/>
-        <d v="2024-05-08T06:27:00" u="1"/>
-        <d v="2024-05-08T06:28:00" u="1"/>
-        <d v="2024-05-08T06:29:00" u="1"/>
-        <d v="2024-05-08T06:30:00" u="1"/>
-        <d v="2024-05-08T06:31:00" u="1"/>
-        <d v="2024-05-08T06:32:00" u="1"/>
-        <d v="2024-05-08T06:33:00" u="1"/>
-        <d v="2024-05-08T06:34:00" u="1"/>
-        <d v="2024-05-08T06:35:00" u="1"/>
-        <d v="2024-05-08T06:36:00" u="1"/>
-        <d v="2024-05-08T06:37:00" u="1"/>
-        <d v="2024-05-08T06:38:00" u="1"/>
-        <d v="2024-05-08T06:39:00" u="1"/>
-        <d v="2024-05-08T06:40:00" u="1"/>
-        <d v="2024-05-08T06:41:00" u="1"/>
-        <d v="2024-05-08T06:42:00" u="1"/>
-        <d v="2024-05-08T06:43:00" u="1"/>
-        <d v="2024-05-08T06:44:00" u="1"/>
-        <d v="2024-05-08T06:45:00" u="1"/>
-        <d v="2024-05-08T06:46:00" u="1"/>
-        <d v="2024-05-08T06:47:00" u="1"/>
-        <d v="2024-05-08T06:48:00" u="1"/>
-        <d v="2024-05-08T06:49:00" u="1"/>
-        <d v="2024-05-08T06:50:00" u="1"/>
-        <d v="2024-05-08T06:51:00" u="1"/>
-        <d v="2024-05-08T06:52:00" u="1"/>
-        <d v="2024-05-08T06:53:00" u="1"/>
-        <d v="2024-05-08T06:54:00" u="1"/>
-        <d v="2024-05-08T06:55:00" u="1"/>
-        <d v="2024-05-08T06:56:00" u="1"/>
-        <d v="2024-05-08T06:57:00" u="1"/>
-        <d v="2024-05-08T06:58:00" u="1"/>
-        <d v="2024-05-08T06:59:00" u="1"/>
-        <d v="2024-05-08T07:00:00" u="1"/>
-        <d v="2024-05-08T07:01:00" u="1"/>
-        <d v="2024-05-08T07:02:00" u="1"/>
-        <d v="2024-05-08T07:03:00" u="1"/>
-        <d v="2024-05-08T07:04:00" u="1"/>
-        <d v="2024-05-08T07:05:00" u="1"/>
-        <d v="2024-05-08T07:06:00" u="1"/>
-        <d v="2024-05-08T07:07:00" u="1"/>
-        <d v="2024-05-08T07:08:00" u="1"/>
-        <d v="2024-05-08T07:09:00" u="1"/>
-        <d v="2024-05-08T07:10:00" u="1"/>
-        <d v="2024-05-08T07:11:00" u="1"/>
-        <d v="2024-05-08T07:12:00" u="1"/>
-        <d v="2024-05-08T07:13:00" u="1"/>
-        <d v="2024-05-08T07:14:00" u="1"/>
-        <d v="2024-05-08T07:15:00" u="1"/>
-        <d v="2024-05-08T07:16:00" u="1"/>
-        <d v="2024-05-08T07:17:00" u="1"/>
-        <d v="2024-05-08T07:18:00" u="1"/>
-        <d v="2024-05-08T07:19:00" u="1"/>
-        <d v="2024-05-08T07:20:00" u="1"/>
-        <d v="2024-05-08T07:21:00" u="1"/>
-        <d v="2024-05-08T07:22:00" u="1"/>
-        <d v="2024-05-08T07:23:00" u="1"/>
-        <d v="2024-05-08T07:24:00" u="1"/>
-        <d v="2024-05-08T07:25:00" u="1"/>
-        <d v="2024-05-08T07:26:00" u="1"/>
-        <d v="2024-05-08T07:27:00" u="1"/>
-        <d v="2024-05-08T07:28:00" u="1"/>
-        <d v="2024-05-08T07:29:00" u="1"/>
-        <d v="2024-05-08T07:30:00" u="1"/>
-        <d v="2024-05-08T07:31:00" u="1"/>
-        <d v="2024-05-08T07:32:00" u="1"/>
-        <d v="2024-05-08T07:33:00" u="1"/>
-        <d v="2024-05-08T07:34:00" u="1"/>
-        <d v="2024-05-08T07:35:00" u="1"/>
-        <d v="2024-05-08T07:36:00" u="1"/>
-        <d v="2024-05-08T07:37:00" u="1"/>
-        <d v="2024-05-08T07:38:00" u="1"/>
-        <d v="2024-05-08T07:39:00" u="1"/>
-        <d v="2024-05-08T07:40:00" u="1"/>
-        <d v="2024-05-08T07:41:00" u="1"/>
-        <d v="2024-05-08T07:42:00" u="1"/>
-        <d v="2024-05-08T07:43:00" u="1"/>
-        <d v="2024-05-08T07:44:00" u="1"/>
-        <d v="2024-05-08T07:45:00" u="1"/>
-        <d v="2024-05-08T07:46:00" u="1"/>
-        <d v="2024-05-08T07:47:00" u="1"/>
-        <d v="2024-05-08T07:48:00" u="1"/>
-        <d v="2024-05-08T07:49:00" u="1"/>
-        <d v="2024-05-08T07:50:00" u="1"/>
-        <d v="2024-05-08T07:51:00" u="1"/>
-        <d v="2024-05-08T07:52:00" u="1"/>
-        <d v="2024-05-08T07:53:00" u="1"/>
-        <d v="2024-05-08T07:54:00" u="1"/>
-        <d v="2024-05-08T07:55:00" u="1"/>
-        <d v="2024-05-08T07:56:00" u="1"/>
-        <d v="2024-05-08T07:57:00" u="1"/>
-        <d v="2024-05-08T07:58:00" u="1"/>
-        <d v="2024-05-08T07:59:00" u="1"/>
-        <d v="2024-05-08T08:00:00" u="1"/>
-        <d v="2024-05-08T08:01:00" u="1"/>
-        <d v="2024-05-08T08:02:00" u="1"/>
-        <d v="2024-05-08T08:03:00" u="1"/>
-        <d v="2024-05-08T08:04:00" u="1"/>
-        <d v="2024-05-08T08:05:00" u="1"/>
-        <d v="2024-05-08T08:06:00" u="1"/>
-        <d v="2024-05-08T08:07:00" u="1"/>
-        <d v="2024-05-08T08:08:00" u="1"/>
-        <d v="2024-05-08T08:09:00" u="1"/>
-        <d v="2024-05-08T08:10:00" u="1"/>
-        <d v="2024-05-08T08:11:00" u="1"/>
-        <d v="2024-05-08T08:12:00" u="1"/>
-        <d v="2024-05-08T08:13:00" u="1"/>
-        <d v="2024-05-08T08:14:00" u="1"/>
-        <d v="2024-05-08T08:15:00" u="1"/>
-        <d v="2024-05-08T08:16:00" u="1"/>
-        <d v="2024-05-08T08:17:00" u="1"/>
-        <d v="2024-05-08T08:18:00" u="1"/>
-        <d v="2024-05-08T08:19:00" u="1"/>
-        <d v="2024-05-08T08:20:00" u="1"/>
-        <d v="2024-05-08T08:21:00" u="1"/>
-        <d v="2024-05-08T08:22:00" u="1"/>
-        <d v="2024-05-08T08:23:00" u="1"/>
-        <d v="2024-05-08T08:24:00" u="1"/>
-        <d v="2024-05-08T08:25:00" u="1"/>
-        <d v="2024-05-08T08:26:00" u="1"/>
-        <d v="2024-05-08T08:27:00" u="1"/>
-        <d v="2024-05-08T08:28:00" u="1"/>
-        <d v="2024-05-08T08:29:00" u="1"/>
-        <d v="2024-05-08T08:30:00" u="1"/>
-        <d v="2024-05-08T08:31:00" u="1"/>
-        <d v="2024-05-08T08:32:00" u="1"/>
-        <d v="2024-05-08T08:33:00" u="1"/>
-        <d v="2024-05-08T08:34:00" u="1"/>
-        <d v="2024-05-08T08:35:00" u="1"/>
-        <d v="2024-05-08T08:36:00" u="1"/>
-        <d v="2024-05-08T08:37:00" u="1"/>
-        <d v="2024-05-08T08:38:00" u="1"/>
-        <d v="2024-05-08T08:39:00" u="1"/>
-        <d v="2024-05-08T08:40:00" u="1"/>
-        <d v="2024-05-08T08:41:00" u="1"/>
-        <d v="2024-05-08T08:42:00" u="1"/>
-        <d v="2024-05-08T08:43:00" u="1"/>
-        <d v="2024-05-08T08:44:00" u="1"/>
-        <d v="2024-05-08T08:45:00" u="1"/>
-        <d v="2024-05-08T08:46:00" u="1"/>
-        <d v="2024-05-08T08:47:00" u="1"/>
-        <d v="2024-05-08T08:48:00" u="1"/>
-        <d v="2024-05-08T08:49:00" u="1"/>
-        <d v="2024-05-08T08:50:00" u="1"/>
-        <d v="2024-05-08T08:51:00" u="1"/>
-        <d v="2024-05-08T08:52:00" u="1"/>
-        <d v="2024-05-08T08:53:00" u="1"/>
-        <d v="2024-05-08T08:54:00" u="1"/>
-        <d v="2024-05-08T08:55:00" u="1"/>
-        <d v="2024-05-08T08:56:00" u="1"/>
-        <d v="2024-05-08T08:57:00" u="1"/>
-        <d v="2024-05-08T08:58:00" u="1"/>
-        <d v="2024-05-08T08:59:00" u="1"/>
-        <d v="2024-05-08T09:00:00" u="1"/>
-        <d v="2024-05-08T09:01:00" u="1"/>
-        <d v="2024-05-08T09:02:00" u="1"/>
-        <d v="2024-05-08T09:03:00" u="1"/>
-        <d v="2024-05-08T09:04:00" u="1"/>
-        <d v="2024-05-08T09:05:00" u="1"/>
-        <d v="2024-05-08T09:06:00" u="1"/>
-        <d v="2024-05-08T09:07:00" u="1"/>
-        <d v="2024-05-08T09:08:00" u="1"/>
-        <d v="2024-05-08T09:09:00" u="1"/>
-        <d v="2024-05-08T09:10:00" u="1"/>
-        <d v="2024-05-08T09:11:00" u="1"/>
-        <d v="2024-05-08T09:12:00" u="1"/>
-        <d v="2024-05-08T09:13:00" u="1"/>
-        <d v="2024-05-08T09:14:00" u="1"/>
-        <d v="2024-05-08T09:15:00" u="1"/>
-        <d v="2024-05-08T09:16:00" u="1"/>
-        <d v="2024-05-08T09:17:00" u="1"/>
-        <d v="2024-05-08T09:18:00" u="1"/>
-        <d v="2024-05-08T09:19:00" u="1"/>
-        <d v="2024-05-08T09:20:00" u="1"/>
-        <d v="2024-05-08T09:21:00" u="1"/>
-        <d v="2024-05-08T09:22:00" u="1"/>
-        <d v="2024-05-08T09:23:00" u="1"/>
-        <d v="2024-05-08T09:24:00" u="1"/>
-        <d v="2024-05-08T09:25:00" u="1"/>
-        <d v="2024-05-08T09:26:00" u="1"/>
-        <d v="2024-05-08T09:27:00" u="1"/>
-        <d v="2024-05-08T09:28:00" u="1"/>
-        <d v="2024-05-08T09:29:00" u="1"/>
-        <d v="2024-05-08T09:30:00" u="1"/>
-        <d v="2024-05-08T09:31:00" u="1"/>
-        <d v="2024-05-08T09:32:00" u="1"/>
-        <d v="2024-05-08T09:33:00" u="1"/>
-        <d v="2024-05-08T09:34:00" u="1"/>
-        <d v="2024-05-08T09:35:00" u="1"/>
-        <d v="2024-05-08T09:36:00" u="1"/>
-        <d v="2024-05-08T09:37:00" u="1"/>
-        <d v="2024-05-08T09:38:00" u="1"/>
-        <d v="2024-05-08T09:39:00" u="1"/>
-        <d v="2024-05-08T09:40:00" u="1"/>
-        <d v="2024-05-08T09:41:00" u="1"/>
-        <d v="2024-05-08T09:42:00" u="1"/>
-        <d v="2024-05-08T09:43:00" u="1"/>
-        <d v="2024-05-08T09:44:00" u="1"/>
-        <d v="2024-05-08T09:45:00" u="1"/>
-        <d v="2024-05-08T09:46:00" u="1"/>
-        <d v="2024-05-08T09:47:00" u="1"/>
-        <d v="2024-05-08T09:48:00" u="1"/>
-        <d v="2024-05-08T09:49:00" u="1"/>
-        <d v="2024-05-08T09:50:00" u="1"/>
-        <d v="2024-05-08T09:51:00" u="1"/>
-        <d v="2024-05-08T09:52:00" u="1"/>
-        <d v="2024-05-08T09:53:00" u="1"/>
-        <d v="2024-05-08T09:54:00" u="1"/>
-        <d v="2024-05-08T09:55:00" u="1"/>
-        <d v="2024-05-08T09:56:00" u="1"/>
-        <d v="2024-05-08T09:57:00" u="1"/>
-        <d v="2024-05-08T09:58:00" u="1"/>
-        <d v="2024-05-08T09:59:00" u="1"/>
-        <d v="2024-05-08T10:00:00" u="1"/>
-        <d v="2024-05-08T10:01:00" u="1"/>
-        <d v="2024-05-08T10:02:00" u="1"/>
-        <d v="2024-05-08T10:03:00" u="1"/>
-        <d v="2024-05-08T10:04:00" u="1"/>
-        <d v="2024-05-08T10:05:00" u="1"/>
-        <d v="2024-05-08T10:06:00" u="1"/>
-        <d v="2024-05-08T10:07:00" u="1"/>
-        <d v="2024-05-08T10:08:00" u="1"/>
-        <d v="2024-05-08T10:09:00" u="1"/>
-        <d v="2024-05-08T10:10:00" u="1"/>
-        <d v="2024-05-08T10:11:00" u="1"/>
-        <d v="2024-05-08T10:12:00" u="1"/>
-        <d v="2024-05-08T10:13:00" u="1"/>
-        <d v="2024-05-08T10:14:00" u="1"/>
-        <d v="2024-05-08T10:15:00" u="1"/>
-        <d v="2024-05-08T10:16:00" u="1"/>
-        <d v="2024-05-08T10:17:00" u="1"/>
-        <d v="2024-05-08T10:18:00" u="1"/>
-        <d v="2024-05-08T10:19:00" u="1"/>
-        <d v="2024-05-08T10:20:00" u="1"/>
-        <d v="2024-05-08T10:21:00" u="1"/>
-        <d v="2024-05-08T10:22:00" u="1"/>
-        <d v="2024-05-08T10:23:00" u="1"/>
-        <d v="2024-05-08T10:24:00" u="1"/>
-        <d v="2024-05-08T10:25:00" u="1"/>
-        <d v="2024-05-08T10:26:00" u="1"/>
-        <d v="2024-05-08T10:27:00" u="1"/>
-        <d v="2024-05-08T10:28:00" u="1"/>
-        <d v="2024-05-08T10:29:00" u="1"/>
-        <d v="2024-05-08T10:30:00" u="1"/>
-        <d v="2024-05-08T10:31:00" u="1"/>
-        <d v="2024-05-08T10:32:00" u="1"/>
-        <d v="2024-05-08T10:33:00" u="1"/>
-        <d v="2024-05-08T10:34:00" u="1"/>
-        <d v="2024-05-08T10:35:00" u="1"/>
-        <d v="2024-05-08T10:36:00" u="1"/>
-        <d v="2024-05-08T10:37:00" u="1"/>
-        <d v="2024-05-08T10:38:00" u="1"/>
-        <d v="2024-05-08T10:39:00" u="1"/>
-        <d v="2024-05-08T10:40:00" u="1"/>
-        <d v="2024-05-08T10:41:00" u="1"/>
-        <d v="2024-05-08T10:42:00" u="1"/>
-        <d v="2024-05-08T10:43:00" u="1"/>
-        <d v="2024-05-08T10:44:00" u="1"/>
-        <d v="2024-05-08T10:45:00" u="1"/>
-        <d v="2024-05-08T10:46:00" u="1"/>
-        <d v="2024-05-08T10:47:00" u="1"/>
-        <d v="2024-05-08T10:48:00" u="1"/>
-        <d v="2024-05-08T10:49:00" u="1"/>
-        <d v="2024-05-08T10:50:00" u="1"/>
-        <d v="2024-05-08T10:51:00" u="1"/>
-        <d v="2024-05-08T10:52:00" u="1"/>
-        <d v="2024-05-08T10:53:00" u="1"/>
-        <d v="2024-05-08T10:54:00" u="1"/>
-        <d v="2024-05-08T10:55:00" u="1"/>
-        <d v="2024-05-08T10:56:00" u="1"/>
-        <d v="2024-05-08T10:57:00" u="1"/>
-        <d v="2024-05-08T10:58:00" u="1"/>
-        <d v="2024-05-08T10:59:00" u="1"/>
-        <d v="2024-05-08T11:00:00" u="1"/>
-        <d v="2024-05-08T11:01:00" u="1"/>
-        <d v="2024-05-08T11:02:00" u="1"/>
-        <d v="2024-05-08T11:03:00" u="1"/>
-        <d v="2024-05-08T11:04:00" u="1"/>
-        <d v="2024-05-08T11:05:00" u="1"/>
-        <d v="2024-05-08T11:06:00" u="1"/>
-        <d v="2024-05-08T11:07:00" u="1"/>
-        <d v="2024-05-08T11:08:00" u="1"/>
-        <d v="2024-05-08T11:09:00" u="1"/>
-        <d v="2024-05-08T11:10:00" u="1"/>
-        <d v="2024-05-08T11:11:00" u="1"/>
-        <d v="2024-05-08T11:12:00" u="1"/>
-        <d v="2024-05-08T11:13:00" u="1"/>
-        <d v="2024-05-08T11:14:00" u="1"/>
-        <d v="2024-05-08T11:15:00" u="1"/>
-        <d v="2024-05-08T11:16:00" u="1"/>
-        <d v="2024-05-08T11:17:00" u="1"/>
-        <d v="2024-05-08T11:18:00" u="1"/>
-        <d v="2024-05-08T11:19:00" u="1"/>
-        <d v="2024-05-08T11:20:00" u="1"/>
-        <d v="2024-05-08T11:21:00" u="1"/>
-        <d v="2024-05-08T11:22:00" u="1"/>
-        <d v="2024-05-08T11:23:00" u="1"/>
-        <d v="2024-05-08T11:24:00" u="1"/>
-        <d v="2024-05-08T11:25:00" u="1"/>
-        <d v="2024-05-08T11:26:00" u="1"/>
-        <d v="2024-05-08T11:27:00" u="1"/>
-        <d v="2024-05-08T11:28:00" u="1"/>
-        <d v="2024-05-08T11:29:00" u="1"/>
-        <d v="2024-05-08T11:30:00" u="1"/>
-        <d v="2024-05-08T11:31:00" u="1"/>
-        <d v="2024-05-08T11:32:00" u="1"/>
-        <d v="2024-05-08T11:33:00" u="1"/>
-        <d v="2024-05-08T11:34:00" u="1"/>
-        <d v="2024-05-08T11:35:00" u="1"/>
-        <d v="2024-05-08T11:36:00" u="1"/>
-        <d v="2024-05-08T11:37:00" u="1"/>
-        <d v="2024-05-08T11:38:00" u="1"/>
-        <d v="2024-05-08T11:39:00" u="1"/>
-        <d v="2024-05-08T11:40:00" u="1"/>
-        <d v="2024-05-08T11:41:00" u="1"/>
-        <d v="2024-05-08T11:42:00" u="1"/>
-        <d v="2024-05-08T11:43:00" u="1"/>
-        <d v="2024-05-08T11:44:00" u="1"/>
-        <d v="2024-05-08T11:45:00" u="1"/>
-        <d v="2024-05-08T11:46:00" u="1"/>
-        <d v="2024-05-08T11:47:00" u="1"/>
-        <d v="2024-05-08T11:48:00" u="1"/>
-        <d v="2024-05-08T11:49:00" u="1"/>
-        <d v="2024-05-08T11:50:00" u="1"/>
-        <d v="2024-05-08T11:51:00" u="1"/>
-        <d v="2024-05-08T11:52:00" u="1"/>
-        <d v="2024-05-08T11:53:00" u="1"/>
-        <d v="2024-05-08T11:54:00" u="1"/>
-        <d v="2024-05-08T11:55:00" u="1"/>
-        <d v="2024-05-08T11:56:00" u="1"/>
-        <d v="2024-05-08T11:57:00" u="1"/>
-        <d v="2024-05-08T11:58:00" u="1"/>
-        <d v="2024-05-08T11:59:00" u="1"/>
-        <d v="2024-05-08T12:00:00" u="1"/>
-        <d v="2024-05-08T12:01:00" u="1"/>
-        <d v="2024-05-08T12:02:00" u="1"/>
-        <d v="2024-05-08T12:03:00" u="1"/>
-        <d v="2024-05-08T12:04:00" u="1"/>
-        <d v="2024-05-08T12:05:00" u="1"/>
-        <d v="2024-05-08T12:06:00" u="1"/>
-        <d v="2024-05-08T12:07:00" u="1"/>
-        <d v="2024-05-08T12:08:00" u="1"/>
-        <d v="2024-05-08T12:09:00" u="1"/>
-        <d v="2024-05-08T12:10:00" u="1"/>
-        <d v="2024-05-08T12:11:00" u="1"/>
-        <d v="2024-05-08T12:12:00" u="1"/>
-        <d v="2024-05-08T12:13:00" u="1"/>
-        <d v="2024-05-08T12:14:00" u="1"/>
-        <d v="2024-05-08T12:15:00" u="1"/>
-        <d v="2024-05-08T12:16:00" u="1"/>
-        <d v="2024-05-08T12:17:00" u="1"/>
-        <d v="2024-05-08T12:18:00" u="1"/>
-        <d v="2024-05-08T12:19:00" u="1"/>
-        <d v="2024-05-08T12:20:00" u="1"/>
-        <d v="2024-05-08T12:21:00" u="1"/>
-        <d v="2024-05-08T12:22:00" u="1"/>
-        <d v="2024-05-08T12:23:00" u="1"/>
-        <d v="2024-05-08T12:24:00" u="1"/>
-        <d v="2024-05-08T12:25:00" u="1"/>
-        <d v="2024-05-08T12:26:00" u="1"/>
-        <d v="2024-05-08T12:27:00" u="1"/>
-        <d v="2024-05-08T12:28:00" u="1"/>
-        <d v="2024-05-08T12:29:00" u="1"/>
-        <d v="2024-05-08T12:30:00" u="1"/>
-        <d v="2024-05-08T12:31:00" u="1"/>
-        <d v="2024-05-08T12:32:00" u="1"/>
-        <d v="2024-05-08T12:33:00" u="1"/>
-        <d v="2024-05-08T12:34:00" u="1"/>
-        <d v="2024-05-08T12:35:00" u="1"/>
-        <d v="2024-05-08T12:36:00" u="1"/>
-        <d v="2024-05-08T12:37:00" u="1"/>
-        <d v="2024-05-08T12:38:00" u="1"/>
-        <d v="2024-05-08T12:39:00" u="1"/>
-        <d v="2024-05-08T12:40:00" u="1"/>
-        <d v="2024-05-08T12:41:00" u="1"/>
-        <d v="2024-05-08T12:42:00" u="1"/>
-        <d v="2024-05-08T12:43:00" u="1"/>
-        <d v="2024-05-08T12:44:00" u="1"/>
-        <d v="2024-05-08T12:45:00" u="1"/>
-        <d v="2024-05-08T12:46:00" u="1"/>
-        <d v="2024-05-08T12:47:00" u="1"/>
-        <d v="2024-05-08T12:48:00" u="1"/>
-        <d v="2024-05-08T12:49:00" u="1"/>
-        <d v="2024-05-08T12:50:00" u="1"/>
-        <d v="2024-05-08T12:51:00" u="1"/>
-        <d v="2024-05-08T12:52:00" u="1"/>
-        <d v="2024-05-08T12:53:00" u="1"/>
-        <d v="2024-05-08T12:54:00" u="1"/>
-        <d v="2024-05-08T12:55:00" u="1"/>
-        <d v="2024-05-08T12:56:00" u="1"/>
-        <d v="2024-05-08T12:57:00" u="1"/>
-        <d v="2024-05-08T12:58:00" u="1"/>
-        <d v="2024-05-08T12:59:00" u="1"/>
-        <d v="2024-05-08T13:00:00" u="1"/>
-        <d v="2024-05-08T13:01:00" u="1"/>
-        <d v="2024-05-08T13:02:00" u="1"/>
-        <d v="2024-05-08T13:03:00" u="1"/>
-        <d v="2024-05-08T13:04:00" u="1"/>
-        <d v="2024-05-08T13:05:00" u="1"/>
-        <d v="2024-05-08T13:06:00" u="1"/>
-        <d v="2024-05-08T13:07:00" u="1"/>
-        <d v="2024-05-08T13:08:00" u="1"/>
-        <d v="2024-05-08T13:09:00" u="1"/>
-        <d v="2024-05-08T13:10:00" u="1"/>
-        <d v="2024-05-08T13:11:00" u="1"/>
-        <d v="2024-05-08T13:12:00" u="1"/>
-        <d v="2024-05-08T13:13:00" u="1"/>
-        <d v="2024-05-08T13:14:00" u="1"/>
-        <d v="2024-05-08T13:15:00" u="1"/>
-        <d v="2024-05-08T13:16:00" u="1"/>
-        <d v="2024-05-08T13:17:00" u="1"/>
-        <d v="2024-05-08T13:18:00" u="1"/>
-        <d v="2024-05-08T13:19:00" u="1"/>
-        <d v="2024-05-08T13:20:00" u="1"/>
-        <d v="2024-05-08T13:21:00" u="1"/>
-        <d v="2024-05-08T13:22:00" u="1"/>
-        <d v="2024-05-08T13:23:00" u="1"/>
-        <d v="2024-05-08T13:24:00" u="1"/>
-        <d v="2024-05-08T13:25:00" u="1"/>
-        <d v="2024-05-08T13:26:00" u="1"/>
-        <d v="2024-05-08T13:27:00" u="1"/>
-        <d v="2024-05-08T13:28:00" u="1"/>
-        <d v="2024-05-08T13:29:00" u="1"/>
-        <d v="2024-05-08T13:30:00" u="1"/>
-        <d v="2024-05-08T13:31:00" u="1"/>
-        <d v="2024-05-08T13:32:00" u="1"/>
-        <d v="2024-05-08T13:33:00" u="1"/>
-        <d v="2024-05-08T13:34:00" u="1"/>
-        <d v="2024-05-08T13:35:00" u="1"/>
-        <d v="2024-05-08T13:36:00" u="1"/>
-        <d v="2024-05-08T13:37:00" u="1"/>
-        <d v="2024-05-08T13:38:00" u="1"/>
-        <d v="2024-05-08T13:39:00" u="1"/>
-        <d v="2024-05-08T13:40:00" u="1"/>
-        <d v="2024-05-08T13:41:00" u="1"/>
-        <d v="2024-05-08T13:42:00" u="1"/>
-        <d v="2024-05-08T13:43:00" u="1"/>
-        <d v="2024-05-08T13:44:00" u="1"/>
-        <d v="2024-05-08T13:45:00" u="1"/>
-        <d v="2024-05-08T13:46:00" u="1"/>
-        <d v="2024-05-08T13:47:00" u="1"/>
-        <d v="2024-05-08T13:48:00" u="1"/>
-        <d v="2024-05-08T13:49:00" u="1"/>
-        <d v="2024-05-08T13:50:00" u="1"/>
-        <d v="2024-05-08T13:51:00" u="1"/>
-        <d v="2024-05-08T13:52:00" u="1"/>
-        <d v="2024-05-08T13:53:00" u="1"/>
-        <d v="2024-05-08T13:54:00" u="1"/>
-        <d v="2024-05-08T13:55:00" u="1"/>
-        <d v="2024-05-08T13:56:00" u="1"/>
-        <d v="2024-05-08T13:57:00" u="1"/>
-        <d v="2024-05-08T13:58:00" u="1"/>
-        <d v="2024-05-08T13:59:00" u="1"/>
-        <d v="2024-05-08T14:00:00" u="1"/>
-        <d v="2024-05-08T14:01:00" u="1"/>
-        <d v="2024-05-08T14:02:00" u="1"/>
-        <d v="2024-05-08T14:03:00" u="1"/>
-        <d v="2024-05-08T14:04:00" u="1"/>
-        <d v="2024-05-08T14:05:00" u="1"/>
-        <d v="2024-05-08T14:06:00" u="1"/>
-        <d v="2024-05-08T14:07:00" u="1"/>
-        <d v="2024-05-08T14:08:00" u="1"/>
-        <d v="2024-05-08T14:09:00" u="1"/>
-        <d v="2024-05-08T14:10:00" u="1"/>
-        <d v="2024-05-08T14:11:00" u="1"/>
-        <d v="2024-05-08T14:12:00" u="1"/>
-        <d v="2024-05-08T14:13:00" u="1"/>
-        <d v="2024-05-08T14:14:00" u="1"/>
-        <d v="2024-05-08T14:15:00" u="1"/>
-        <d v="2024-05-08T14:16:00" u="1"/>
-        <d v="2024-05-08T14:17:00" u="1"/>
-        <d v="2024-05-08T14:18:00" u="1"/>
-        <d v="2024-05-08T14:19:00" u="1"/>
-        <d v="2024-05-08T14:20:00" u="1"/>
-        <d v="2024-05-08T14:21:00" u="1"/>
-        <d v="2024-05-08T14:22:00" u="1"/>
-        <d v="2024-05-08T14:23:00" u="1"/>
-        <d v="2024-05-08T14:24:00" u="1"/>
-        <d v="2024-05-08T14:25:00" u="1"/>
-        <d v="2024-05-08T14:26:00" u="1"/>
-        <d v="2024-05-08T14:27:00" u="1"/>
-        <d v="2024-05-08T14:28:00" u="1"/>
-        <d v="2024-05-08T14:29:00" u="1"/>
-        <d v="2024-05-08T14:30:00" u="1"/>
-        <d v="2024-05-08T14:31:00" u="1"/>
-        <d v="2024-05-08T14:32:00" u="1"/>
-        <d v="2024-05-08T14:33:00" u="1"/>
-        <d v="2024-05-08T14:34:00" u="1"/>
-        <d v="2024-05-08T14:35:00" u="1"/>
-        <d v="2024-05-08T14:36:00" u="1"/>
-        <d v="2024-05-08T14:37:00" u="1"/>
-        <d v="2024-05-08T14:38:00" u="1"/>
-        <d v="2024-05-08T14:39:00" u="1"/>
-        <d v="2024-05-08T14:40:00" u="1"/>
-        <d v="2024-05-08T14:41:00" u="1"/>
-        <d v="2024-05-08T14:42:00" u="1"/>
-        <d v="2024-05-08T14:43:00" u="1"/>
-        <d v="2024-05-08T14:44:00" u="1"/>
-        <d v="2024-05-08T14:45:00" u="1"/>
-        <d v="2024-05-08T14:46:00" u="1"/>
-        <d v="2024-05-08T14:47:00" u="1"/>
-        <d v="2024-05-08T14:48:00" u="1"/>
-        <d v="2024-05-08T14:49:00" u="1"/>
-        <d v="2024-05-08T14:50:00" u="1"/>
-        <d v="2024-05-08T14:51:00" u="1"/>
-        <d v="2024-05-08T14:52:00" u="1"/>
-        <d v="2024-05-08T14:53:00" u="1"/>
-        <d v="2024-05-08T14:54:00" u="1"/>
-        <d v="2024-05-08T14:55:00" u="1"/>
-        <d v="2024-05-08T14:56:00" u="1"/>
-        <d v="2024-05-08T14:57:00" u="1"/>
-        <d v="2024-05-08T14:58:00" u="1"/>
-        <d v="2024-05-08T14:59:00" u="1"/>
-        <d v="2024-05-08T15:00:00" u="1"/>
-        <d v="2024-05-08T15:01:00" u="1"/>
-        <d v="2024-05-08T15:02:00" u="1"/>
-        <d v="2024-05-08T15:03:00" u="1"/>
-        <d v="2024-05-08T15:04:00" u="1"/>
-        <d v="2024-05-08T15:05:00" u="1"/>
-        <d v="2024-05-08T15:06:00" u="1"/>
-        <d v="2024-05-08T15:07:00" u="1"/>
-        <d v="2024-05-08T15:08:00" u="1"/>
-        <d v="2024-05-08T15:09:00" u="1"/>
-        <d v="2024-05-08T15:10:00" u="1"/>
-        <d v="2024-05-08T15:11:00" u="1"/>
-        <d v="2024-05-08T15:12:00" u="1"/>
-        <d v="2024-05-08T15:13:00" u="1"/>
-        <d v="2024-05-08T15:14:00" u="1"/>
-        <d v="2024-05-08T15:15:00" u="1"/>
-        <d v="2024-05-08T15:16:00" u="1"/>
-        <d v="2024-05-08T15:17:00" u="1"/>
-        <d v="2024-05-08T15:18:00" u="1"/>
-        <d v="2024-05-08T15:19:00" u="1"/>
-        <d v="2024-05-08T15:20:00" u="1"/>
-        <d v="2024-05-08T15:21:00" u="1"/>
-        <d v="2024-05-08T15:22:00" u="1"/>
-        <d v="2024-05-08T15:23:00" u="1"/>
-        <d v="2024-05-08T15:24:00" u="1"/>
-        <d v="2024-05-08T15:25:00" u="1"/>
-        <d v="2024-05-08T15:26:00" u="1"/>
-        <d v="2024-05-08T15:27:00" u="1"/>
-        <d v="2024-05-08T15:28:00" u="1"/>
-        <d v="2024-05-08T15:29:00" u="1"/>
-        <d v="2024-05-08T15:30:00" u="1"/>
-        <d v="2024-05-08T15:31:00" u="1"/>
-        <d v="2024-05-08T15:32:00" u="1"/>
-        <d v="2024-05-08T15:33:00" u="1"/>
-        <d v="2024-05-08T15:34:00" u="1"/>
-        <d v="2024-05-08T15:35:00" u="1"/>
-        <d v="2024-05-08T15:36:00" u="1"/>
-        <d v="2024-05-08T15:37:00" u="1"/>
-        <d v="2024-05-08T15:38:00" u="1"/>
-        <d v="2024-05-08T15:39:00" u="1"/>
-        <d v="2024-05-08T15:40:00" u="1"/>
-        <d v="2024-05-08T15:41:00" u="1"/>
-        <d v="2024-05-08T15:42:00" u="1"/>
-        <d v="2024-05-08T15:43:00" u="1"/>
-        <d v="2024-05-08T15:44:00" u="1"/>
-        <d v="2024-05-08T15:45:00" u="1"/>
-        <d v="2024-05-08T15:46:00" u="1"/>
-        <d v="2024-05-08T15:47:00" u="1"/>
-        <d v="2024-05-08T15:48:00" u="1"/>
-        <d v="2024-05-08T15:49:00" u="1"/>
-        <d v="2024-05-08T15:50:00" u="1"/>
-        <d v="2024-05-08T15:51:00" u="1"/>
-        <d v="2024-05-08T15:52:00" u="1"/>
-        <d v="2024-05-08T15:53:00" u="1"/>
-        <d v="2024-05-08T15:54:00" u="1"/>
-        <d v="2024-05-08T15:55:00" u="1"/>
-        <d v="2024-05-08T15:56:00" u="1"/>
-        <d v="2024-05-08T15:57:00" u="1"/>
-        <d v="2024-05-08T15:58:00" u="1"/>
-        <d v="2024-05-08T15:59:00" u="1"/>
-        <d v="2024-05-08T16:00:00" u="1"/>
-        <d v="2024-05-08T16:01:00" u="1"/>
-        <d v="2024-05-08T16:02:00" u="1"/>
-        <d v="2024-05-08T16:03:00" u="1"/>
-        <d v="2024-05-08T16:04:00" u="1"/>
-        <d v="2024-05-08T16:05:00" u="1"/>
-        <d v="2024-05-08T16:06:00" u="1"/>
-        <d v="2024-05-08T16:07:00" u="1"/>
-        <d v="2024-05-08T16:08:00" u="1"/>
-        <d v="2024-05-08T16:09:00" u="1"/>
-        <d v="2024-05-08T16:10:00" u="1"/>
-        <d v="2024-05-08T16:11:00" u="1"/>
-        <d v="2024-05-08T16:12:00" u="1"/>
-        <d v="2024-05-08T16:13:00" u="1"/>
-        <d v="2024-05-08T16:14:00" u="1"/>
-        <d v="2024-05-08T16:15:00" u="1"/>
-        <d v="2024-05-08T16:16:00" u="1"/>
-        <d v="2024-05-08T16:17:00" u="1"/>
-        <d v="2024-05-08T16:18:00" u="1"/>
-        <d v="2024-05-08T16:19:00" u="1"/>
-        <d v="2024-05-08T16:20:00" u="1"/>
-        <d v="2024-05-08T16:21:00" u="1"/>
-        <d v="2024-05-08T16:22:00" u="1"/>
-        <d v="2024-05-08T16:23:00" u="1"/>
-        <d v="2024-05-08T16:24:00" u="1"/>
-        <d v="2024-05-08T16:25:00" u="1"/>
-        <d v="2024-05-08T16:26:00" u="1"/>
-        <d v="2024-05-08T16:27:00" u="1"/>
-        <d v="2024-05-08T16:28:00" u="1"/>
-        <d v="2024-05-08T16:29:00" u="1"/>
-        <d v="2024-05-08T16:30:00" u="1"/>
-        <d v="2024-05-08T16:31:00" u="1"/>
-        <d v="2024-05-08T16:32:00" u="1"/>
-        <d v="2024-05-08T16:33:00" u="1"/>
-        <d v="2024-05-08T16:34:00" u="1"/>
-        <d v="2024-05-08T16:35:00" u="1"/>
-        <d v="2024-05-08T16:36:00" u="1"/>
-        <d v="2024-05-08T16:37:00" u="1"/>
-        <d v="2024-05-08T16:38:00" u="1"/>
-        <d v="2024-05-08T16:39:00" u="1"/>
-        <d v="2024-05-08T16:40:00" u="1"/>
-        <d v="2024-05-08T16:41:00" u="1"/>
-        <d v="2024-05-08T16:42:00" u="1"/>
-        <d v="2024-05-08T16:43:00" u="1"/>
-        <d v="2024-05-08T16:44:00" u="1"/>
-        <d v="2024-05-08T16:45:00" u="1"/>
-        <d v="2024-05-08T16:46:00" u="1"/>
-        <d v="2024-05-08T16:47:00" u="1"/>
-        <d v="2024-05-08T16:48:00" u="1"/>
-        <d v="2024-05-08T16:49:00" u="1"/>
-        <d v="2024-05-08T16:50:00" u="1"/>
-        <d v="2024-05-08T16:51:00" u="1"/>
-        <d v="2024-05-08T16:52:00" u="1"/>
-        <d v="2024-05-08T16:53:00" u="1"/>
-        <d v="2024-05-08T16:54:00" u="1"/>
-        <d v="2024-05-08T16:55:00" u="1"/>
-        <d v="2024-05-08T16:56:00" u="1"/>
-        <d v="2024-05-08T16:57:00" u="1"/>
-        <d v="2024-05-08T16:58:00" u="1"/>
-        <d v="2024-05-08T16:59:00" u="1"/>
-        <d v="2024-05-08T17:00:00" u="1"/>
-        <d v="2024-05-08T17:01:00" u="1"/>
-        <d v="2024-05-08T17:02:00" u="1"/>
-        <d v="2024-05-08T17:03:00" u="1"/>
-        <d v="2024-05-08T17:04:00" u="1"/>
-        <d v="2024-05-08T17:05:00" u="1"/>
-        <d v="2024-05-08T17:06:00" u="1"/>
-        <d v="2024-05-08T17:07:00" u="1"/>
-        <d v="2024-05-08T17:08:00" u="1"/>
-        <d v="2024-05-08T17:09:00" u="1"/>
-        <d v="2024-05-08T17:10:00" u="1"/>
-        <d v="2024-05-08T17:11:00" u="1"/>
-        <d v="2024-05-08T17:12:00" u="1"/>
-        <d v="2024-05-08T17:13:00" u="1"/>
-        <d v="2024-05-08T17:14:00" u="1"/>
-        <d v="2024-05-08T17:15:00" u="1"/>
-        <d v="2024-05-08T17:16:00" u="1"/>
-        <d v="2024-05-08T17:17:00" u="1"/>
-        <d v="2024-05-08T17:18:00" u="1"/>
-        <d v="2024-05-08T17:19:00" u="1"/>
-        <d v="2024-05-08T17:20:00" u="1"/>
-        <d v="2024-05-08T17:21:00" u="1"/>
-        <d v="2024-05-08T17:22:00" u="1"/>
-        <d v="2024-05-08T17:23:00" u="1"/>
-        <d v="2024-05-08T17:24:00" u="1"/>
-        <d v="2024-05-08T17:25:00" u="1"/>
-        <d v="2024-05-08T17:26:00" u="1"/>
-        <d v="2024-05-08T17:27:00" u="1"/>
-        <d v="2024-05-08T17:28:00" u="1"/>
-        <d v="2024-05-08T17:29:00" u="1"/>
-        <d v="2024-05-08T17:30:00" u="1"/>
-        <d v="2024-05-08T17:31:00" u="1"/>
-        <d v="2024-05-08T17:32:00" u="1"/>
-        <d v="2024-05-08T17:33:00" u="1"/>
-        <d v="2024-05-08T17:34:00" u="1"/>
-        <d v="2024-05-08T17:35:00" u="1"/>
-        <d v="2024-05-08T17:36:00" u="1"/>
-        <d v="2024-05-08T17:37:00" u="1"/>
-        <d v="2024-05-08T17:38:00" u="1"/>
-        <d v="2024-05-08T17:39:00" u="1"/>
-        <d v="2024-05-08T17:40:00" u="1"/>
-        <d v="2024-05-08T17:41:00" u="1"/>
-        <d v="2024-05-08T17:42:00" u="1"/>
-        <d v="2024-05-08T17:43:00" u="1"/>
-        <d v="2024-05-08T17:44:00" u="1"/>
-        <d v="2024-05-08T17:45:00" u="1"/>
-        <d v="2024-05-08T17:46:00" u="1"/>
-        <d v="2024-05-08T17:47:00" u="1"/>
-        <d v="2024-05-08T17:48:00" u="1"/>
-        <d v="2024-05-08T17:49:00" u="1"/>
-        <d v="2024-05-08T17:50:00" u="1"/>
-        <d v="2024-05-08T17:51:00" u="1"/>
-        <d v="2024-05-08T17:52:00" u="1"/>
-        <d v="2024-05-08T17:53:00" u="1"/>
-        <d v="2024-05-08T17:54:00" u="1"/>
-        <d v="2024-05-08T17:55:00" u="1"/>
-        <d v="2024-05-08T17:56:00" u="1"/>
-        <d v="2024-05-08T17:57:00" u="1"/>
-        <d v="2024-05-08T17:58:00" u="1"/>
-        <d v="2024-05-08T17:59:00" u="1"/>
-        <d v="2024-05-08T18:00:00" u="1"/>
-        <d v="2024-05-08T18:01:00" u="1"/>
-        <d v="2024-05-08T18:02:00" u="1"/>
-        <d v="2024-05-08T18:03:00" u="1"/>
-        <d v="2024-05-08T18:04:00" u="1"/>
-        <d v="2024-05-08T18:05:00" u="1"/>
-        <d v="2024-05-08T18:06:00" u="1"/>
-        <d v="2024-05-08T18:07:00" u="1"/>
-        <d v="2024-05-08T18:08:00" u="1"/>
-        <d v="2024-05-08T18:09:00" u="1"/>
-        <d v="2024-05-08T18:10:00" u="1"/>
-        <d v="2024-05-08T18:11:00" u="1"/>
-        <d v="2024-05-08T18:12:00" u="1"/>
-        <d v="2024-05-08T18:13:00" u="1"/>
-        <d v="2024-05-08T18:14:00" u="1"/>
-        <d v="2024-05-08T18:15:00" u="1"/>
-        <d v="2024-05-08T18:16:00" u="1"/>
-        <d v="2024-05-08T18:17:00" u="1"/>
-        <d v="2024-05-08T18:18:00" u="1"/>
-        <d v="2024-05-08T18:19:00" u="1"/>
-        <d v="2024-05-08T18:20:00" u="1"/>
-        <d v="2024-05-08T18:21:00" u="1"/>
-        <d v="2024-05-08T18:22:00" u="1"/>
-        <d v="2024-05-08T18:24:00" u="1"/>
-        <d v="2024-05-08T18:25:00" u="1"/>
-        <d v="2024-05-08T18:26:00" u="1"/>
-        <d v="2024-05-08T18:27:00" u="1"/>
-        <d v="2024-05-08T18:28:00" u="1"/>
-        <d v="2024-05-08T18:29:00" u="1"/>
-        <d v="2024-05-08T18:30:00" u="1"/>
-        <d v="2024-05-08T18:31:00" u="1"/>
-        <d v="2024-05-08T18:32:00" u="1"/>
-        <d v="2024-05-08T18:33:00" u="1"/>
-        <d v="2024-05-08T18:34:00" u="1"/>
-        <d v="2024-05-08T18:35:00" u="1"/>
-        <d v="2024-05-08T18:36:00" u="1"/>
-        <d v="2024-05-08T18:37:00" u="1"/>
-        <d v="2024-05-08T18:38:00" u="1"/>
-        <d v="2024-05-08T18:39:00" u="1"/>
-        <d v="2024-05-08T18:40:00" u="1"/>
-        <d v="2024-05-08T18:41:00" u="1"/>
-        <d v="2024-05-08T18:43:00" u="1"/>
-        <d v="2024-05-08T18:44:00" u="1"/>
-        <d v="2024-05-08T18:45:00" u="1"/>
-        <d v="2024-05-08T18:46:00" u="1"/>
-        <d v="2024-05-08T18:47:00" u="1"/>
-        <d v="2024-05-08T18:48:00" u="1"/>
-        <d v="2024-05-08T18:49:00" u="1"/>
-        <d v="2024-05-08T18:50:00" u="1"/>
-        <d v="2024-05-08T18:51:00" u="1"/>
-        <d v="2024-05-08T18:52:00" u="1"/>
-        <d v="2024-05-08T18:53:00" u="1"/>
-        <d v="2024-05-08T18:55:00" u="1"/>
-        <d v="2024-05-08T18:56:00" u="1"/>
-        <d v="2024-05-08T18:57:00" u="1"/>
-        <d v="2024-05-08T18:58:00" u="1"/>
-        <d v="2024-05-08T18:59:00" u="1"/>
-        <d v="2024-05-08T19:00:00" u="1"/>
-        <d v="2024-05-08T19:01:00" u="1"/>
-        <d v="2024-05-08T19:03:00" u="1"/>
-        <d v="2024-05-08T19:04:00" u="1"/>
-        <d v="2024-05-08T19:05:00" u="1"/>
-        <d v="2024-05-08T19:06:00" u="1"/>
-        <d v="2024-05-08T19:07:00" u="1"/>
-        <d v="2024-05-08T19:09:00" u="1"/>
-        <d v="2024-05-08T19:10:00" u="1"/>
-        <d v="2024-05-08T19:12:00" u="1"/>
-        <d v="2024-05-08T19:13:00" u="1"/>
-        <d v="2024-05-08T19:14:00" u="1"/>
-        <d v="2024-05-08T19:15:00" u="1"/>
-        <d v="2024-05-08T19:16:00" u="1"/>
-        <d v="2024-05-08T19:19:00" u="1"/>
-        <d v="2024-05-08T19:20:00" u="1"/>
-        <d v="2024-05-08T19:21:00" u="1"/>
-        <d v="2024-05-08T19:22:00" u="1"/>
-        <d v="2024-05-08T19:23:00" u="1"/>
-        <d v="2024-05-08T19:24:00" u="1"/>
-        <d v="2024-05-08T19:25:00" u="1"/>
-        <d v="2024-05-08T19:26:00" u="1"/>
-        <d v="2024-05-08T19:27:00" u="1"/>
-        <d v="2024-05-08T19:28:00" u="1"/>
-        <d v="2024-05-08T19:30:00" u="1"/>
-        <d v="2024-05-08T19:31:00" u="1"/>
-        <d v="2024-05-08T19:32:00" u="1"/>
-        <d v="2024-05-08T19:33:00" u="1"/>
-        <d v="2024-05-08T19:35:00" u="1"/>
-        <d v="2024-05-08T19:36:00" u="1"/>
-        <d v="2024-05-08T19:38:00" u="1"/>
-        <d v="2024-05-08T19:39:00" u="1"/>
-        <d v="2024-05-08T19:40:00" u="1"/>
-        <d v="2024-05-08T19:41:00" u="1"/>
-        <d v="2024-05-08T19:42:00" u="1"/>
-        <d v="2024-05-08T19:44:00" u="1"/>
-        <d v="2024-05-08T19:45:00" u="1"/>
-        <d v="2024-05-08T19:46:00" u="1"/>
-        <d v="2024-05-08T19:48:00" u="1"/>
-        <d v="2024-05-08T19:49:00" u="1"/>
-        <d v="2024-05-08T19:51:00" u="1"/>
-        <d v="2024-05-08T19:52:00" u="1"/>
-        <d v="2024-05-08T19:53:00" u="1"/>
-        <d v="2024-05-08T19:54:00" u="1"/>
-        <d v="2024-05-08T19:55:00" u="1"/>
-        <d v="2024-05-08T19:56:00" u="1"/>
-        <d v="2024-05-08T19:57:00" u="1"/>
-        <d v="2024-05-08T19:58:00" u="1"/>
-        <d v="2024-05-08T19:59:00" u="1"/>
-        <d v="2024-05-08T20:00:00" u="1"/>
-        <d v="2024-05-08T20:01:00" u="1"/>
-        <d v="2024-05-08T20:02:00" u="1"/>
-        <d v="2024-05-08T20:03:00" u="1"/>
-        <d v="2024-05-08T20:04:00" u="1"/>
-        <d v="2024-05-08T20:05:00" u="1"/>
-        <d v="2024-05-08T20:06:00" u="1"/>
-        <d v="2024-05-08T20:07:00" u="1"/>
-        <d v="2024-05-08T20:08:00" u="1"/>
-        <d v="2024-05-08T20:09:00" u="1"/>
-        <d v="2024-05-08T20:10:00" u="1"/>
-        <d v="2024-05-08T20:11:00" u="1"/>
-        <d v="2024-05-08T20:12:00" u="1"/>
-        <d v="2024-05-08T20:13:00" u="1"/>
-        <d v="2024-05-08T20:15:00" u="1"/>
-        <d v="2024-05-08T20:16:00" u="1"/>
-        <d v="2024-05-08T20:17:00" u="1"/>
-        <d v="2024-05-08T20:18:00" u="1"/>
-        <d v="2024-05-08T20:19:00" u="1"/>
-        <d v="2024-05-08T20:20:00" u="1"/>
-        <d v="2024-05-08T20:21:00" u="1"/>
-        <d v="2024-05-08T20:22:00" u="1"/>
-        <d v="2024-05-08T20:23:00" u="1"/>
-        <d v="2024-05-08T20:24:00" u="1"/>
-        <d v="2024-05-08T20:25:00" u="1"/>
-        <d v="2024-05-08T20:26:00" u="1"/>
-        <d v="2024-05-08T20:27:00" u="1"/>
-        <d v="2024-05-08T20:28:00" u="1"/>
-        <d v="2024-05-08T20:29:00" u="1"/>
-        <d v="2024-05-08T20:30:00" u="1"/>
-        <d v="2024-05-08T20:31:00" u="1"/>
-        <d v="2024-05-08T20:32:00" u="1"/>
-        <d v="2024-05-08T20:33:00" u="1"/>
-        <d v="2024-05-08T20:34:00" u="1"/>
-        <d v="2024-05-08T20:35:00" u="1"/>
-        <d v="2024-05-08T20:36:00" u="1"/>
-        <d v="2024-05-08T20:37:00" u="1"/>
-        <d v="2024-05-08T20:40:00" u="1"/>
-        <d v="2024-05-08T20:41:00" u="1"/>
-        <d v="2024-05-08T20:42:00" u="1"/>
-        <d v="2024-05-08T20:43:00" u="1"/>
-        <d v="2024-05-08T20:44:00" u="1"/>
-        <d v="2024-05-08T20:45:00" u="1"/>
-        <d v="2024-05-08T20:46:00" u="1"/>
-        <d v="2024-05-08T20:47:00" u="1"/>
-        <d v="2024-05-08T20:49:00" u="1"/>
-        <d v="2024-05-08T20:51:00" u="1"/>
-        <d v="2024-05-08T20:55:00" u="1"/>
-        <d v="2024-05-08T20:56:00" u="1"/>
-        <d v="2024-05-08T20:57:00" u="1"/>
-        <d v="2024-05-08T20:58:00" u="1"/>
-        <d v="2024-05-08T20:59:00" u="1"/>
-        <d v="2024-05-08T21:00:00" u="1"/>
-        <d v="2024-05-08T21:01:00" u="1"/>
-        <d v="2024-05-08T21:05:00" u="1"/>
-        <d v="2024-05-08T21:06:00" u="1"/>
-        <d v="2024-05-08T21:07:00" u="1"/>
-        <d v="2024-05-08T21:10:00" u="1"/>
-        <d v="2024-05-08T21:11:00" u="1"/>
-        <d v="2024-05-08T21:13:00" u="1"/>
-        <d v="2024-05-08T21:14:00" u="1"/>
-        <d v="2024-05-08T21:15:00" u="1"/>
-        <d v="2024-05-08T21:16:00" u="1"/>
-        <d v="2024-05-08T21:17:00" u="1"/>
-        <d v="2024-05-08T21:18:00" u="1"/>
-        <d v="2024-05-08T21:19:00" u="1"/>
-        <d v="2024-05-08T21:20:00" u="1"/>
-        <d v="2024-05-08T21:21:00" u="1"/>
-        <d v="2024-05-08T21:22:00" u="1"/>
-        <d v="2024-05-08T21:23:00" u="1"/>
-        <d v="2024-05-08T21:25:00" u="1"/>
-        <d v="2024-05-08T21:26:00" u="1"/>
-        <d v="2024-05-08T21:27:00" u="1"/>
-        <d v="2024-05-08T21:30:00" u="1"/>
-        <d v="2024-05-08T21:31:00" u="1"/>
-        <d v="2024-05-08T21:32:00" u="1"/>
-        <d v="2024-05-08T21:33:00" u="1"/>
-        <d v="2024-05-08T21:34:00" u="1"/>
-        <d v="2024-05-08T21:35:00" u="1"/>
-        <d v="2024-05-08T21:36:00" u="1"/>
-        <d v="2024-05-08T21:37:00" u="1"/>
-        <d v="2024-05-08T21:39:00" u="1"/>
-        <d v="2024-05-08T21:40:00" u="1"/>
-        <d v="2024-05-08T21:41:00" u="1"/>
-        <d v="2024-05-08T21:42:00" u="1"/>
-        <d v="2024-05-08T21:43:00" u="1"/>
-        <d v="2024-05-08T21:44:00" u="1"/>
-        <d v="2024-05-08T21:45:00" u="1"/>
-        <d v="2024-05-08T21:46:00" u="1"/>
-        <d v="2024-05-08T21:47:00" u="1"/>
-        <d v="2024-05-08T21:48:00" u="1"/>
-        <d v="2024-05-08T21:49:00" u="1"/>
-        <d v="2024-05-08T21:50:00" u="1"/>
-        <d v="2024-05-08T21:51:00" u="1"/>
-        <d v="2024-05-08T21:52:00" u="1"/>
-        <d v="2024-05-08T21:54:00" u="1"/>
-        <d v="2024-05-08T21:55:00" u="1"/>
-        <d v="2024-05-08T21:56:00" u="1"/>
-        <d v="2024-05-08T21:57:00" u="1"/>
-        <d v="2024-05-08T21:58:00" u="1"/>
-        <d v="2024-05-08T21:59:00" u="1"/>
-        <d v="2024-05-08T22:00:00" u="1"/>
-        <d v="2024-05-08T22:01:00" u="1"/>
-        <d v="2024-05-08T22:02:00" u="1"/>
-        <d v="2024-05-08T22:03:00" u="1"/>
-        <d v="2024-05-08T22:04:00" u="1"/>
-        <d v="2024-05-08T22:05:00" u="1"/>
-        <d v="2024-05-08T22:06:00" u="1"/>
-        <d v="2024-05-08T22:07:00" u="1"/>
-        <d v="2024-05-08T22:09:00" u="1"/>
-        <d v="2024-05-08T22:10:00" u="1"/>
-        <d v="2024-05-08T22:11:00" u="1"/>
-        <d v="2024-05-08T22:13:00" u="1"/>
-        <d v="2024-05-08T22:14:00" u="1"/>
-        <d v="2024-05-08T22:15:00" u="1"/>
-        <d v="2024-05-08T22:16:00" u="1"/>
-        <d v="2024-05-08T22:17:00" u="1"/>
-        <d v="2024-05-08T22:18:00" u="1"/>
-        <d v="2024-05-08T22:19:00" u="1"/>
-        <d v="2024-05-08T22:20:00" u="1"/>
-        <d v="2024-05-08T22:21:00" u="1"/>
-        <d v="2024-05-08T22:22:00" u="1"/>
-        <d v="2024-05-08T22:23:00" u="1"/>
-        <d v="2024-05-08T22:25:00" u="1"/>
-        <d v="2024-05-08T22:26:00" u="1"/>
-        <d v="2024-05-08T22:27:00" u="1"/>
-        <d v="2024-05-08T22:28:00" u="1"/>
-        <d v="2024-05-08T22:29:00" u="1"/>
-        <d v="2024-05-08T22:30:00" u="1"/>
-        <d v="2024-05-08T22:31:00" u="1"/>
-        <d v="2024-05-08T22:35:00" u="1"/>
-        <d v="2024-05-08T22:36:00" u="1"/>
-        <d v="2024-05-08T22:37:00" u="1"/>
-        <d v="2024-05-08T22:38:00" u="1"/>
-        <d v="2024-05-08T22:39:00" u="1"/>
-        <d v="2024-05-08T22:40:00" u="1"/>
-        <d v="2024-05-08T22:41:00" u="1"/>
-        <d v="2024-05-08T22:44:00" u="1"/>
-        <d v="2024-05-08T22:45:00" u="1"/>
-        <d v="2024-05-08T22:46:00" u="1"/>
-        <d v="2024-05-08T22:49:00" u="1"/>
-        <d v="2024-05-08T22:50:00" u="1"/>
-        <d v="2024-05-08T22:51:00" u="1"/>
-        <d v="2024-05-08T22:53:00" u="1"/>
-        <d v="2024-05-08T22:55:00" u="1"/>
-        <d v="2024-05-08T22:56:00" u="1"/>
-        <d v="2024-05-08T22:57:00" u="1"/>
-        <d v="2024-05-08T22:59:00" u="1"/>
-        <d v="2024-05-08T23:00:00" u="1"/>
-        <d v="2024-05-08T23:01:00" u="1"/>
-        <d v="2024-05-08T23:02:00" u="1"/>
-        <d v="2024-05-08T23:05:00" u="1"/>
-        <d v="2024-05-08T23:08:00" u="1"/>
-        <d v="2024-05-08T23:10:00" u="1"/>
-        <d v="2024-05-08T23:11:00" u="1"/>
-        <d v="2024-05-08T23:15:00" u="1"/>
-        <d v="2024-05-08T23:17:00" u="1"/>
-        <d v="2024-05-08T23:18:00" u="1"/>
-        <d v="2024-05-08T23:19:00" u="1"/>
-        <d v="2024-05-08T23:21:00" u="1"/>
-        <d v="2024-05-08T23:22:00" u="1"/>
-        <d v="2024-05-08T23:25:00" u="1"/>
-        <d v="2024-05-08T23:26:00" u="1"/>
-        <d v="2024-05-08T23:30:00" u="1"/>
-        <d v="2024-05-08T23:31:00" u="1"/>
-        <d v="2024-05-08T23:35:00" u="1"/>
-        <d v="2024-05-08T23:37:00" u="1"/>
-        <d v="2024-05-08T23:40:00" u="1"/>
-        <d v="2024-05-08T23:41:00" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="norm_text_hash_id" numFmtId="164">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="database_name" numFmtId="164">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
-        <m/>
-        <s v="PeopleWeb" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="norm_text" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="execution_count" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="duration_microseconds" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="cpu_microseconds" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="cpu_pct" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="logical_reads_pages" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="physical_reads_pages" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="writes_pages" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="avg_row_count" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <x v="0"/>
@@ -10806,570 +7300,12 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ED96754-C7D7-4A08-AC1B-7D4287B3EA00}" name="PivotTable1" cacheId="774" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ED96754-C7D7-4A08-AC1B-7D4287B3EA00}" name="PivotTable1" cacheId="876" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
-      <items count="2972">
-        <item m="1" x="1549"/>
-        <item m="1" x="1550"/>
-        <item m="1" x="1551"/>
-        <item m="1" x="1552"/>
-        <item m="1" x="1553"/>
-        <item m="1" x="1554"/>
-        <item m="1" x="1555"/>
-        <item m="1" x="1556"/>
-        <item m="1" x="1557"/>
-        <item m="1" x="1558"/>
-        <item m="1" x="1559"/>
-        <item m="1" x="1560"/>
-        <item m="1" x="1561"/>
-        <item m="1" x="1562"/>
-        <item m="1" x="1563"/>
-        <item m="1" x="1564"/>
-        <item m="1" x="1565"/>
-        <item m="1" x="1566"/>
-        <item m="1" x="1567"/>
-        <item m="1" x="1568"/>
-        <item m="1" x="1569"/>
-        <item m="1" x="1570"/>
-        <item m="1" x="1571"/>
-        <item m="1" x="1572"/>
-        <item m="1" x="1573"/>
-        <item m="1" x="1574"/>
-        <item m="1" x="1575"/>
-        <item m="1" x="1576"/>
-        <item m="1" x="1577"/>
-        <item m="1" x="1578"/>
-        <item m="1" x="1579"/>
-        <item m="1" x="1580"/>
-        <item m="1" x="1581"/>
-        <item m="1" x="1582"/>
-        <item m="1" x="1583"/>
-        <item m="1" x="1584"/>
-        <item m="1" x="1585"/>
-        <item m="1" x="1586"/>
-        <item m="1" x="1587"/>
-        <item m="1" x="1588"/>
-        <item m="1" x="1589"/>
-        <item m="1" x="1590"/>
-        <item m="1" x="1591"/>
-        <item m="1" x="1592"/>
-        <item m="1" x="1593"/>
-        <item m="1" x="1594"/>
-        <item m="1" x="1595"/>
-        <item m="1" x="1596"/>
-        <item m="1" x="1597"/>
-        <item m="1" x="1598"/>
-        <item m="1" x="1599"/>
-        <item m="1" x="1600"/>
-        <item m="1" x="1601"/>
-        <item m="1" x="1602"/>
-        <item m="1" x="1603"/>
-        <item m="1" x="1604"/>
-        <item m="1" x="1605"/>
-        <item m="1" x="1606"/>
-        <item m="1" x="1607"/>
-        <item m="1" x="1608"/>
-        <item m="1" x="1609"/>
-        <item m="1" x="1610"/>
-        <item m="1" x="1611"/>
-        <item m="1" x="1612"/>
-        <item m="1" x="1613"/>
-        <item m="1" x="1614"/>
-        <item m="1" x="1615"/>
-        <item m="1" x="1616"/>
-        <item m="1" x="1617"/>
-        <item m="1" x="1618"/>
-        <item m="1" x="1619"/>
-        <item m="1" x="1620"/>
-        <item m="1" x="1621"/>
-        <item m="1" x="1622"/>
-        <item m="1" x="1623"/>
-        <item m="1" x="1624"/>
-        <item m="1" x="1625"/>
-        <item m="1" x="1626"/>
-        <item m="1" x="1627"/>
-        <item m="1" x="1628"/>
-        <item m="1" x="1629"/>
-        <item m="1" x="1630"/>
-        <item m="1" x="1631"/>
-        <item m="1" x="1632"/>
-        <item m="1" x="1633"/>
-        <item m="1" x="1634"/>
-        <item m="1" x="1635"/>
-        <item m="1" x="1636"/>
-        <item m="1" x="1637"/>
-        <item m="1" x="1638"/>
-        <item m="1" x="1639"/>
-        <item m="1" x="1640"/>
-        <item m="1" x="1641"/>
-        <item m="1" x="1642"/>
-        <item m="1" x="1643"/>
-        <item m="1" x="1644"/>
-        <item m="1" x="1645"/>
-        <item m="1" x="1646"/>
-        <item m="1" x="1647"/>
-        <item m="1" x="1648"/>
-        <item m="1" x="1649"/>
-        <item m="1" x="1650"/>
-        <item m="1" x="1651"/>
-        <item m="1" x="1652"/>
-        <item m="1" x="1653"/>
-        <item m="1" x="1654"/>
-        <item m="1" x="1655"/>
-        <item m="1" x="1656"/>
-        <item m="1" x="1657"/>
-        <item m="1" x="1658"/>
-        <item m="1" x="1659"/>
-        <item m="1" x="1660"/>
-        <item m="1" x="1661"/>
-        <item m="1" x="1662"/>
-        <item m="1" x="1663"/>
-        <item m="1" x="1664"/>
-        <item m="1" x="1665"/>
-        <item m="1" x="1666"/>
-        <item m="1" x="1667"/>
-        <item m="1" x="1668"/>
-        <item m="1" x="1669"/>
-        <item m="1" x="1670"/>
-        <item m="1" x="1671"/>
-        <item m="1" x="1672"/>
-        <item m="1" x="1673"/>
-        <item m="1" x="1674"/>
-        <item m="1" x="1675"/>
-        <item m="1" x="1676"/>
-        <item m="1" x="1677"/>
-        <item m="1" x="1678"/>
-        <item m="1" x="1679"/>
-        <item m="1" x="1680"/>
-        <item m="1" x="1681"/>
-        <item m="1" x="1682"/>
-        <item m="1" x="1683"/>
-        <item m="1" x="1684"/>
-        <item m="1" x="1685"/>
-        <item m="1" x="1686"/>
-        <item m="1" x="1687"/>
-        <item m="1" x="1688"/>
-        <item m="1" x="1689"/>
-        <item m="1" x="1690"/>
-        <item m="1" x="1691"/>
-        <item m="1" x="1692"/>
-        <item m="1" x="1693"/>
-        <item m="1" x="1694"/>
-        <item m="1" x="1695"/>
-        <item m="1" x="1696"/>
-        <item m="1" x="1697"/>
-        <item m="1" x="1698"/>
-        <item m="1" x="1699"/>
-        <item m="1" x="1700"/>
-        <item m="1" x="1701"/>
-        <item m="1" x="1702"/>
-        <item m="1" x="1703"/>
-        <item m="1" x="1704"/>
-        <item m="1" x="1705"/>
-        <item m="1" x="1706"/>
-        <item m="1" x="1707"/>
-        <item m="1" x="1708"/>
-        <item m="1" x="1709"/>
-        <item m="1" x="1710"/>
-        <item m="1" x="1711"/>
-        <item m="1" x="1712"/>
-        <item m="1" x="1713"/>
-        <item m="1" x="1714"/>
-        <item m="1" x="1715"/>
-        <item m="1" x="1716"/>
-        <item m="1" x="1717"/>
-        <item m="1" x="1718"/>
-        <item m="1" x="1719"/>
-        <item m="1" x="1720"/>
-        <item m="1" x="1721"/>
-        <item m="1" x="1722"/>
-        <item m="1" x="1723"/>
-        <item m="1" x="1724"/>
-        <item m="1" x="1725"/>
-        <item m="1" x="1726"/>
-        <item m="1" x="1727"/>
-        <item m="1" x="1728"/>
-        <item m="1" x="1729"/>
-        <item m="1" x="1730"/>
-        <item m="1" x="1731"/>
-        <item m="1" x="1732"/>
-        <item m="1" x="1733"/>
-        <item m="1" x="1734"/>
-        <item m="1" x="1735"/>
-        <item m="1" x="1736"/>
-        <item m="1" x="1737"/>
-        <item m="1" x="1738"/>
-        <item m="1" x="1739"/>
-        <item m="1" x="1740"/>
-        <item m="1" x="1741"/>
-        <item m="1" x="1742"/>
-        <item m="1" x="1743"/>
-        <item m="1" x="1744"/>
-        <item m="1" x="1745"/>
-        <item m="1" x="1746"/>
-        <item m="1" x="1747"/>
-        <item m="1" x="1748"/>
-        <item m="1" x="1749"/>
-        <item m="1" x="1750"/>
-        <item m="1" x="1751"/>
-        <item m="1" x="1752"/>
-        <item m="1" x="1753"/>
-        <item m="1" x="1754"/>
-        <item m="1" x="1755"/>
-        <item m="1" x="1756"/>
-        <item m="1" x="1757"/>
-        <item m="1" x="1758"/>
-        <item m="1" x="1759"/>
-        <item m="1" x="1760"/>
-        <item m="1" x="1761"/>
-        <item m="1" x="1762"/>
-        <item m="1" x="1763"/>
-        <item m="1" x="1764"/>
-        <item m="1" x="1765"/>
-        <item m="1" x="1766"/>
-        <item m="1" x="1767"/>
-        <item m="1" x="1768"/>
-        <item m="1" x="1769"/>
-        <item m="1" x="1770"/>
-        <item m="1" x="1771"/>
-        <item m="1" x="1772"/>
-        <item m="1" x="1773"/>
-        <item m="1" x="1774"/>
-        <item m="1" x="1775"/>
-        <item m="1" x="1776"/>
-        <item m="1" x="1777"/>
-        <item m="1" x="1778"/>
-        <item m="1" x="1779"/>
-        <item m="1" x="1780"/>
-        <item m="1" x="1781"/>
-        <item m="1" x="1782"/>
-        <item m="1" x="1783"/>
-        <item m="1" x="1784"/>
-        <item m="1" x="1785"/>
-        <item m="1" x="1786"/>
-        <item m="1" x="1787"/>
-        <item m="1" x="1788"/>
-        <item m="1" x="1789"/>
-        <item m="1" x="1790"/>
-        <item m="1" x="1791"/>
-        <item m="1" x="1792"/>
-        <item m="1" x="1793"/>
-        <item m="1" x="1794"/>
-        <item m="1" x="1795"/>
-        <item m="1" x="1796"/>
-        <item m="1" x="1797"/>
-        <item m="1" x="1798"/>
-        <item m="1" x="1799"/>
-        <item m="1" x="1800"/>
-        <item m="1" x="1801"/>
-        <item m="1" x="1802"/>
-        <item m="1" x="1803"/>
-        <item m="1" x="1804"/>
-        <item m="1" x="1805"/>
-        <item m="1" x="1806"/>
-        <item m="1" x="1807"/>
-        <item m="1" x="1808"/>
-        <item m="1" x="1809"/>
-        <item m="1" x="1810"/>
-        <item m="1" x="1811"/>
-        <item m="1" x="1812"/>
-        <item m="1" x="1813"/>
-        <item m="1" x="1814"/>
-        <item m="1" x="1815"/>
-        <item m="1" x="1816"/>
-        <item m="1" x="1817"/>
-        <item m="1" x="1818"/>
-        <item m="1" x="1819"/>
-        <item m="1" x="1820"/>
-        <item m="1" x="1821"/>
-        <item m="1" x="1822"/>
-        <item m="1" x="1823"/>
-        <item m="1" x="1824"/>
-        <item m="1" x="1825"/>
-        <item m="1" x="1826"/>
-        <item m="1" x="1827"/>
-        <item m="1" x="1828"/>
-        <item m="1" x="1829"/>
-        <item m="1" x="1830"/>
-        <item m="1" x="1831"/>
-        <item m="1" x="1832"/>
-        <item m="1" x="1833"/>
-        <item m="1" x="1834"/>
-        <item m="1" x="1835"/>
-        <item m="1" x="1836"/>
-        <item m="1" x="1837"/>
-        <item m="1" x="1838"/>
-        <item m="1" x="1839"/>
-        <item m="1" x="1840"/>
-        <item m="1" x="1841"/>
-        <item m="1" x="1842"/>
-        <item m="1" x="1843"/>
-        <item m="1" x="1844"/>
-        <item m="1" x="1845"/>
-        <item m="1" x="1846"/>
-        <item m="1" x="1847"/>
-        <item m="1" x="1848"/>
-        <item m="1" x="1849"/>
-        <item m="1" x="1850"/>
-        <item m="1" x="1851"/>
-        <item m="1" x="1852"/>
-        <item m="1" x="1853"/>
-        <item m="1" x="1854"/>
-        <item m="1" x="1855"/>
-        <item m="1" x="1856"/>
-        <item m="1" x="1857"/>
-        <item m="1" x="1858"/>
-        <item m="1" x="1859"/>
-        <item m="1" x="1860"/>
-        <item m="1" x="1861"/>
-        <item m="1" x="1862"/>
-        <item m="1" x="1863"/>
-        <item m="1" x="1864"/>
-        <item m="1" x="1865"/>
-        <item m="1" x="1866"/>
-        <item m="1" x="1867"/>
-        <item m="1" x="1868"/>
-        <item m="1" x="1869"/>
-        <item m="1" x="1870"/>
-        <item m="1" x="1871"/>
-        <item m="1" x="1872"/>
-        <item m="1" x="1873"/>
-        <item m="1" x="1874"/>
-        <item m="1" x="1875"/>
-        <item m="1" x="1876"/>
-        <item m="1" x="1877"/>
-        <item m="1" x="1878"/>
-        <item m="1" x="1879"/>
-        <item m="1" x="1880"/>
-        <item m="1" x="1881"/>
-        <item m="1" x="1882"/>
-        <item m="1" x="1883"/>
-        <item m="1" x="1884"/>
-        <item m="1" x="1885"/>
-        <item m="1" x="1886"/>
-        <item m="1" x="1887"/>
-        <item m="1" x="1888"/>
-        <item m="1" x="1889"/>
-        <item m="1" x="1890"/>
-        <item m="1" x="1891"/>
-        <item m="1" x="1892"/>
-        <item m="1" x="1893"/>
-        <item m="1" x="1894"/>
-        <item m="1" x="1895"/>
-        <item m="1" x="1896"/>
-        <item m="1" x="1897"/>
-        <item m="1" x="1898"/>
-        <item m="1" x="1899"/>
-        <item m="1" x="1900"/>
-        <item m="1" x="1901"/>
-        <item m="1" x="1902"/>
-        <item m="1" x="1903"/>
-        <item m="1" x="1904"/>
-        <item m="1" x="1905"/>
-        <item m="1" x="1906"/>
-        <item m="1" x="1907"/>
-        <item m="1" x="1908"/>
-        <item m="1" x="1909"/>
-        <item m="1" x="1910"/>
-        <item m="1" x="1911"/>
-        <item m="1" x="1912"/>
-        <item m="1" x="1913"/>
-        <item m="1" x="1914"/>
-        <item m="1" x="1915"/>
-        <item m="1" x="1916"/>
-        <item m="1" x="1917"/>
-        <item m="1" x="1918"/>
-        <item m="1" x="1919"/>
-        <item m="1" x="1920"/>
-        <item m="1" x="1921"/>
-        <item m="1" x="1922"/>
-        <item m="1" x="1923"/>
-        <item m="1" x="1924"/>
-        <item m="1" x="1925"/>
-        <item m="1" x="1926"/>
-        <item m="1" x="1927"/>
-        <item m="1" x="1928"/>
-        <item m="1" x="1929"/>
-        <item m="1" x="1930"/>
-        <item m="1" x="1931"/>
-        <item m="1" x="1932"/>
-        <item m="1" x="1933"/>
-        <item m="1" x="1934"/>
-        <item m="1" x="1935"/>
-        <item m="1" x="1936"/>
-        <item m="1" x="1937"/>
-        <item m="1" x="1938"/>
-        <item m="1" x="1939"/>
-        <item m="1" x="1940"/>
-        <item m="1" x="1941"/>
-        <item m="1" x="1942"/>
-        <item m="1" x="1943"/>
-        <item m="1" x="1944"/>
-        <item m="1" x="1945"/>
-        <item m="1" x="1946"/>
-        <item m="1" x="1947"/>
-        <item m="1" x="1948"/>
-        <item m="1" x="1949"/>
-        <item m="1" x="1950"/>
-        <item m="1" x="1951"/>
-        <item m="1" x="1952"/>
-        <item m="1" x="1953"/>
-        <item m="1" x="1954"/>
-        <item m="1" x="1955"/>
-        <item m="1" x="1956"/>
-        <item m="1" x="1957"/>
-        <item m="1" x="1958"/>
-        <item m="1" x="1959"/>
-        <item m="1" x="1960"/>
-        <item m="1" x="1961"/>
-        <item m="1" x="1962"/>
-        <item m="1" x="1963"/>
-        <item m="1" x="1964"/>
-        <item m="1" x="1965"/>
-        <item m="1" x="1966"/>
-        <item m="1" x="1967"/>
-        <item m="1" x="1968"/>
-        <item m="1" x="1969"/>
-        <item m="1" x="1970"/>
-        <item m="1" x="1971"/>
-        <item m="1" x="1972"/>
-        <item m="1" x="1973"/>
-        <item m="1" x="1974"/>
-        <item m="1" x="1975"/>
-        <item m="1" x="1976"/>
-        <item m="1" x="1977"/>
-        <item m="1" x="1978"/>
-        <item m="1" x="1979"/>
-        <item m="1" x="1980"/>
-        <item m="1" x="1981"/>
-        <item m="1" x="1982"/>
-        <item m="1" x="1983"/>
-        <item m="1" x="1984"/>
-        <item m="1" x="1985"/>
-        <item m="1" x="1986"/>
-        <item m="1" x="1987"/>
-        <item m="1" x="1988"/>
-        <item m="1" x="1989"/>
-        <item m="1" x="1990"/>
-        <item m="1" x="1991"/>
-        <item m="1" x="1992"/>
-        <item m="1" x="1993"/>
-        <item m="1" x="1994"/>
-        <item m="1" x="1995"/>
-        <item m="1" x="1996"/>
-        <item m="1" x="1997"/>
-        <item m="1" x="1998"/>
-        <item m="1" x="1999"/>
-        <item m="1" x="2000"/>
-        <item m="1" x="2001"/>
-        <item m="1" x="2002"/>
-        <item m="1" x="2003"/>
-        <item m="1" x="2004"/>
-        <item m="1" x="2005"/>
-        <item m="1" x="2006"/>
-        <item m="1" x="2007"/>
-        <item m="1" x="2008"/>
-        <item m="1" x="2009"/>
-        <item m="1" x="2010"/>
-        <item m="1" x="2011"/>
-        <item m="1" x="2012"/>
-        <item m="1" x="2013"/>
-        <item m="1" x="2014"/>
-        <item m="1" x="2015"/>
-        <item m="1" x="2016"/>
-        <item m="1" x="2017"/>
-        <item m="1" x="2018"/>
-        <item m="1" x="2019"/>
-        <item m="1" x="2020"/>
-        <item m="1" x="2021"/>
-        <item m="1" x="2022"/>
-        <item m="1" x="2023"/>
-        <item m="1" x="2024"/>
-        <item m="1" x="2025"/>
-        <item m="1" x="2026"/>
-        <item m="1" x="2027"/>
-        <item m="1" x="2028"/>
-        <item m="1" x="2029"/>
-        <item m="1" x="2030"/>
-        <item m="1" x="2031"/>
-        <item m="1" x="2032"/>
-        <item m="1" x="2033"/>
-        <item m="1" x="2034"/>
-        <item m="1" x="2035"/>
-        <item m="1" x="2036"/>
-        <item m="1" x="2037"/>
-        <item m="1" x="2038"/>
-        <item m="1" x="2039"/>
-        <item m="1" x="2040"/>
-        <item m="1" x="2041"/>
-        <item m="1" x="2042"/>
-        <item m="1" x="2043"/>
-        <item m="1" x="2044"/>
-        <item m="1" x="2045"/>
-        <item m="1" x="2046"/>
-        <item m="1" x="2047"/>
-        <item m="1" x="2048"/>
-        <item m="1" x="2049"/>
-        <item m="1" x="2050"/>
-        <item m="1" x="2051"/>
-        <item m="1" x="2052"/>
-        <item m="1" x="2053"/>
-        <item m="1" x="2054"/>
-        <item m="1" x="2055"/>
-        <item m="1" x="2056"/>
-        <item m="1" x="2057"/>
-        <item m="1" x="2058"/>
-        <item m="1" x="2059"/>
-        <item m="1" x="2060"/>
-        <item m="1" x="2061"/>
-        <item m="1" x="2062"/>
-        <item m="1" x="2063"/>
-        <item m="1" x="2064"/>
-        <item m="1" x="2065"/>
-        <item m="1" x="2066"/>
-        <item m="1" x="2067"/>
-        <item m="1" x="2068"/>
-        <item m="1" x="2069"/>
-        <item m="1" x="2070"/>
-        <item m="1" x="2071"/>
-        <item m="1" x="2072"/>
-        <item m="1" x="2073"/>
-        <item m="1" x="2074"/>
-        <item m="1" x="2075"/>
-        <item m="1" x="2076"/>
-        <item m="1" x="2077"/>
-        <item m="1" x="2078"/>
-        <item m="1" x="2079"/>
-        <item m="1" x="2080"/>
-        <item m="1" x="2081"/>
-        <item m="1" x="2082"/>
-        <item m="1" x="2083"/>
-        <item m="1" x="2084"/>
-        <item m="1" x="2085"/>
-        <item m="1" x="2086"/>
-        <item m="1" x="2087"/>
+      <items count="3511">
         <item m="1" x="2088"/>
         <item m="1" x="2089"/>
         <item m="1" x="2090"/>
@@ -12253,605 +8189,605 @@
         <item m="1" x="2968"/>
         <item m="1" x="2969"/>
         <item m="1" x="2970"/>
-        <item m="1" x="1489"/>
-        <item m="1" x="1490"/>
-        <item m="1" x="1491"/>
-        <item m="1" x="1492"/>
-        <item m="1" x="1493"/>
-        <item m="1" x="1494"/>
-        <item m="1" x="1495"/>
-        <item m="1" x="1496"/>
-        <item m="1" x="1497"/>
-        <item m="1" x="1498"/>
-        <item m="1" x="1499"/>
-        <item m="1" x="1500"/>
-        <item m="1" x="1501"/>
-        <item m="1" x="1502"/>
-        <item m="1" x="1503"/>
-        <item m="1" x="1504"/>
-        <item m="1" x="1505"/>
-        <item m="1" x="1506"/>
-        <item m="1" x="1507"/>
-        <item m="1" x="1508"/>
-        <item m="1" x="1509"/>
-        <item m="1" x="1510"/>
-        <item m="1" x="1511"/>
-        <item m="1" x="1512"/>
-        <item m="1" x="1513"/>
-        <item m="1" x="1514"/>
-        <item m="1" x="1515"/>
-        <item m="1" x="1516"/>
-        <item m="1" x="1517"/>
-        <item m="1" x="1518"/>
-        <item m="1" x="1519"/>
-        <item m="1" x="1520"/>
-        <item m="1" x="1521"/>
-        <item m="1" x="1522"/>
-        <item m="1" x="1523"/>
-        <item m="1" x="1524"/>
-        <item m="1" x="1525"/>
-        <item m="1" x="1526"/>
-        <item m="1" x="1527"/>
-        <item m="1" x="1528"/>
-        <item m="1" x="1529"/>
-        <item m="1" x="1530"/>
-        <item m="1" x="1531"/>
-        <item m="1" x="1532"/>
-        <item m="1" x="1533"/>
-        <item m="1" x="1534"/>
-        <item m="1" x="1535"/>
-        <item m="1" x="1536"/>
-        <item m="1" x="1537"/>
-        <item m="1" x="1538"/>
-        <item m="1" x="1539"/>
-        <item m="1" x="1540"/>
-        <item m="1" x="1541"/>
-        <item m="1" x="1542"/>
-        <item m="1" x="1543"/>
-        <item m="1" x="1544"/>
-        <item m="1" x="1545"/>
-        <item m="1" x="1546"/>
-        <item m="1" x="1547"/>
-        <item m="1" x="1548"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="56"/>
-        <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="82"/>
-        <item m="1" x="83"/>
-        <item m="1" x="84"/>
-        <item m="1" x="85"/>
-        <item m="1" x="86"/>
-        <item m="1" x="87"/>
-        <item m="1" x="88"/>
-        <item m="1" x="89"/>
-        <item m="1" x="90"/>
-        <item m="1" x="91"/>
-        <item m="1" x="92"/>
-        <item m="1" x="93"/>
-        <item m="1" x="94"/>
-        <item m="1" x="95"/>
-        <item m="1" x="96"/>
-        <item m="1" x="97"/>
-        <item m="1" x="98"/>
-        <item m="1" x="99"/>
-        <item m="1" x="100"/>
-        <item m="1" x="101"/>
-        <item m="1" x="102"/>
-        <item m="1" x="103"/>
-        <item m="1" x="104"/>
-        <item m="1" x="105"/>
-        <item m="1" x="106"/>
-        <item m="1" x="107"/>
-        <item m="1" x="108"/>
-        <item m="1" x="109"/>
-        <item m="1" x="110"/>
-        <item m="1" x="111"/>
-        <item m="1" x="112"/>
-        <item m="1" x="113"/>
-        <item m="1" x="114"/>
-        <item m="1" x="115"/>
-        <item m="1" x="116"/>
-        <item m="1" x="117"/>
-        <item m="1" x="118"/>
-        <item m="1" x="119"/>
-        <item m="1" x="120"/>
-        <item m="1" x="121"/>
-        <item m="1" x="122"/>
-        <item m="1" x="123"/>
-        <item m="1" x="124"/>
-        <item m="1" x="125"/>
-        <item m="1" x="126"/>
-        <item m="1" x="127"/>
-        <item m="1" x="128"/>
-        <item m="1" x="129"/>
-        <item m="1" x="130"/>
-        <item m="1" x="131"/>
-        <item m="1" x="132"/>
-        <item m="1" x="133"/>
-        <item m="1" x="134"/>
-        <item m="1" x="135"/>
-        <item m="1" x="136"/>
-        <item m="1" x="137"/>
-        <item m="1" x="138"/>
-        <item m="1" x="139"/>
-        <item m="1" x="140"/>
-        <item m="1" x="141"/>
-        <item m="1" x="142"/>
-        <item m="1" x="143"/>
-        <item m="1" x="144"/>
-        <item m="1" x="145"/>
-        <item m="1" x="146"/>
-        <item m="1" x="147"/>
-        <item m="1" x="148"/>
-        <item m="1" x="149"/>
-        <item m="1" x="150"/>
-        <item m="1" x="151"/>
-        <item m="1" x="152"/>
-        <item m="1" x="153"/>
-        <item m="1" x="154"/>
-        <item m="1" x="155"/>
-        <item m="1" x="156"/>
-        <item m="1" x="157"/>
-        <item m="1" x="158"/>
-        <item m="1" x="159"/>
-        <item m="1" x="160"/>
-        <item m="1" x="161"/>
-        <item m="1" x="162"/>
-        <item m="1" x="163"/>
-        <item m="1" x="164"/>
-        <item m="1" x="165"/>
-        <item m="1" x="166"/>
-        <item m="1" x="167"/>
-        <item m="1" x="168"/>
-        <item m="1" x="169"/>
-        <item m="1" x="170"/>
-        <item m="1" x="171"/>
-        <item m="1" x="172"/>
-        <item m="1" x="173"/>
-        <item m="1" x="174"/>
-        <item m="1" x="175"/>
-        <item m="1" x="176"/>
-        <item m="1" x="177"/>
-        <item m="1" x="178"/>
-        <item m="1" x="179"/>
-        <item m="1" x="180"/>
-        <item m="1" x="181"/>
-        <item m="1" x="182"/>
-        <item m="1" x="183"/>
-        <item m="1" x="184"/>
-        <item m="1" x="185"/>
-        <item m="1" x="186"/>
-        <item m="1" x="187"/>
-        <item m="1" x="188"/>
-        <item m="1" x="189"/>
-        <item m="1" x="190"/>
-        <item m="1" x="191"/>
-        <item m="1" x="192"/>
-        <item m="1" x="193"/>
-        <item m="1" x="194"/>
-        <item m="1" x="195"/>
-        <item m="1" x="196"/>
-        <item m="1" x="197"/>
-        <item m="1" x="198"/>
-        <item m="1" x="199"/>
-        <item m="1" x="200"/>
-        <item m="1" x="201"/>
-        <item m="1" x="202"/>
-        <item m="1" x="203"/>
-        <item m="1" x="204"/>
-        <item m="1" x="205"/>
-        <item m="1" x="206"/>
-        <item m="1" x="207"/>
-        <item m="1" x="208"/>
-        <item m="1" x="209"/>
-        <item m="1" x="210"/>
-        <item m="1" x="211"/>
-        <item m="1" x="212"/>
-        <item m="1" x="213"/>
-        <item m="1" x="214"/>
-        <item m="1" x="215"/>
-        <item m="1" x="216"/>
-        <item m="1" x="217"/>
-        <item m="1" x="218"/>
-        <item m="1" x="219"/>
-        <item m="1" x="220"/>
-        <item m="1" x="221"/>
-        <item m="1" x="222"/>
-        <item m="1" x="223"/>
-        <item m="1" x="224"/>
-        <item m="1" x="225"/>
-        <item m="1" x="226"/>
-        <item m="1" x="227"/>
-        <item m="1" x="228"/>
-        <item m="1" x="229"/>
-        <item m="1" x="230"/>
-        <item m="1" x="231"/>
-        <item m="1" x="232"/>
-        <item m="1" x="233"/>
-        <item m="1" x="234"/>
-        <item m="1" x="235"/>
-        <item m="1" x="236"/>
-        <item m="1" x="237"/>
-        <item m="1" x="238"/>
-        <item m="1" x="239"/>
-        <item m="1" x="240"/>
-        <item m="1" x="241"/>
-        <item m="1" x="242"/>
-        <item m="1" x="243"/>
-        <item m="1" x="244"/>
-        <item m="1" x="245"/>
-        <item m="1" x="246"/>
-        <item m="1" x="247"/>
-        <item m="1" x="248"/>
-        <item m="1" x="249"/>
-        <item m="1" x="250"/>
-        <item m="1" x="251"/>
-        <item m="1" x="252"/>
-        <item m="1" x="253"/>
-        <item m="1" x="254"/>
-        <item m="1" x="255"/>
-        <item m="1" x="256"/>
-        <item m="1" x="257"/>
-        <item m="1" x="258"/>
-        <item m="1" x="259"/>
-        <item m="1" x="260"/>
-        <item m="1" x="261"/>
-        <item m="1" x="262"/>
-        <item m="1" x="263"/>
-        <item m="1" x="264"/>
-        <item m="1" x="265"/>
-        <item m="1" x="266"/>
-        <item m="1" x="267"/>
-        <item m="1" x="268"/>
-        <item m="1" x="269"/>
-        <item m="1" x="270"/>
-        <item m="1" x="271"/>
-        <item m="1" x="272"/>
-        <item m="1" x="273"/>
-        <item m="1" x="274"/>
-        <item m="1" x="275"/>
-        <item m="1" x="276"/>
-        <item m="1" x="277"/>
-        <item m="1" x="278"/>
-        <item m="1" x="279"/>
-        <item m="1" x="280"/>
-        <item m="1" x="281"/>
-        <item m="1" x="282"/>
-        <item m="1" x="283"/>
-        <item m="1" x="284"/>
-        <item m="1" x="285"/>
-        <item m="1" x="286"/>
-        <item m="1" x="287"/>
-        <item m="1" x="288"/>
-        <item m="1" x="289"/>
-        <item m="1" x="290"/>
-        <item m="1" x="291"/>
-        <item m="1" x="292"/>
-        <item m="1" x="293"/>
-        <item m="1" x="294"/>
-        <item m="1" x="295"/>
-        <item m="1" x="296"/>
-        <item m="1" x="297"/>
-        <item m="1" x="298"/>
-        <item m="1" x="299"/>
-        <item m="1" x="300"/>
-        <item m="1" x="301"/>
-        <item m="1" x="302"/>
-        <item m="1" x="303"/>
-        <item m="1" x="304"/>
-        <item m="1" x="305"/>
-        <item m="1" x="306"/>
-        <item m="1" x="307"/>
-        <item m="1" x="308"/>
-        <item m="1" x="309"/>
-        <item m="1" x="310"/>
-        <item m="1" x="311"/>
-        <item m="1" x="312"/>
-        <item m="1" x="313"/>
-        <item m="1" x="314"/>
-        <item m="1" x="315"/>
-        <item m="1" x="316"/>
-        <item m="1" x="317"/>
-        <item m="1" x="318"/>
-        <item m="1" x="319"/>
-        <item m="1" x="320"/>
-        <item m="1" x="321"/>
-        <item m="1" x="322"/>
-        <item m="1" x="323"/>
-        <item m="1" x="324"/>
-        <item m="1" x="325"/>
-        <item m="1" x="326"/>
-        <item m="1" x="327"/>
-        <item m="1" x="328"/>
-        <item m="1" x="329"/>
-        <item m="1" x="330"/>
-        <item m="1" x="331"/>
-        <item m="1" x="332"/>
-        <item m="1" x="333"/>
-        <item m="1" x="334"/>
-        <item m="1" x="335"/>
-        <item m="1" x="336"/>
-        <item m="1" x="337"/>
-        <item m="1" x="338"/>
-        <item m="1" x="339"/>
-        <item m="1" x="340"/>
-        <item m="1" x="341"/>
-        <item m="1" x="342"/>
-        <item m="1" x="343"/>
-        <item m="1" x="344"/>
-        <item m="1" x="345"/>
-        <item m="1" x="346"/>
-        <item m="1" x="347"/>
-        <item m="1" x="348"/>
-        <item m="1" x="349"/>
-        <item m="1" x="350"/>
-        <item m="1" x="351"/>
-        <item m="1" x="352"/>
-        <item m="1" x="353"/>
-        <item m="1" x="354"/>
-        <item m="1" x="355"/>
-        <item m="1" x="356"/>
-        <item m="1" x="357"/>
-        <item m="1" x="358"/>
-        <item m="1" x="359"/>
-        <item m="1" x="360"/>
-        <item m="1" x="361"/>
-        <item m="1" x="362"/>
-        <item m="1" x="363"/>
-        <item m="1" x="364"/>
-        <item m="1" x="365"/>
-        <item m="1" x="366"/>
-        <item m="1" x="367"/>
-        <item m="1" x="368"/>
-        <item m="1" x="369"/>
-        <item m="1" x="370"/>
-        <item m="1" x="371"/>
-        <item m="1" x="372"/>
-        <item m="1" x="373"/>
-        <item m="1" x="374"/>
-        <item m="1" x="375"/>
-        <item m="1" x="376"/>
-        <item m="1" x="377"/>
-        <item m="1" x="378"/>
-        <item m="1" x="379"/>
-        <item m="1" x="380"/>
-        <item m="1" x="381"/>
-        <item m="1" x="382"/>
-        <item m="1" x="383"/>
-        <item m="1" x="384"/>
-        <item m="1" x="385"/>
-        <item m="1" x="386"/>
-        <item m="1" x="387"/>
-        <item m="1" x="388"/>
-        <item m="1" x="389"/>
-        <item m="1" x="390"/>
-        <item m="1" x="391"/>
-        <item m="1" x="392"/>
-        <item m="1" x="393"/>
-        <item m="1" x="394"/>
-        <item m="1" x="395"/>
-        <item m="1" x="396"/>
-        <item m="1" x="397"/>
-        <item m="1" x="398"/>
-        <item m="1" x="399"/>
-        <item m="1" x="400"/>
-        <item m="1" x="401"/>
-        <item m="1" x="402"/>
-        <item m="1" x="403"/>
-        <item m="1" x="404"/>
-        <item m="1" x="405"/>
-        <item m="1" x="406"/>
-        <item m="1" x="407"/>
-        <item m="1" x="408"/>
-        <item m="1" x="409"/>
-        <item m="1" x="410"/>
-        <item m="1" x="411"/>
-        <item m="1" x="412"/>
-        <item m="1" x="413"/>
-        <item m="1" x="414"/>
-        <item m="1" x="415"/>
-        <item m="1" x="416"/>
-        <item m="1" x="417"/>
-        <item m="1" x="418"/>
-        <item m="1" x="419"/>
-        <item m="1" x="420"/>
-        <item m="1" x="421"/>
-        <item m="1" x="422"/>
-        <item m="1" x="423"/>
-        <item m="1" x="424"/>
-        <item m="1" x="425"/>
-        <item m="1" x="426"/>
-        <item m="1" x="427"/>
-        <item m="1" x="428"/>
-        <item m="1" x="429"/>
-        <item m="1" x="430"/>
-        <item m="1" x="431"/>
-        <item m="1" x="432"/>
-        <item m="1" x="433"/>
-        <item m="1" x="434"/>
-        <item m="1" x="435"/>
-        <item m="1" x="436"/>
-        <item m="1" x="437"/>
-        <item m="1" x="438"/>
-        <item m="1" x="439"/>
-        <item m="1" x="440"/>
-        <item m="1" x="441"/>
-        <item m="1" x="442"/>
-        <item m="1" x="443"/>
-        <item m="1" x="444"/>
-        <item m="1" x="445"/>
-        <item m="1" x="446"/>
-        <item m="1" x="447"/>
-        <item m="1" x="448"/>
-        <item m="1" x="449"/>
-        <item m="1" x="450"/>
-        <item m="1" x="451"/>
-        <item m="1" x="452"/>
-        <item m="1" x="453"/>
-        <item m="1" x="454"/>
-        <item m="1" x="455"/>
-        <item m="1" x="456"/>
-        <item m="1" x="457"/>
-        <item m="1" x="458"/>
-        <item m="1" x="459"/>
-        <item m="1" x="460"/>
-        <item m="1" x="461"/>
-        <item m="1" x="462"/>
-        <item m="1" x="463"/>
-        <item m="1" x="464"/>
-        <item m="1" x="465"/>
-        <item m="1" x="466"/>
-        <item m="1" x="467"/>
-        <item m="1" x="468"/>
-        <item m="1" x="469"/>
-        <item m="1" x="470"/>
-        <item m="1" x="471"/>
-        <item m="1" x="472"/>
-        <item m="1" x="473"/>
-        <item m="1" x="474"/>
-        <item m="1" x="475"/>
-        <item m="1" x="476"/>
-        <item m="1" x="477"/>
-        <item m="1" x="478"/>
-        <item m="1" x="479"/>
-        <item m="1" x="480"/>
-        <item m="1" x="481"/>
-        <item m="1" x="482"/>
-        <item m="1" x="483"/>
-        <item m="1" x="484"/>
-        <item m="1" x="485"/>
-        <item m="1" x="486"/>
-        <item m="1" x="487"/>
-        <item m="1" x="488"/>
-        <item m="1" x="489"/>
-        <item m="1" x="490"/>
-        <item m="1" x="491"/>
-        <item m="1" x="492"/>
-        <item m="1" x="493"/>
-        <item m="1" x="494"/>
-        <item m="1" x="495"/>
-        <item m="1" x="496"/>
-        <item m="1" x="497"/>
-        <item m="1" x="498"/>
-        <item m="1" x="499"/>
-        <item m="1" x="500"/>
-        <item m="1" x="501"/>
-        <item m="1" x="502"/>
-        <item m="1" x="503"/>
-        <item m="1" x="504"/>
-        <item m="1" x="505"/>
-        <item m="1" x="506"/>
-        <item m="1" x="507"/>
-        <item m="1" x="508"/>
-        <item m="1" x="509"/>
-        <item m="1" x="510"/>
-        <item m="1" x="511"/>
-        <item m="1" x="512"/>
-        <item m="1" x="513"/>
-        <item m="1" x="514"/>
-        <item m="1" x="515"/>
-        <item m="1" x="516"/>
-        <item m="1" x="517"/>
-        <item m="1" x="518"/>
-        <item m="1" x="519"/>
-        <item m="1" x="520"/>
-        <item m="1" x="521"/>
-        <item m="1" x="522"/>
-        <item m="1" x="523"/>
-        <item m="1" x="524"/>
-        <item m="1" x="525"/>
-        <item m="1" x="526"/>
-        <item m="1" x="527"/>
-        <item m="1" x="528"/>
-        <item m="1" x="529"/>
-        <item m="1" x="530"/>
-        <item m="1" x="531"/>
-        <item m="1" x="532"/>
-        <item m="1" x="533"/>
-        <item m="1" x="534"/>
-        <item m="1" x="535"/>
-        <item m="1" x="536"/>
-        <item m="1" x="537"/>
-        <item m="1" x="538"/>
-        <item m="1" x="539"/>
-        <item m="1" x="540"/>
-        <item m="1" x="541"/>
-        <item m="1" x="542"/>
-        <item m="1" x="543"/>
-        <item m="1" x="544"/>
-        <item m="1" x="545"/>
-        <item m="1" x="546"/>
-        <item m="1" x="547"/>
-        <item m="1" x="548"/>
-        <item m="1" x="549"/>
-        <item m="1" x="550"/>
-        <item m="1" x="551"/>
-        <item m="1" x="552"/>
-        <item m="1" x="553"/>
-        <item m="1" x="554"/>
-        <item m="1" x="555"/>
-        <item m="1" x="556"/>
-        <item m="1" x="557"/>
-        <item m="1" x="558"/>
-        <item m="1" x="559"/>
-        <item m="1" x="560"/>
-        <item m="1" x="561"/>
-        <item m="1" x="562"/>
-        <item m="1" x="563"/>
-        <item m="1" x="564"/>
-        <item m="1" x="565"/>
-        <item m="1" x="566"/>
-        <item m="1" x="567"/>
-        <item m="1" x="568"/>
-        <item m="1" x="569"/>
-        <item m="1" x="570"/>
-        <item m="1" x="571"/>
-        <item m="1" x="572"/>
-        <item m="1" x="573"/>
-        <item m="1" x="574"/>
-        <item m="1" x="575"/>
-        <item m="1" x="576"/>
-        <item m="1" x="577"/>
-        <item m="1" x="578"/>
-        <item m="1" x="579"/>
-        <item m="1" x="580"/>
-        <item m="1" x="581"/>
-        <item m="1" x="582"/>
-        <item m="1" x="583"/>
-        <item m="1" x="584"/>
-        <item m="1" x="585"/>
-        <item m="1" x="586"/>
-        <item m="1" x="587"/>
+        <item m="1" x="2971"/>
+        <item m="1" x="2972"/>
+        <item m="1" x="2973"/>
+        <item m="1" x="2974"/>
+        <item m="1" x="2975"/>
+        <item m="1" x="2976"/>
+        <item m="1" x="2977"/>
+        <item m="1" x="2978"/>
+        <item m="1" x="2979"/>
+        <item m="1" x="2980"/>
+        <item m="1" x="2981"/>
+        <item m="1" x="2982"/>
+        <item m="1" x="2983"/>
+        <item m="1" x="2984"/>
+        <item m="1" x="2985"/>
+        <item m="1" x="2986"/>
+        <item m="1" x="2987"/>
+        <item m="1" x="2988"/>
+        <item m="1" x="2989"/>
+        <item m="1" x="2990"/>
+        <item m="1" x="2991"/>
+        <item m="1" x="2992"/>
+        <item m="1" x="2993"/>
+        <item m="1" x="2994"/>
+        <item m="1" x="2995"/>
+        <item m="1" x="2996"/>
+        <item m="1" x="2997"/>
+        <item m="1" x="2998"/>
+        <item m="1" x="2999"/>
+        <item m="1" x="3000"/>
+        <item m="1" x="3001"/>
+        <item m="1" x="3002"/>
+        <item m="1" x="3003"/>
+        <item m="1" x="3004"/>
+        <item m="1" x="3005"/>
+        <item m="1" x="3006"/>
+        <item m="1" x="3007"/>
+        <item m="1" x="3008"/>
+        <item m="1" x="3009"/>
+        <item m="1" x="3010"/>
+        <item m="1" x="3011"/>
+        <item m="1" x="3012"/>
+        <item m="1" x="3013"/>
+        <item m="1" x="3014"/>
+        <item m="1" x="3015"/>
+        <item m="1" x="3016"/>
+        <item m="1" x="3017"/>
+        <item m="1" x="3018"/>
+        <item m="1" x="3019"/>
+        <item m="1" x="3020"/>
+        <item m="1" x="3021"/>
+        <item m="1" x="3022"/>
+        <item m="1" x="3023"/>
+        <item m="1" x="3024"/>
+        <item m="1" x="3025"/>
+        <item m="1" x="3026"/>
+        <item m="1" x="3027"/>
+        <item m="1" x="3028"/>
+        <item m="1" x="3029"/>
+        <item m="1" x="3030"/>
+        <item m="1" x="3031"/>
+        <item m="1" x="3032"/>
+        <item m="1" x="3033"/>
+        <item m="1" x="3034"/>
+        <item m="1" x="3035"/>
+        <item m="1" x="3036"/>
+        <item m="1" x="3037"/>
+        <item m="1" x="3038"/>
+        <item m="1" x="3039"/>
+        <item m="1" x="3040"/>
+        <item m="1" x="3041"/>
+        <item m="1" x="3042"/>
+        <item m="1" x="3043"/>
+        <item m="1" x="3044"/>
+        <item m="1" x="3045"/>
+        <item m="1" x="3046"/>
+        <item m="1" x="3047"/>
+        <item m="1" x="3048"/>
+        <item m="1" x="3049"/>
+        <item m="1" x="3050"/>
+        <item m="1" x="3051"/>
+        <item m="1" x="3052"/>
+        <item m="1" x="3053"/>
+        <item m="1" x="3054"/>
+        <item m="1" x="3055"/>
+        <item m="1" x="3056"/>
+        <item m="1" x="3057"/>
+        <item m="1" x="3058"/>
+        <item m="1" x="3059"/>
+        <item m="1" x="3060"/>
+        <item m="1" x="3061"/>
+        <item m="1" x="3062"/>
+        <item m="1" x="3063"/>
+        <item m="1" x="3064"/>
+        <item m="1" x="3065"/>
+        <item m="1" x="3066"/>
+        <item m="1" x="3067"/>
+        <item m="1" x="3068"/>
+        <item m="1" x="3069"/>
+        <item m="1" x="3070"/>
+        <item m="1" x="3071"/>
+        <item m="1" x="3072"/>
+        <item m="1" x="3073"/>
+        <item m="1" x="3074"/>
+        <item m="1" x="3075"/>
+        <item m="1" x="3076"/>
+        <item m="1" x="3077"/>
+        <item m="1" x="3078"/>
+        <item m="1" x="3079"/>
+        <item m="1" x="3080"/>
+        <item m="1" x="3081"/>
+        <item m="1" x="3082"/>
+        <item m="1" x="3083"/>
+        <item m="1" x="3084"/>
+        <item m="1" x="3085"/>
+        <item m="1" x="3086"/>
+        <item m="1" x="3087"/>
+        <item m="1" x="3088"/>
+        <item m="1" x="3089"/>
+        <item m="1" x="3090"/>
+        <item m="1" x="3091"/>
+        <item m="1" x="3092"/>
+        <item m="1" x="3093"/>
+        <item m="1" x="3094"/>
+        <item m="1" x="3095"/>
+        <item m="1" x="3096"/>
+        <item m="1" x="3097"/>
+        <item m="1" x="3098"/>
+        <item m="1" x="3099"/>
+        <item m="1" x="3100"/>
+        <item m="1" x="3101"/>
+        <item m="1" x="3102"/>
+        <item m="1" x="3103"/>
+        <item m="1" x="3104"/>
+        <item m="1" x="3105"/>
+        <item m="1" x="3106"/>
+        <item m="1" x="3107"/>
+        <item m="1" x="3108"/>
+        <item m="1" x="3109"/>
+        <item m="1" x="3110"/>
+        <item m="1" x="3111"/>
+        <item m="1" x="3112"/>
+        <item m="1" x="3113"/>
+        <item m="1" x="3114"/>
+        <item m="1" x="3115"/>
+        <item m="1" x="3116"/>
+        <item m="1" x="3117"/>
+        <item m="1" x="3118"/>
+        <item m="1" x="3119"/>
+        <item m="1" x="3120"/>
+        <item m="1" x="3121"/>
+        <item m="1" x="3122"/>
+        <item m="1" x="3123"/>
+        <item m="1" x="3124"/>
+        <item m="1" x="3125"/>
+        <item m="1" x="3126"/>
+        <item m="1" x="3127"/>
+        <item m="1" x="3128"/>
+        <item m="1" x="3129"/>
+        <item m="1" x="3130"/>
+        <item m="1" x="3131"/>
+        <item m="1" x="3132"/>
+        <item m="1" x="3133"/>
+        <item m="1" x="3134"/>
+        <item m="1" x="3135"/>
+        <item m="1" x="3136"/>
+        <item m="1" x="3137"/>
+        <item m="1" x="3138"/>
+        <item m="1" x="3139"/>
+        <item m="1" x="3140"/>
+        <item m="1" x="3141"/>
+        <item m="1" x="3142"/>
+        <item m="1" x="3143"/>
+        <item m="1" x="3144"/>
+        <item m="1" x="3145"/>
+        <item m="1" x="3146"/>
+        <item m="1" x="3147"/>
+        <item m="1" x="3148"/>
+        <item m="1" x="3149"/>
+        <item m="1" x="3150"/>
+        <item m="1" x="3151"/>
+        <item m="1" x="3152"/>
+        <item m="1" x="3153"/>
+        <item m="1" x="3154"/>
+        <item m="1" x="3155"/>
+        <item m="1" x="3156"/>
+        <item m="1" x="3157"/>
+        <item m="1" x="3158"/>
+        <item m="1" x="3159"/>
+        <item m="1" x="3160"/>
+        <item m="1" x="3161"/>
+        <item m="1" x="3162"/>
+        <item m="1" x="3163"/>
+        <item m="1" x="3164"/>
+        <item m="1" x="3165"/>
+        <item m="1" x="3166"/>
+        <item m="1" x="3167"/>
+        <item m="1" x="3168"/>
+        <item m="1" x="3169"/>
+        <item m="1" x="3170"/>
+        <item m="1" x="3171"/>
+        <item m="1" x="3172"/>
+        <item m="1" x="3173"/>
+        <item m="1" x="3174"/>
+        <item m="1" x="3175"/>
+        <item m="1" x="3176"/>
+        <item m="1" x="3177"/>
+        <item m="1" x="3178"/>
+        <item m="1" x="3179"/>
+        <item m="1" x="3180"/>
+        <item m="1" x="3181"/>
+        <item m="1" x="3182"/>
+        <item m="1" x="3183"/>
+        <item m="1" x="3184"/>
+        <item m="1" x="3185"/>
+        <item m="1" x="3186"/>
+        <item m="1" x="3187"/>
+        <item m="1" x="3188"/>
+        <item m="1" x="3189"/>
+        <item m="1" x="3190"/>
+        <item m="1" x="3191"/>
+        <item m="1" x="3192"/>
+        <item m="1" x="3193"/>
+        <item m="1" x="3194"/>
+        <item m="1" x="3195"/>
+        <item m="1" x="3196"/>
+        <item m="1" x="3197"/>
+        <item m="1" x="3198"/>
+        <item m="1" x="3199"/>
+        <item m="1" x="3200"/>
+        <item m="1" x="3201"/>
+        <item m="1" x="3202"/>
+        <item m="1" x="3203"/>
+        <item m="1" x="3204"/>
+        <item m="1" x="3205"/>
+        <item m="1" x="3206"/>
+        <item m="1" x="3207"/>
+        <item m="1" x="3208"/>
+        <item m="1" x="3209"/>
+        <item m="1" x="3210"/>
+        <item m="1" x="3211"/>
+        <item m="1" x="3212"/>
+        <item m="1" x="3213"/>
+        <item m="1" x="3214"/>
+        <item m="1" x="3215"/>
+        <item m="1" x="3216"/>
+        <item m="1" x="3217"/>
+        <item m="1" x="3218"/>
+        <item m="1" x="3219"/>
+        <item m="1" x="3220"/>
+        <item m="1" x="3221"/>
+        <item m="1" x="3222"/>
+        <item m="1" x="3223"/>
+        <item m="1" x="3224"/>
+        <item m="1" x="3225"/>
+        <item m="1" x="3226"/>
+        <item m="1" x="3227"/>
+        <item m="1" x="3228"/>
+        <item m="1" x="3229"/>
+        <item m="1" x="3230"/>
+        <item m="1" x="3231"/>
+        <item m="1" x="3232"/>
+        <item m="1" x="3233"/>
+        <item m="1" x="3234"/>
+        <item m="1" x="3235"/>
+        <item m="1" x="3236"/>
+        <item m="1" x="3237"/>
+        <item m="1" x="3238"/>
+        <item m="1" x="3239"/>
+        <item m="1" x="3240"/>
+        <item m="1" x="3241"/>
+        <item m="1" x="3242"/>
+        <item m="1" x="3243"/>
+        <item m="1" x="3244"/>
+        <item m="1" x="3245"/>
+        <item m="1" x="3246"/>
+        <item m="1" x="3247"/>
+        <item m="1" x="3248"/>
+        <item m="1" x="3249"/>
+        <item m="1" x="3250"/>
+        <item m="1" x="3251"/>
+        <item m="1" x="3252"/>
+        <item m="1" x="3253"/>
+        <item m="1" x="3254"/>
+        <item m="1" x="3255"/>
+        <item m="1" x="3256"/>
+        <item m="1" x="3257"/>
+        <item m="1" x="3258"/>
+        <item m="1" x="3259"/>
+        <item m="1" x="3260"/>
+        <item m="1" x="3261"/>
+        <item m="1" x="3262"/>
+        <item m="1" x="3263"/>
+        <item m="1" x="3264"/>
+        <item m="1" x="3265"/>
+        <item m="1" x="3266"/>
+        <item m="1" x="3267"/>
+        <item m="1" x="3268"/>
+        <item m="1" x="3269"/>
+        <item m="1" x="3270"/>
+        <item m="1" x="3271"/>
+        <item m="1" x="3272"/>
+        <item m="1" x="3273"/>
+        <item m="1" x="3274"/>
+        <item m="1" x="3275"/>
+        <item m="1" x="3276"/>
+        <item m="1" x="3277"/>
+        <item m="1" x="3278"/>
+        <item m="1" x="3279"/>
+        <item m="1" x="3280"/>
+        <item m="1" x="3281"/>
+        <item m="1" x="3282"/>
+        <item m="1" x="3283"/>
+        <item m="1" x="3284"/>
+        <item m="1" x="3285"/>
+        <item m="1" x="3286"/>
+        <item m="1" x="3287"/>
+        <item m="1" x="3288"/>
+        <item m="1" x="3289"/>
+        <item m="1" x="3290"/>
+        <item m="1" x="3291"/>
+        <item m="1" x="3292"/>
+        <item m="1" x="3293"/>
+        <item m="1" x="3294"/>
+        <item m="1" x="3295"/>
+        <item m="1" x="3296"/>
+        <item m="1" x="3297"/>
+        <item m="1" x="3298"/>
+        <item m="1" x="3299"/>
+        <item m="1" x="3300"/>
+        <item m="1" x="3301"/>
+        <item m="1" x="3302"/>
+        <item m="1" x="3303"/>
+        <item m="1" x="3304"/>
+        <item m="1" x="3305"/>
+        <item m="1" x="3306"/>
+        <item m="1" x="3307"/>
+        <item m="1" x="3308"/>
+        <item m="1" x="3309"/>
+        <item m="1" x="3310"/>
+        <item m="1" x="3311"/>
+        <item m="1" x="3312"/>
+        <item m="1" x="3313"/>
+        <item m="1" x="3314"/>
+        <item m="1" x="3315"/>
+        <item m="1" x="3316"/>
+        <item m="1" x="3317"/>
+        <item m="1" x="3318"/>
+        <item m="1" x="3319"/>
+        <item m="1" x="3320"/>
+        <item m="1" x="3321"/>
+        <item m="1" x="3322"/>
+        <item m="1" x="3323"/>
+        <item m="1" x="3324"/>
+        <item m="1" x="3325"/>
+        <item m="1" x="3326"/>
+        <item m="1" x="3327"/>
+        <item m="1" x="3328"/>
+        <item m="1" x="3329"/>
+        <item m="1" x="3330"/>
+        <item m="1" x="3331"/>
+        <item m="1" x="3332"/>
+        <item m="1" x="3333"/>
+        <item m="1" x="3334"/>
+        <item m="1" x="3335"/>
+        <item m="1" x="3336"/>
+        <item m="1" x="3337"/>
+        <item m="1" x="3338"/>
+        <item m="1" x="3339"/>
+        <item m="1" x="3340"/>
+        <item m="1" x="3341"/>
+        <item m="1" x="3342"/>
+        <item m="1" x="3343"/>
+        <item m="1" x="3344"/>
+        <item m="1" x="3345"/>
+        <item m="1" x="3346"/>
+        <item m="1" x="3347"/>
+        <item m="1" x="3348"/>
+        <item m="1" x="3349"/>
+        <item m="1" x="3350"/>
+        <item m="1" x="3351"/>
+        <item m="1" x="3352"/>
+        <item m="1" x="3353"/>
+        <item m="1" x="3354"/>
+        <item m="1" x="3355"/>
+        <item m="1" x="3356"/>
+        <item m="1" x="3357"/>
+        <item m="1" x="3358"/>
+        <item m="1" x="3359"/>
+        <item m="1" x="3360"/>
+        <item m="1" x="3361"/>
+        <item m="1" x="3362"/>
+        <item m="1" x="3363"/>
+        <item m="1" x="3364"/>
+        <item m="1" x="3365"/>
+        <item m="1" x="3366"/>
+        <item m="1" x="3367"/>
+        <item m="1" x="3368"/>
+        <item m="1" x="3369"/>
+        <item m="1" x="3370"/>
+        <item m="1" x="3371"/>
+        <item m="1" x="3372"/>
+        <item m="1" x="3373"/>
+        <item m="1" x="3374"/>
+        <item m="1" x="3375"/>
+        <item m="1" x="3376"/>
+        <item m="1" x="3377"/>
+        <item m="1" x="3378"/>
+        <item m="1" x="3379"/>
+        <item m="1" x="3380"/>
+        <item m="1" x="3381"/>
+        <item m="1" x="3382"/>
+        <item m="1" x="3383"/>
+        <item m="1" x="3384"/>
+        <item m="1" x="3385"/>
+        <item m="1" x="3386"/>
+        <item m="1" x="3387"/>
+        <item m="1" x="3388"/>
+        <item m="1" x="3389"/>
+        <item m="1" x="3390"/>
+        <item m="1" x="3391"/>
+        <item m="1" x="3392"/>
+        <item m="1" x="3393"/>
+        <item m="1" x="3394"/>
+        <item m="1" x="3395"/>
+        <item m="1" x="3396"/>
+        <item m="1" x="3397"/>
+        <item m="1" x="3398"/>
+        <item m="1" x="3399"/>
+        <item m="1" x="3400"/>
+        <item m="1" x="3401"/>
+        <item m="1" x="3402"/>
+        <item m="1" x="3403"/>
+        <item m="1" x="3404"/>
+        <item m="1" x="3405"/>
+        <item m="1" x="3406"/>
+        <item m="1" x="3407"/>
+        <item m="1" x="3408"/>
+        <item m="1" x="3409"/>
+        <item m="1" x="3410"/>
+        <item m="1" x="3411"/>
+        <item m="1" x="3412"/>
+        <item m="1" x="3413"/>
+        <item m="1" x="3414"/>
+        <item m="1" x="3415"/>
+        <item m="1" x="3416"/>
+        <item m="1" x="3417"/>
+        <item m="1" x="3418"/>
+        <item m="1" x="3419"/>
+        <item m="1" x="3420"/>
+        <item m="1" x="3421"/>
+        <item m="1" x="3422"/>
+        <item m="1" x="3423"/>
+        <item m="1" x="3424"/>
+        <item m="1" x="3425"/>
+        <item m="1" x="3426"/>
+        <item m="1" x="3427"/>
+        <item m="1" x="3428"/>
+        <item m="1" x="3429"/>
+        <item m="1" x="3430"/>
+        <item m="1" x="3431"/>
+        <item m="1" x="3432"/>
+        <item m="1" x="3433"/>
+        <item m="1" x="3434"/>
+        <item m="1" x="3435"/>
+        <item m="1" x="3436"/>
+        <item m="1" x="3437"/>
+        <item m="1" x="3438"/>
+        <item m="1" x="3439"/>
+        <item m="1" x="3440"/>
+        <item m="1" x="3441"/>
+        <item m="1" x="3442"/>
+        <item m="1" x="3443"/>
+        <item m="1" x="3444"/>
+        <item m="1" x="3445"/>
+        <item m="1" x="3446"/>
+        <item m="1" x="3447"/>
+        <item m="1" x="3448"/>
+        <item m="1" x="3449"/>
+        <item m="1" x="3450"/>
+        <item m="1" x="3451"/>
+        <item m="1" x="3452"/>
+        <item m="1" x="3453"/>
+        <item m="1" x="3454"/>
+        <item m="1" x="3455"/>
+        <item m="1" x="3456"/>
+        <item m="1" x="3457"/>
+        <item m="1" x="3458"/>
+        <item m="1" x="3459"/>
+        <item m="1" x="3460"/>
+        <item m="1" x="3461"/>
+        <item m="1" x="3462"/>
+        <item m="1" x="3463"/>
+        <item m="1" x="3464"/>
+        <item m="1" x="3465"/>
+        <item m="1" x="3466"/>
+        <item m="1" x="3467"/>
+        <item m="1" x="3468"/>
+        <item m="1" x="3469"/>
+        <item m="1" x="3470"/>
+        <item m="1" x="3471"/>
+        <item m="1" x="3472"/>
+        <item m="1" x="3473"/>
+        <item m="1" x="3474"/>
+        <item m="1" x="3475"/>
+        <item m="1" x="3476"/>
+        <item m="1" x="3477"/>
+        <item m="1" x="3478"/>
+        <item m="1" x="3479"/>
+        <item m="1" x="3480"/>
+        <item m="1" x="3481"/>
+        <item m="1" x="3482"/>
+        <item m="1" x="3483"/>
+        <item m="1" x="3484"/>
+        <item m="1" x="3485"/>
+        <item m="1" x="3486"/>
+        <item m="1" x="3487"/>
+        <item m="1" x="3488"/>
+        <item m="1" x="3489"/>
+        <item m="1" x="3490"/>
+        <item m="1" x="3491"/>
+        <item m="1" x="3492"/>
+        <item m="1" x="3493"/>
+        <item m="1" x="3494"/>
+        <item m="1" x="3495"/>
+        <item m="1" x="3496"/>
+        <item m="1" x="3497"/>
+        <item m="1" x="3498"/>
+        <item m="1" x="3499"/>
+        <item m="1" x="3500"/>
+        <item m="1" x="3501"/>
+        <item m="1" x="3502"/>
+        <item m="1" x="3503"/>
+        <item m="1" x="3504"/>
+        <item m="1" x="3505"/>
+        <item m="1" x="3506"/>
+        <item m="1" x="3507"/>
+        <item m="1" x="3508"/>
+        <item m="1" x="3509"/>
+        <item m="1" x="2028"/>
+        <item m="1" x="2029"/>
+        <item m="1" x="2030"/>
+        <item m="1" x="2031"/>
+        <item m="1" x="2032"/>
+        <item m="1" x="2033"/>
+        <item m="1" x="2034"/>
+        <item m="1" x="2035"/>
+        <item m="1" x="2036"/>
+        <item m="1" x="2037"/>
+        <item m="1" x="2038"/>
+        <item m="1" x="2039"/>
+        <item m="1" x="2040"/>
+        <item m="1" x="2041"/>
+        <item m="1" x="2042"/>
+        <item m="1" x="2043"/>
+        <item m="1" x="2044"/>
+        <item m="1" x="2045"/>
+        <item m="1" x="2046"/>
+        <item m="1" x="2047"/>
+        <item m="1" x="2048"/>
+        <item m="1" x="2049"/>
+        <item m="1" x="2050"/>
+        <item m="1" x="2051"/>
+        <item m="1" x="2052"/>
+        <item m="1" x="2053"/>
+        <item m="1" x="2054"/>
+        <item m="1" x="2055"/>
+        <item m="1" x="2056"/>
+        <item m="1" x="2057"/>
+        <item m="1" x="2058"/>
+        <item m="1" x="2059"/>
+        <item m="1" x="2060"/>
+        <item m="1" x="2061"/>
+        <item m="1" x="2062"/>
+        <item m="1" x="2063"/>
+        <item m="1" x="2064"/>
+        <item m="1" x="2065"/>
+        <item m="1" x="2066"/>
+        <item m="1" x="2067"/>
+        <item m="1" x="2068"/>
+        <item m="1" x="2069"/>
+        <item m="1" x="2070"/>
+        <item m="1" x="2071"/>
+        <item m="1" x="2072"/>
+        <item m="1" x="2073"/>
+        <item m="1" x="2074"/>
+        <item m="1" x="2075"/>
+        <item m="1" x="2076"/>
+        <item m="1" x="2077"/>
+        <item m="1" x="2078"/>
+        <item m="1" x="2079"/>
+        <item m="1" x="2080"/>
+        <item m="1" x="2081"/>
+        <item m="1" x="2082"/>
+        <item m="1" x="2083"/>
+        <item m="1" x="2084"/>
+        <item m="1" x="2085"/>
+        <item m="1" x="2086"/>
+        <item m="1" x="2087"/>
         <item m="1" x="588"/>
         <item m="1" x="589"/>
         <item m="1" x="590"/>
@@ -13753,370 +9689,6 @@
         <item m="1" x="1486"/>
         <item m="1" x="1487"/>
         <item m="1" x="1488"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item m="1" x="32"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="45"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2970"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of cpu_pct" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68B17D1C-59AA-4BF3-88FC-7EF3BD28DCA1}" name="PivotTable3" cacheId="781" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A1:E6" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" numFmtId="164" showAll="0">
-      <items count="2449">
-        <item m="1" x="1235"/>
-        <item m="1" x="1236"/>
-        <item m="1" x="1237"/>
-        <item m="1" x="1238"/>
-        <item m="1" x="1239"/>
-        <item m="1" x="1240"/>
-        <item m="1" x="1241"/>
-        <item m="1" x="1242"/>
-        <item m="1" x="1243"/>
-        <item m="1" x="1244"/>
-        <item m="1" x="1245"/>
-        <item m="1" x="1246"/>
-        <item m="1" x="1247"/>
-        <item m="1" x="1248"/>
-        <item m="1" x="1249"/>
-        <item m="1" x="1250"/>
-        <item m="1" x="1251"/>
-        <item m="1" x="1252"/>
-        <item m="1" x="1253"/>
-        <item m="1" x="1254"/>
-        <item m="1" x="1255"/>
-        <item m="1" x="1256"/>
-        <item m="1" x="1257"/>
-        <item m="1" x="1258"/>
-        <item m="1" x="1259"/>
-        <item m="1" x="1260"/>
-        <item m="1" x="1261"/>
-        <item m="1" x="1262"/>
-        <item m="1" x="1263"/>
-        <item m="1" x="1264"/>
-        <item m="1" x="1265"/>
-        <item m="1" x="1266"/>
-        <item m="1" x="1267"/>
-        <item m="1" x="1268"/>
-        <item m="1" x="1269"/>
-        <item m="1" x="1270"/>
-        <item m="1" x="1271"/>
-        <item m="1" x="1272"/>
-        <item m="1" x="1273"/>
-        <item m="1" x="1274"/>
-        <item m="1" x="1275"/>
-        <item m="1" x="1276"/>
-        <item m="1" x="1277"/>
-        <item m="1" x="1278"/>
-        <item m="1" x="1279"/>
-        <item m="1" x="1280"/>
-        <item m="1" x="1281"/>
-        <item m="1" x="1282"/>
-        <item m="1" x="1283"/>
-        <item m="1" x="1284"/>
-        <item m="1" x="1285"/>
-        <item m="1" x="1286"/>
-        <item m="1" x="1287"/>
-        <item m="1" x="1288"/>
-        <item m="1" x="1289"/>
-        <item m="1" x="1290"/>
-        <item m="1" x="1291"/>
-        <item m="1" x="1292"/>
-        <item m="1" x="1293"/>
-        <item m="1" x="1294"/>
-        <item m="1" x="1295"/>
-        <item m="1" x="1296"/>
-        <item m="1" x="1297"/>
-        <item m="1" x="1298"/>
-        <item m="1" x="1299"/>
-        <item m="1" x="1300"/>
-        <item m="1" x="1301"/>
-        <item m="1" x="1302"/>
-        <item m="1" x="1303"/>
-        <item m="1" x="1304"/>
-        <item m="1" x="1305"/>
-        <item m="1" x="1306"/>
-        <item m="1" x="1307"/>
-        <item m="1" x="1308"/>
-        <item m="1" x="1309"/>
-        <item m="1" x="1310"/>
-        <item m="1" x="1311"/>
-        <item m="1" x="1312"/>
-        <item m="1" x="1313"/>
-        <item m="1" x="1314"/>
-        <item m="1" x="1315"/>
-        <item m="1" x="1316"/>
-        <item m="1" x="1317"/>
-        <item m="1" x="1318"/>
-        <item m="1" x="1319"/>
-        <item m="1" x="1320"/>
-        <item m="1" x="1321"/>
-        <item m="1" x="1322"/>
-        <item m="1" x="1323"/>
-        <item m="1" x="1324"/>
-        <item m="1" x="1325"/>
-        <item m="1" x="1326"/>
-        <item m="1" x="1327"/>
-        <item m="1" x="1328"/>
-        <item m="1" x="1329"/>
-        <item m="1" x="1330"/>
-        <item m="1" x="1331"/>
-        <item m="1" x="1332"/>
-        <item m="1" x="1333"/>
-        <item m="1" x="1334"/>
-        <item m="1" x="1335"/>
-        <item m="1" x="1336"/>
-        <item m="1" x="1337"/>
-        <item m="1" x="1338"/>
-        <item m="1" x="1339"/>
-        <item m="1" x="1340"/>
-        <item m="1" x="1341"/>
-        <item m="1" x="1342"/>
-        <item m="1" x="1343"/>
-        <item m="1" x="1344"/>
-        <item m="1" x="1345"/>
-        <item m="1" x="1346"/>
-        <item m="1" x="1347"/>
-        <item m="1" x="1348"/>
-        <item m="1" x="1349"/>
-        <item m="1" x="1350"/>
-        <item m="1" x="1351"/>
-        <item m="1" x="1352"/>
-        <item m="1" x="1353"/>
-        <item m="1" x="1354"/>
-        <item m="1" x="1355"/>
-        <item m="1" x="1356"/>
-        <item m="1" x="1357"/>
-        <item m="1" x="1358"/>
-        <item m="1" x="1359"/>
-        <item m="1" x="1360"/>
-        <item m="1" x="1361"/>
-        <item m="1" x="1362"/>
-        <item m="1" x="1363"/>
-        <item m="1" x="1364"/>
-        <item m="1" x="1365"/>
-        <item m="1" x="1366"/>
-        <item m="1" x="1367"/>
-        <item m="1" x="1368"/>
-        <item m="1" x="1369"/>
-        <item m="1" x="1370"/>
-        <item m="1" x="1371"/>
-        <item m="1" x="1372"/>
-        <item m="1" x="1373"/>
-        <item m="1" x="1374"/>
-        <item m="1" x="1375"/>
-        <item m="1" x="1376"/>
-        <item m="1" x="1377"/>
-        <item m="1" x="1378"/>
-        <item m="1" x="1379"/>
-        <item m="1" x="1380"/>
-        <item m="1" x="1381"/>
-        <item m="1" x="1382"/>
-        <item m="1" x="1383"/>
-        <item m="1" x="1384"/>
-        <item m="1" x="1385"/>
-        <item m="1" x="1386"/>
-        <item m="1" x="1387"/>
-        <item m="1" x="1388"/>
-        <item m="1" x="1389"/>
-        <item m="1" x="1390"/>
-        <item m="1" x="1391"/>
-        <item m="1" x="1392"/>
-        <item m="1" x="1393"/>
-        <item m="1" x="1394"/>
-        <item m="1" x="1395"/>
-        <item m="1" x="1396"/>
-        <item m="1" x="1397"/>
-        <item m="1" x="1398"/>
-        <item m="1" x="1399"/>
-        <item m="1" x="1400"/>
-        <item m="1" x="1401"/>
-        <item m="1" x="1402"/>
-        <item m="1" x="1403"/>
-        <item m="1" x="1404"/>
-        <item m="1" x="1405"/>
-        <item m="1" x="1406"/>
-        <item m="1" x="1407"/>
-        <item m="1" x="1408"/>
-        <item m="1" x="1409"/>
-        <item m="1" x="1410"/>
-        <item m="1" x="1411"/>
-        <item m="1" x="1412"/>
-        <item m="1" x="1413"/>
-        <item m="1" x="1414"/>
-        <item m="1" x="1415"/>
-        <item m="1" x="1416"/>
-        <item m="1" x="1417"/>
-        <item m="1" x="1418"/>
-        <item m="1" x="1419"/>
-        <item m="1" x="1420"/>
-        <item m="1" x="1421"/>
-        <item m="1" x="1422"/>
-        <item m="1" x="1423"/>
-        <item m="1" x="1424"/>
-        <item m="1" x="1425"/>
-        <item m="1" x="1426"/>
-        <item m="1" x="1427"/>
-        <item m="1" x="1428"/>
-        <item m="1" x="1429"/>
-        <item m="1" x="1430"/>
-        <item m="1" x="1431"/>
-        <item m="1" x="1432"/>
-        <item m="1" x="1433"/>
-        <item m="1" x="1434"/>
-        <item m="1" x="1435"/>
-        <item m="1" x="1436"/>
-        <item m="1" x="1437"/>
-        <item m="1" x="1438"/>
-        <item m="1" x="1439"/>
-        <item m="1" x="1440"/>
-        <item m="1" x="1441"/>
-        <item m="1" x="1442"/>
-        <item m="1" x="1443"/>
-        <item m="1" x="1444"/>
-        <item m="1" x="1445"/>
-        <item m="1" x="1446"/>
-        <item m="1" x="1447"/>
-        <item m="1" x="1448"/>
-        <item m="1" x="1449"/>
-        <item m="1" x="1450"/>
-        <item m="1" x="1451"/>
-        <item m="1" x="1452"/>
-        <item m="1" x="1453"/>
-        <item m="1" x="1454"/>
-        <item m="1" x="1455"/>
-        <item m="1" x="1456"/>
-        <item m="1" x="1457"/>
-        <item m="1" x="1458"/>
-        <item m="1" x="1459"/>
-        <item m="1" x="1460"/>
-        <item m="1" x="1461"/>
-        <item m="1" x="1462"/>
-        <item m="1" x="1463"/>
-        <item m="1" x="1464"/>
-        <item m="1" x="1465"/>
-        <item m="1" x="1466"/>
-        <item m="1" x="1467"/>
-        <item m="1" x="1468"/>
-        <item m="1" x="1469"/>
-        <item m="1" x="1470"/>
-        <item m="1" x="1471"/>
-        <item m="1" x="1472"/>
-        <item m="1" x="1473"/>
-        <item m="1" x="1474"/>
-        <item m="1" x="1475"/>
-        <item m="1" x="1476"/>
-        <item m="1" x="1477"/>
-        <item m="1" x="1478"/>
-        <item m="1" x="1479"/>
-        <item m="1" x="1480"/>
-        <item m="1" x="1481"/>
-        <item m="1" x="1482"/>
-        <item m="1" x="1483"/>
-        <item m="1" x="1484"/>
-        <item m="1" x="1485"/>
-        <item m="1" x="1486"/>
-        <item m="1" x="1487"/>
-        <item m="1" x="1488"/>
         <item m="1" x="1489"/>
         <item m="1" x="1490"/>
         <item m="1" x="1491"/>
@@ -14656,486 +10228,99 @@
         <item m="1" x="2025"/>
         <item m="1" x="2026"/>
         <item m="1" x="2027"/>
-        <item m="1" x="2028"/>
-        <item m="1" x="2029"/>
-        <item m="1" x="2030"/>
-        <item m="1" x="2031"/>
-        <item m="1" x="2032"/>
-        <item m="1" x="2033"/>
-        <item m="1" x="2034"/>
-        <item m="1" x="2035"/>
-        <item m="1" x="2036"/>
-        <item m="1" x="2037"/>
-        <item m="1" x="2038"/>
-        <item m="1" x="2039"/>
-        <item m="1" x="2040"/>
-        <item m="1" x="2041"/>
-        <item m="1" x="2042"/>
-        <item m="1" x="2043"/>
-        <item m="1" x="2044"/>
-        <item m="1" x="2045"/>
-        <item m="1" x="2046"/>
-        <item m="1" x="2047"/>
-        <item m="1" x="2048"/>
-        <item m="1" x="2049"/>
-        <item m="1" x="2050"/>
-        <item m="1" x="2051"/>
-        <item m="1" x="2052"/>
-        <item m="1" x="2053"/>
-        <item m="1" x="2054"/>
-        <item m="1" x="2055"/>
-        <item m="1" x="2056"/>
-        <item m="1" x="2057"/>
-        <item m="1" x="2058"/>
-        <item m="1" x="2059"/>
-        <item m="1" x="2060"/>
-        <item m="1" x="2061"/>
-        <item m="1" x="2062"/>
-        <item m="1" x="2063"/>
-        <item m="1" x="2064"/>
-        <item m="1" x="2065"/>
-        <item m="1" x="2066"/>
-        <item m="1" x="2067"/>
-        <item m="1" x="2068"/>
-        <item m="1" x="2069"/>
-        <item m="1" x="2070"/>
-        <item m="1" x="2071"/>
-        <item m="1" x="2072"/>
-        <item m="1" x="2073"/>
-        <item m="1" x="2074"/>
-        <item m="1" x="2075"/>
-        <item m="1" x="2076"/>
-        <item m="1" x="2077"/>
-        <item m="1" x="2078"/>
-        <item m="1" x="2079"/>
-        <item m="1" x="2080"/>
-        <item m="1" x="2081"/>
-        <item m="1" x="2082"/>
-        <item m="1" x="2083"/>
-        <item m="1" x="2084"/>
-        <item m="1" x="2085"/>
-        <item m="1" x="2086"/>
-        <item m="1" x="2087"/>
-        <item m="1" x="2088"/>
-        <item m="1" x="2089"/>
-        <item m="1" x="2090"/>
-        <item m="1" x="2091"/>
-        <item m="1" x="2092"/>
-        <item m="1" x="2093"/>
-        <item m="1" x="2094"/>
-        <item m="1" x="2095"/>
-        <item m="1" x="2096"/>
-        <item m="1" x="2097"/>
-        <item m="1" x="2098"/>
-        <item m="1" x="2099"/>
-        <item m="1" x="2100"/>
-        <item m="1" x="2101"/>
-        <item m="1" x="2102"/>
-        <item m="1" x="2103"/>
-        <item m="1" x="2104"/>
-        <item m="1" x="2105"/>
-        <item m="1" x="2106"/>
-        <item m="1" x="2107"/>
-        <item m="1" x="2108"/>
-        <item m="1" x="2109"/>
-        <item m="1" x="2110"/>
-        <item m="1" x="2111"/>
-        <item m="1" x="2112"/>
-        <item m="1" x="2113"/>
-        <item m="1" x="2114"/>
-        <item m="1" x="2115"/>
-        <item m="1" x="2116"/>
-        <item m="1" x="2117"/>
-        <item m="1" x="2118"/>
-        <item m="1" x="2119"/>
-        <item m="1" x="2120"/>
-        <item m="1" x="2121"/>
-        <item m="1" x="2122"/>
-        <item m="1" x="2123"/>
-        <item m="1" x="2124"/>
-        <item m="1" x="2125"/>
-        <item m="1" x="2126"/>
-        <item m="1" x="2127"/>
-        <item m="1" x="2128"/>
-        <item m="1" x="2129"/>
-        <item m="1" x="2130"/>
-        <item m="1" x="2131"/>
-        <item m="1" x="2132"/>
-        <item m="1" x="2133"/>
-        <item m="1" x="2134"/>
-        <item m="1" x="2135"/>
-        <item m="1" x="2136"/>
-        <item m="1" x="2137"/>
-        <item m="1" x="2138"/>
-        <item m="1" x="2139"/>
-        <item m="1" x="2140"/>
-        <item m="1" x="2141"/>
-        <item m="1" x="2142"/>
-        <item m="1" x="2143"/>
-        <item m="1" x="2144"/>
-        <item m="1" x="2145"/>
-        <item m="1" x="2146"/>
-        <item m="1" x="2147"/>
-        <item m="1" x="2148"/>
-        <item m="1" x="2149"/>
-        <item m="1" x="2150"/>
-        <item m="1" x="2151"/>
-        <item m="1" x="2152"/>
-        <item m="1" x="2153"/>
-        <item m="1" x="2154"/>
-        <item m="1" x="2155"/>
-        <item m="1" x="2156"/>
-        <item m="1" x="2157"/>
-        <item m="1" x="2158"/>
-        <item m="1" x="2159"/>
-        <item m="1" x="2160"/>
-        <item m="1" x="2161"/>
-        <item m="1" x="2162"/>
-        <item m="1" x="2163"/>
-        <item m="1" x="2164"/>
-        <item m="1" x="2165"/>
-        <item m="1" x="2166"/>
-        <item m="1" x="2167"/>
-        <item m="1" x="2168"/>
-        <item m="1" x="2169"/>
-        <item m="1" x="2170"/>
-        <item m="1" x="2171"/>
-        <item m="1" x="2172"/>
-        <item m="1" x="2173"/>
-        <item m="1" x="2174"/>
-        <item m="1" x="2175"/>
-        <item m="1" x="2176"/>
-        <item m="1" x="2177"/>
-        <item m="1" x="2178"/>
-        <item m="1" x="2179"/>
-        <item m="1" x="2180"/>
-        <item m="1" x="2181"/>
-        <item m="1" x="2182"/>
-        <item m="1" x="2183"/>
-        <item m="1" x="2184"/>
-        <item m="1" x="2185"/>
-        <item m="1" x="2186"/>
-        <item m="1" x="2187"/>
-        <item m="1" x="2188"/>
-        <item m="1" x="2189"/>
-        <item m="1" x="2190"/>
-        <item m="1" x="2191"/>
-        <item m="1" x="2192"/>
-        <item m="1" x="2193"/>
-        <item m="1" x="2194"/>
-        <item m="1" x="2195"/>
-        <item m="1" x="2196"/>
-        <item m="1" x="2197"/>
-        <item m="1" x="2198"/>
-        <item m="1" x="2199"/>
-        <item m="1" x="2200"/>
-        <item m="1" x="2201"/>
-        <item m="1" x="2202"/>
-        <item m="1" x="2203"/>
-        <item m="1" x="2204"/>
-        <item m="1" x="2205"/>
-        <item m="1" x="2206"/>
-        <item m="1" x="2207"/>
-        <item m="1" x="2208"/>
-        <item m="1" x="2209"/>
-        <item m="1" x="2210"/>
-        <item m="1" x="2211"/>
-        <item m="1" x="2212"/>
-        <item m="1" x="2213"/>
-        <item m="1" x="2214"/>
-        <item m="1" x="2215"/>
-        <item m="1" x="2216"/>
-        <item m="1" x="2217"/>
-        <item m="1" x="2218"/>
-        <item m="1" x="2219"/>
-        <item m="1" x="2220"/>
-        <item m="1" x="2221"/>
-        <item m="1" x="2222"/>
-        <item m="1" x="2223"/>
-        <item m="1" x="2224"/>
-        <item m="1" x="2225"/>
-        <item m="1" x="2226"/>
-        <item m="1" x="2227"/>
-        <item m="1" x="2228"/>
-        <item m="1" x="2229"/>
-        <item m="1" x="2230"/>
-        <item m="1" x="2231"/>
-        <item m="1" x="2232"/>
-        <item m="1" x="2233"/>
-        <item m="1" x="2234"/>
-        <item m="1" x="2235"/>
-        <item m="1" x="2236"/>
-        <item m="1" x="2237"/>
-        <item m="1" x="2238"/>
-        <item m="1" x="2239"/>
-        <item m="1" x="2240"/>
-        <item m="1" x="2241"/>
-        <item m="1" x="2242"/>
-        <item m="1" x="2243"/>
-        <item m="1" x="2244"/>
-        <item m="1" x="2245"/>
-        <item m="1" x="2246"/>
-        <item m="1" x="2247"/>
-        <item m="1" x="2248"/>
-        <item m="1" x="2249"/>
-        <item m="1" x="2250"/>
-        <item m="1" x="2251"/>
-        <item m="1" x="2252"/>
-        <item m="1" x="2253"/>
-        <item m="1" x="2254"/>
-        <item m="1" x="2255"/>
-        <item m="1" x="2256"/>
-        <item m="1" x="2257"/>
-        <item m="1" x="2258"/>
-        <item m="1" x="2259"/>
-        <item m="1" x="2260"/>
-        <item m="1" x="2261"/>
-        <item m="1" x="2262"/>
-        <item m="1" x="2263"/>
-        <item m="1" x="2264"/>
-        <item m="1" x="2265"/>
-        <item m="1" x="2266"/>
-        <item m="1" x="2267"/>
-        <item m="1" x="2268"/>
-        <item m="1" x="2269"/>
-        <item m="1" x="2270"/>
-        <item m="1" x="2271"/>
-        <item m="1" x="2272"/>
-        <item m="1" x="2273"/>
-        <item m="1" x="2274"/>
-        <item m="1" x="2275"/>
-        <item m="1" x="2276"/>
-        <item m="1" x="2277"/>
-        <item m="1" x="2278"/>
-        <item m="1" x="2279"/>
-        <item m="1" x="2280"/>
-        <item m="1" x="2281"/>
-        <item m="1" x="2282"/>
-        <item m="1" x="2283"/>
-        <item m="1" x="2284"/>
-        <item m="1" x="2285"/>
-        <item m="1" x="2286"/>
-        <item m="1" x="2287"/>
-        <item m="1" x="2288"/>
-        <item m="1" x="2289"/>
-        <item m="1" x="2290"/>
-        <item m="1" x="2291"/>
-        <item m="1" x="2292"/>
-        <item m="1" x="2293"/>
-        <item m="1" x="2294"/>
-        <item m="1" x="2295"/>
-        <item m="1" x="2296"/>
-        <item m="1" x="2297"/>
-        <item m="1" x="2298"/>
-        <item m="1" x="2299"/>
-        <item m="1" x="2300"/>
-        <item m="1" x="2301"/>
-        <item m="1" x="2302"/>
-        <item m="1" x="2303"/>
-        <item m="1" x="2304"/>
-        <item m="1" x="2305"/>
-        <item m="1" x="2306"/>
-        <item m="1" x="2307"/>
-        <item m="1" x="2308"/>
-        <item m="1" x="2309"/>
-        <item m="1" x="2310"/>
-        <item m="1" x="2311"/>
-        <item m="1" x="2312"/>
-        <item m="1" x="2313"/>
-        <item m="1" x="2314"/>
-        <item m="1" x="2315"/>
-        <item m="1" x="2316"/>
-        <item m="1" x="2317"/>
-        <item m="1" x="2318"/>
-        <item m="1" x="2319"/>
-        <item m="1" x="2320"/>
-        <item m="1" x="2321"/>
-        <item m="1" x="2322"/>
-        <item m="1" x="2323"/>
-        <item m="1" x="2324"/>
-        <item m="1" x="2325"/>
-        <item m="1" x="2326"/>
-        <item m="1" x="2327"/>
-        <item m="1" x="2328"/>
-        <item m="1" x="2329"/>
-        <item m="1" x="2330"/>
-        <item m="1" x="2331"/>
-        <item m="1" x="2332"/>
-        <item m="1" x="2333"/>
-        <item m="1" x="2334"/>
-        <item m="1" x="2335"/>
-        <item m="1" x="2336"/>
-        <item m="1" x="2337"/>
-        <item m="1" x="2338"/>
-        <item m="1" x="2339"/>
-        <item m="1" x="2340"/>
-        <item m="1" x="2341"/>
-        <item m="1" x="2342"/>
-        <item m="1" x="2343"/>
-        <item m="1" x="2344"/>
-        <item m="1" x="2345"/>
-        <item m="1" x="2346"/>
-        <item m="1" x="2347"/>
-        <item m="1" x="2348"/>
-        <item m="1" x="2349"/>
-        <item m="1" x="2350"/>
-        <item m="1" x="2351"/>
-        <item m="1" x="2352"/>
-        <item m="1" x="2353"/>
-        <item m="1" x="2354"/>
-        <item m="1" x="2355"/>
-        <item m="1" x="2356"/>
-        <item m="1" x="2357"/>
-        <item m="1" x="2358"/>
-        <item m="1" x="2359"/>
-        <item m="1" x="2360"/>
-        <item m="1" x="2361"/>
-        <item m="1" x="2362"/>
-        <item m="1" x="2363"/>
-        <item m="1" x="2364"/>
-        <item m="1" x="2365"/>
-        <item m="1" x="2366"/>
-        <item m="1" x="2367"/>
-        <item m="1" x="2368"/>
-        <item m="1" x="2369"/>
-        <item m="1" x="2370"/>
-        <item m="1" x="2371"/>
-        <item m="1" x="2372"/>
-        <item m="1" x="2373"/>
-        <item m="1" x="2374"/>
-        <item m="1" x="2375"/>
-        <item m="1" x="2376"/>
-        <item m="1" x="2377"/>
-        <item m="1" x="2378"/>
-        <item m="1" x="2379"/>
-        <item m="1" x="2380"/>
-        <item m="1" x="2381"/>
-        <item m="1" x="2382"/>
-        <item m="1" x="2383"/>
-        <item m="1" x="2384"/>
-        <item m="1" x="2385"/>
-        <item m="1" x="2386"/>
-        <item m="1" x="2387"/>
-        <item m="1" x="2388"/>
-        <item m="1" x="2389"/>
-        <item m="1" x="2390"/>
-        <item m="1" x="2391"/>
-        <item m="1" x="2392"/>
-        <item m="1" x="2393"/>
-        <item m="1" x="2394"/>
-        <item m="1" x="2395"/>
-        <item m="1" x="2396"/>
-        <item m="1" x="2397"/>
-        <item m="1" x="2398"/>
-        <item m="1" x="2399"/>
-        <item m="1" x="2400"/>
-        <item m="1" x="2401"/>
-        <item m="1" x="2402"/>
-        <item m="1" x="2403"/>
-        <item m="1" x="2404"/>
-        <item m="1" x="2405"/>
-        <item m="1" x="2406"/>
-        <item m="1" x="2407"/>
-        <item m="1" x="2408"/>
-        <item m="1" x="2409"/>
-        <item m="1" x="2410"/>
-        <item m="1" x="2411"/>
-        <item m="1" x="2412"/>
-        <item m="1" x="2413"/>
-        <item m="1" x="2414"/>
-        <item m="1" x="2415"/>
-        <item m="1" x="2416"/>
-        <item m="1" x="2417"/>
-        <item m="1" x="2418"/>
-        <item m="1" x="2419"/>
-        <item m="1" x="2420"/>
-        <item m="1" x="2421"/>
-        <item m="1" x="2422"/>
-        <item m="1" x="2423"/>
-        <item m="1" x="2424"/>
-        <item m="1" x="2425"/>
-        <item m="1" x="2426"/>
-        <item m="1" x="2427"/>
-        <item m="1" x="2428"/>
-        <item m="1" x="2429"/>
-        <item m="1" x="2430"/>
-        <item m="1" x="2431"/>
-        <item m="1" x="2432"/>
-        <item m="1" x="2433"/>
-        <item m="1" x="2434"/>
-        <item m="1" x="2435"/>
-        <item m="1" x="2436"/>
-        <item m="1" x="2437"/>
-        <item m="1" x="2438"/>
-        <item m="1" x="2439"/>
-        <item m="1" x="2440"/>
-        <item m="1" x="2441"/>
-        <item m="1" x="2442"/>
-        <item m="1" x="2443"/>
-        <item m="1" x="2444"/>
-        <item m="1" x="2445"/>
-        <item m="1" x="2446"/>
-        <item m="1" x="2447"/>
-        <item m="1" x="1175"/>
-        <item m="1" x="1176"/>
-        <item m="1" x="1177"/>
-        <item m="1" x="1178"/>
-        <item m="1" x="1179"/>
-        <item m="1" x="1180"/>
-        <item m="1" x="1181"/>
-        <item m="1" x="1182"/>
-        <item m="1" x="1183"/>
-        <item m="1" x="1184"/>
-        <item m="1" x="1185"/>
-        <item m="1" x="1186"/>
-        <item m="1" x="1187"/>
-        <item m="1" x="1188"/>
-        <item m="1" x="1189"/>
-        <item m="1" x="1190"/>
-        <item m="1" x="1191"/>
-        <item m="1" x="1192"/>
-        <item m="1" x="1193"/>
-        <item m="1" x="1194"/>
-        <item m="1" x="1195"/>
-        <item m="1" x="1196"/>
-        <item m="1" x="1197"/>
-        <item m="1" x="1198"/>
-        <item m="1" x="1199"/>
-        <item m="1" x="1200"/>
-        <item m="1" x="1201"/>
-        <item m="1" x="1202"/>
-        <item m="1" x="1203"/>
-        <item m="1" x="1204"/>
-        <item m="1" x="1205"/>
-        <item m="1" x="1206"/>
-        <item m="1" x="1207"/>
-        <item m="1" x="1208"/>
-        <item m="1" x="1209"/>
-        <item m="1" x="1210"/>
-        <item m="1" x="1211"/>
-        <item m="1" x="1212"/>
-        <item m="1" x="1213"/>
-        <item m="1" x="1214"/>
-        <item m="1" x="1215"/>
-        <item m="1" x="1216"/>
-        <item m="1" x="1217"/>
-        <item m="1" x="1218"/>
-        <item m="1" x="1219"/>
-        <item m="1" x="1220"/>
-        <item m="1" x="1221"/>
-        <item m="1" x="1222"/>
-        <item m="1" x="1223"/>
-        <item m="1" x="1224"/>
-        <item m="1" x="1225"/>
-        <item m="1" x="1226"/>
-        <item m="1" x="1227"/>
-        <item m="1" x="1228"/>
-        <item m="1" x="1229"/>
-        <item m="1" x="1230"/>
-        <item m="1" x="1231"/>
-        <item m="1" x="1232"/>
-        <item m="1" x="1233"/>
-        <item m="1" x="1234"/>
+        <item m="1" x="585"/>
+        <item m="1" x="586"/>
+        <item m="1" x="587"/>
+        <item m="1" x="540"/>
+        <item m="1" x="541"/>
+        <item m="1" x="542"/>
+        <item m="1" x="543"/>
+        <item m="1" x="544"/>
+        <item m="1" x="545"/>
+        <item m="1" x="546"/>
+        <item m="1" x="547"/>
+        <item m="1" x="548"/>
+        <item m="1" x="549"/>
+        <item m="1" x="550"/>
+        <item m="1" x="551"/>
+        <item m="1" x="552"/>
+        <item m="1" x="553"/>
+        <item m="1" x="554"/>
+        <item m="1" x="555"/>
+        <item m="1" x="556"/>
+        <item m="1" x="557"/>
+        <item m="1" x="558"/>
+        <item m="1" x="559"/>
+        <item m="1" x="560"/>
+        <item m="1" x="561"/>
+        <item m="1" x="562"/>
+        <item m="1" x="563"/>
+        <item m="1" x="564"/>
+        <item m="1" x="565"/>
+        <item m="1" x="566"/>
+        <item m="1" x="567"/>
+        <item m="1" x="568"/>
+        <item m="1" x="569"/>
+        <item m="1" x="570"/>
+        <item m="1" x="571"/>
+        <item m="1" x="572"/>
+        <item m="1" x="573"/>
+        <item m="1" x="574"/>
+        <item m="1" x="575"/>
+        <item m="1" x="576"/>
+        <item m="1" x="577"/>
+        <item m="1" x="578"/>
+        <item m="1" x="579"/>
+        <item m="1" x="580"/>
+        <item m="1" x="581"/>
+        <item m="1" x="582"/>
+        <item m="1" x="583"/>
+        <item m="1" x="584"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="31"/>
+        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="37"/>
+        <item m="1" x="38"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item m="1" x="45"/>
         <item m="1" x="46"/>
         <item m="1" x="47"/>
         <item m="1" x="48"/>
@@ -15630,692 +10815,86 @@
         <item m="1" x="537"/>
         <item m="1" x="538"/>
         <item m="1" x="539"/>
-        <item m="1" x="540"/>
-        <item m="1" x="541"/>
-        <item m="1" x="542"/>
-        <item m="1" x="543"/>
-        <item m="1" x="544"/>
-        <item m="1" x="545"/>
-        <item m="1" x="546"/>
-        <item m="1" x="547"/>
-        <item m="1" x="548"/>
-        <item m="1" x="549"/>
-        <item m="1" x="550"/>
-        <item m="1" x="551"/>
-        <item m="1" x="552"/>
-        <item m="1" x="553"/>
-        <item m="1" x="554"/>
-        <item m="1" x="555"/>
-        <item m="1" x="556"/>
-        <item m="1" x="557"/>
-        <item m="1" x="558"/>
-        <item m="1" x="559"/>
-        <item m="1" x="560"/>
-        <item m="1" x="561"/>
-        <item m="1" x="562"/>
-        <item m="1" x="563"/>
-        <item m="1" x="564"/>
-        <item m="1" x="565"/>
-        <item m="1" x="566"/>
-        <item m="1" x="567"/>
-        <item m="1" x="568"/>
-        <item m="1" x="569"/>
-        <item m="1" x="570"/>
-        <item m="1" x="571"/>
-        <item m="1" x="572"/>
-        <item m="1" x="573"/>
-        <item m="1" x="574"/>
-        <item m="1" x="575"/>
-        <item m="1" x="576"/>
-        <item m="1" x="577"/>
-        <item m="1" x="578"/>
-        <item m="1" x="579"/>
-        <item m="1" x="580"/>
-        <item m="1" x="581"/>
-        <item m="1" x="582"/>
-        <item m="1" x="583"/>
-        <item m="1" x="584"/>
-        <item m="1" x="585"/>
-        <item m="1" x="586"/>
-        <item m="1" x="587"/>
-        <item m="1" x="588"/>
-        <item m="1" x="589"/>
-        <item m="1" x="590"/>
-        <item m="1" x="591"/>
-        <item m="1" x="592"/>
-        <item m="1" x="593"/>
-        <item m="1" x="594"/>
-        <item m="1" x="595"/>
-        <item m="1" x="596"/>
-        <item m="1" x="597"/>
-        <item m="1" x="598"/>
-        <item m="1" x="599"/>
-        <item m="1" x="600"/>
-        <item m="1" x="601"/>
-        <item m="1" x="602"/>
-        <item m="1" x="603"/>
-        <item m="1" x="604"/>
-        <item m="1" x="605"/>
-        <item m="1" x="606"/>
-        <item m="1" x="607"/>
-        <item m="1" x="608"/>
-        <item m="1" x="609"/>
-        <item m="1" x="610"/>
-        <item m="1" x="611"/>
-        <item m="1" x="612"/>
-        <item m="1" x="613"/>
-        <item m="1" x="614"/>
-        <item m="1" x="615"/>
-        <item m="1" x="616"/>
-        <item m="1" x="617"/>
-        <item m="1" x="618"/>
-        <item m="1" x="619"/>
-        <item m="1" x="620"/>
-        <item m="1" x="621"/>
-        <item m="1" x="622"/>
-        <item m="1" x="623"/>
-        <item m="1" x="624"/>
-        <item m="1" x="625"/>
-        <item m="1" x="626"/>
-        <item m="1" x="627"/>
-        <item m="1" x="628"/>
-        <item m="1" x="629"/>
-        <item m="1" x="630"/>
-        <item m="1" x="631"/>
-        <item m="1" x="632"/>
-        <item m="1" x="633"/>
-        <item m="1" x="634"/>
-        <item m="1" x="635"/>
-        <item m="1" x="636"/>
-        <item m="1" x="637"/>
-        <item m="1" x="638"/>
-        <item m="1" x="639"/>
-        <item m="1" x="640"/>
-        <item m="1" x="641"/>
-        <item m="1" x="642"/>
-        <item m="1" x="643"/>
-        <item m="1" x="644"/>
-        <item m="1" x="645"/>
-        <item m="1" x="646"/>
-        <item m="1" x="647"/>
-        <item m="1" x="648"/>
-        <item m="1" x="649"/>
-        <item m="1" x="650"/>
-        <item m="1" x="651"/>
-        <item m="1" x="652"/>
-        <item m="1" x="653"/>
-        <item m="1" x="654"/>
-        <item m="1" x="655"/>
-        <item m="1" x="656"/>
-        <item m="1" x="657"/>
-        <item m="1" x="658"/>
-        <item m="1" x="659"/>
-        <item m="1" x="660"/>
-        <item m="1" x="661"/>
-        <item m="1" x="662"/>
-        <item m="1" x="663"/>
-        <item m="1" x="664"/>
-        <item m="1" x="665"/>
-        <item m="1" x="666"/>
-        <item m="1" x="667"/>
-        <item m="1" x="668"/>
-        <item m="1" x="669"/>
-        <item m="1" x="670"/>
-        <item m="1" x="671"/>
-        <item m="1" x="672"/>
-        <item m="1" x="673"/>
-        <item m="1" x="674"/>
-        <item m="1" x="675"/>
-        <item m="1" x="676"/>
-        <item m="1" x="677"/>
-        <item m="1" x="678"/>
-        <item m="1" x="679"/>
-        <item m="1" x="680"/>
-        <item m="1" x="681"/>
-        <item m="1" x="682"/>
-        <item m="1" x="683"/>
-        <item m="1" x="684"/>
-        <item m="1" x="685"/>
-        <item m="1" x="686"/>
-        <item m="1" x="687"/>
-        <item m="1" x="688"/>
-        <item m="1" x="689"/>
-        <item m="1" x="690"/>
-        <item m="1" x="691"/>
-        <item m="1" x="692"/>
-        <item m="1" x="693"/>
-        <item m="1" x="694"/>
-        <item m="1" x="695"/>
-        <item m="1" x="696"/>
-        <item m="1" x="697"/>
-        <item m="1" x="698"/>
-        <item m="1" x="699"/>
-        <item m="1" x="700"/>
-        <item m="1" x="701"/>
-        <item m="1" x="702"/>
-        <item m="1" x="703"/>
-        <item m="1" x="704"/>
-        <item m="1" x="705"/>
-        <item m="1" x="706"/>
-        <item m="1" x="707"/>
-        <item m="1" x="708"/>
-        <item m="1" x="709"/>
-        <item m="1" x="710"/>
-        <item m="1" x="711"/>
-        <item m="1" x="712"/>
-        <item m="1" x="713"/>
-        <item m="1" x="714"/>
-        <item m="1" x="715"/>
-        <item m="1" x="716"/>
-        <item m="1" x="717"/>
-        <item m="1" x="718"/>
-        <item m="1" x="719"/>
-        <item m="1" x="720"/>
-        <item m="1" x="721"/>
-        <item m="1" x="722"/>
-        <item m="1" x="723"/>
-        <item m="1" x="724"/>
-        <item m="1" x="725"/>
-        <item m="1" x="726"/>
-        <item m="1" x="727"/>
-        <item m="1" x="728"/>
-        <item m="1" x="729"/>
-        <item m="1" x="730"/>
-        <item m="1" x="731"/>
-        <item m="1" x="732"/>
-        <item m="1" x="733"/>
-        <item m="1" x="734"/>
-        <item m="1" x="735"/>
-        <item m="1" x="736"/>
-        <item m="1" x="737"/>
-        <item m="1" x="738"/>
-        <item m="1" x="739"/>
-        <item m="1" x="740"/>
-        <item m="1" x="741"/>
-        <item m="1" x="742"/>
-        <item m="1" x="743"/>
-        <item m="1" x="744"/>
-        <item m="1" x="745"/>
-        <item m="1" x="746"/>
-        <item m="1" x="747"/>
-        <item m="1" x="748"/>
-        <item m="1" x="749"/>
-        <item m="1" x="750"/>
-        <item m="1" x="751"/>
-        <item m="1" x="752"/>
-        <item m="1" x="753"/>
-        <item m="1" x="754"/>
-        <item m="1" x="755"/>
-        <item m="1" x="756"/>
-        <item m="1" x="757"/>
-        <item m="1" x="758"/>
-        <item m="1" x="759"/>
-        <item m="1" x="760"/>
-        <item m="1" x="761"/>
-        <item m="1" x="762"/>
-        <item m="1" x="763"/>
-        <item m="1" x="764"/>
-        <item m="1" x="765"/>
-        <item m="1" x="766"/>
-        <item m="1" x="767"/>
-        <item m="1" x="768"/>
-        <item m="1" x="769"/>
-        <item m="1" x="770"/>
-        <item m="1" x="771"/>
-        <item m="1" x="772"/>
-        <item m="1" x="773"/>
-        <item m="1" x="774"/>
-        <item m="1" x="775"/>
-        <item m="1" x="776"/>
-        <item m="1" x="777"/>
-        <item m="1" x="778"/>
-        <item m="1" x="779"/>
-        <item m="1" x="780"/>
-        <item m="1" x="781"/>
-        <item m="1" x="782"/>
-        <item m="1" x="783"/>
-        <item m="1" x="784"/>
-        <item m="1" x="785"/>
-        <item m="1" x="786"/>
-        <item m="1" x="787"/>
-        <item m="1" x="788"/>
-        <item m="1" x="789"/>
-        <item m="1" x="790"/>
-        <item m="1" x="791"/>
-        <item m="1" x="792"/>
-        <item m="1" x="793"/>
-        <item m="1" x="794"/>
-        <item m="1" x="795"/>
-        <item m="1" x="796"/>
-        <item m="1" x="797"/>
-        <item m="1" x="798"/>
-        <item m="1" x="799"/>
-        <item m="1" x="800"/>
-        <item m="1" x="801"/>
-        <item m="1" x="802"/>
-        <item m="1" x="803"/>
-        <item m="1" x="804"/>
-        <item m="1" x="805"/>
-        <item m="1" x="806"/>
-        <item m="1" x="807"/>
-        <item m="1" x="808"/>
-        <item m="1" x="809"/>
-        <item m="1" x="810"/>
-        <item m="1" x="811"/>
-        <item m="1" x="812"/>
-        <item m="1" x="813"/>
-        <item m="1" x="814"/>
-        <item m="1" x="815"/>
-        <item m="1" x="816"/>
-        <item m="1" x="817"/>
-        <item m="1" x="818"/>
-        <item m="1" x="819"/>
-        <item m="1" x="820"/>
-        <item m="1" x="821"/>
-        <item m="1" x="822"/>
-        <item m="1" x="823"/>
-        <item m="1" x="824"/>
-        <item m="1" x="825"/>
-        <item m="1" x="826"/>
-        <item m="1" x="827"/>
-        <item m="1" x="828"/>
-        <item m="1" x="829"/>
-        <item m="1" x="830"/>
-        <item m="1" x="831"/>
-        <item m="1" x="832"/>
-        <item m="1" x="833"/>
-        <item m="1" x="834"/>
-        <item m="1" x="835"/>
-        <item m="1" x="836"/>
-        <item m="1" x="837"/>
-        <item m="1" x="838"/>
-        <item m="1" x="839"/>
-        <item m="1" x="840"/>
-        <item m="1" x="841"/>
-        <item m="1" x="842"/>
-        <item m="1" x="843"/>
-        <item m="1" x="844"/>
-        <item m="1" x="845"/>
-        <item m="1" x="846"/>
-        <item m="1" x="847"/>
-        <item m="1" x="848"/>
-        <item m="1" x="849"/>
-        <item m="1" x="850"/>
-        <item m="1" x="851"/>
-        <item m="1" x="852"/>
-        <item m="1" x="853"/>
-        <item m="1" x="854"/>
-        <item m="1" x="855"/>
-        <item m="1" x="856"/>
-        <item m="1" x="857"/>
-        <item m="1" x="858"/>
-        <item m="1" x="859"/>
-        <item m="1" x="860"/>
-        <item m="1" x="861"/>
-        <item m="1" x="862"/>
-        <item m="1" x="863"/>
-        <item m="1" x="864"/>
-        <item m="1" x="865"/>
-        <item m="1" x="866"/>
-        <item m="1" x="867"/>
-        <item m="1" x="868"/>
-        <item m="1" x="869"/>
-        <item m="1" x="870"/>
-        <item m="1" x="871"/>
-        <item m="1" x="872"/>
-        <item m="1" x="873"/>
-        <item m="1" x="874"/>
-        <item m="1" x="875"/>
-        <item m="1" x="876"/>
-        <item m="1" x="877"/>
-        <item m="1" x="878"/>
-        <item m="1" x="879"/>
-        <item m="1" x="880"/>
-        <item m="1" x="881"/>
-        <item m="1" x="882"/>
-        <item m="1" x="883"/>
-        <item m="1" x="884"/>
-        <item m="1" x="885"/>
-        <item m="1" x="886"/>
-        <item m="1" x="887"/>
-        <item m="1" x="888"/>
-        <item m="1" x="889"/>
-        <item m="1" x="890"/>
-        <item m="1" x="891"/>
-        <item m="1" x="892"/>
-        <item m="1" x="893"/>
-        <item m="1" x="894"/>
-        <item m="1" x="895"/>
-        <item m="1" x="896"/>
-        <item m="1" x="897"/>
-        <item m="1" x="898"/>
-        <item m="1" x="899"/>
-        <item m="1" x="900"/>
-        <item m="1" x="901"/>
-        <item m="1" x="902"/>
-        <item m="1" x="903"/>
-        <item m="1" x="904"/>
-        <item m="1" x="905"/>
-        <item m="1" x="906"/>
-        <item m="1" x="907"/>
-        <item m="1" x="908"/>
-        <item m="1" x="909"/>
-        <item m="1" x="910"/>
-        <item m="1" x="911"/>
-        <item m="1" x="912"/>
-        <item m="1" x="913"/>
-        <item m="1" x="914"/>
-        <item m="1" x="915"/>
-        <item m="1" x="916"/>
-        <item m="1" x="917"/>
-        <item m="1" x="918"/>
-        <item m="1" x="919"/>
-        <item m="1" x="920"/>
-        <item m="1" x="921"/>
-        <item m="1" x="922"/>
-        <item m="1" x="923"/>
-        <item m="1" x="924"/>
-        <item m="1" x="925"/>
-        <item m="1" x="926"/>
-        <item m="1" x="927"/>
-        <item m="1" x="928"/>
-        <item m="1" x="929"/>
-        <item m="1" x="930"/>
-        <item m="1" x="931"/>
-        <item m="1" x="932"/>
-        <item m="1" x="933"/>
-        <item m="1" x="934"/>
-        <item m="1" x="935"/>
-        <item m="1" x="936"/>
-        <item m="1" x="937"/>
-        <item m="1" x="938"/>
-        <item m="1" x="939"/>
-        <item m="1" x="940"/>
-        <item m="1" x="941"/>
-        <item m="1" x="942"/>
-        <item m="1" x="943"/>
-        <item m="1" x="944"/>
-        <item m="1" x="945"/>
-        <item m="1" x="946"/>
-        <item m="1" x="947"/>
-        <item m="1" x="948"/>
-        <item m="1" x="949"/>
-        <item m="1" x="950"/>
-        <item m="1" x="951"/>
-        <item m="1" x="952"/>
-        <item m="1" x="953"/>
-        <item m="1" x="954"/>
-        <item m="1" x="955"/>
-        <item m="1" x="956"/>
-        <item m="1" x="957"/>
-        <item m="1" x="958"/>
-        <item m="1" x="959"/>
-        <item m="1" x="960"/>
-        <item m="1" x="961"/>
-        <item m="1" x="962"/>
-        <item m="1" x="963"/>
-        <item m="1" x="964"/>
-        <item m="1" x="965"/>
-        <item m="1" x="966"/>
-        <item m="1" x="967"/>
-        <item m="1" x="968"/>
-        <item m="1" x="969"/>
-        <item m="1" x="970"/>
-        <item m="1" x="971"/>
-        <item m="1" x="972"/>
-        <item m="1" x="973"/>
-        <item m="1" x="974"/>
-        <item m="1" x="975"/>
-        <item m="1" x="976"/>
-        <item m="1" x="977"/>
-        <item m="1" x="978"/>
-        <item m="1" x="979"/>
-        <item m="1" x="980"/>
-        <item m="1" x="981"/>
-        <item m="1" x="982"/>
-        <item m="1" x="983"/>
-        <item m="1" x="984"/>
-        <item m="1" x="985"/>
-        <item m="1" x="986"/>
-        <item m="1" x="987"/>
-        <item m="1" x="988"/>
-        <item m="1" x="989"/>
-        <item m="1" x="990"/>
-        <item m="1" x="991"/>
-        <item m="1" x="992"/>
-        <item m="1" x="993"/>
-        <item m="1" x="994"/>
-        <item m="1" x="995"/>
-        <item m="1" x="996"/>
-        <item m="1" x="997"/>
-        <item m="1" x="998"/>
-        <item m="1" x="999"/>
-        <item m="1" x="1000"/>
-        <item m="1" x="1001"/>
-        <item m="1" x="1002"/>
-        <item m="1" x="1003"/>
-        <item m="1" x="1004"/>
-        <item m="1" x="1005"/>
-        <item m="1" x="1006"/>
-        <item m="1" x="1007"/>
-        <item m="1" x="1008"/>
-        <item m="1" x="1009"/>
-        <item m="1" x="1010"/>
-        <item m="1" x="1011"/>
-        <item m="1" x="1012"/>
-        <item m="1" x="1013"/>
-        <item m="1" x="1014"/>
-        <item m="1" x="1015"/>
-        <item m="1" x="1016"/>
-        <item m="1" x="1017"/>
-        <item m="1" x="1018"/>
-        <item m="1" x="1019"/>
-        <item m="1" x="1020"/>
-        <item m="1" x="1021"/>
-        <item m="1" x="1022"/>
-        <item m="1" x="1023"/>
-        <item m="1" x="1024"/>
-        <item m="1" x="1025"/>
-        <item m="1" x="1026"/>
-        <item m="1" x="1027"/>
-        <item m="1" x="1028"/>
-        <item m="1" x="1029"/>
-        <item m="1" x="1030"/>
-        <item m="1" x="1031"/>
-        <item m="1" x="1032"/>
-        <item m="1" x="1033"/>
-        <item m="1" x="1034"/>
-        <item m="1" x="1035"/>
-        <item m="1" x="1036"/>
-        <item m="1" x="1037"/>
-        <item m="1" x="1038"/>
-        <item m="1" x="1039"/>
-        <item m="1" x="1040"/>
-        <item m="1" x="1041"/>
-        <item m="1" x="1042"/>
-        <item m="1" x="1043"/>
-        <item m="1" x="1044"/>
-        <item m="1" x="1045"/>
-        <item m="1" x="1046"/>
-        <item m="1" x="1047"/>
-        <item m="1" x="1048"/>
-        <item m="1" x="1049"/>
-        <item m="1" x="1050"/>
-        <item m="1" x="1051"/>
-        <item m="1" x="1052"/>
-        <item m="1" x="1053"/>
-        <item m="1" x="1054"/>
-        <item m="1" x="1055"/>
-        <item m="1" x="1056"/>
-        <item m="1" x="1057"/>
-        <item m="1" x="1058"/>
-        <item m="1" x="1059"/>
-        <item m="1" x="1060"/>
-        <item m="1" x="1061"/>
-        <item m="1" x="1062"/>
-        <item m="1" x="1063"/>
-        <item m="1" x="1064"/>
-        <item m="1" x="1065"/>
-        <item m="1" x="1066"/>
-        <item m="1" x="1067"/>
-        <item m="1" x="1068"/>
-        <item m="1" x="1069"/>
-        <item m="1" x="1070"/>
-        <item m="1" x="1071"/>
-        <item m="1" x="1072"/>
-        <item m="1" x="1073"/>
-        <item m="1" x="1074"/>
-        <item m="1" x="1075"/>
-        <item m="1" x="1076"/>
-        <item m="1" x="1077"/>
-        <item m="1" x="1078"/>
-        <item m="1" x="1079"/>
-        <item m="1" x="1080"/>
-        <item m="1" x="1081"/>
-        <item m="1" x="1082"/>
-        <item m="1" x="1083"/>
-        <item m="1" x="1084"/>
-        <item m="1" x="1085"/>
-        <item m="1" x="1086"/>
-        <item m="1" x="1087"/>
-        <item m="1" x="1088"/>
-        <item m="1" x="1089"/>
-        <item m="1" x="1090"/>
-        <item m="1" x="1091"/>
-        <item m="1" x="1092"/>
-        <item m="1" x="1093"/>
-        <item m="1" x="1094"/>
-        <item m="1" x="1095"/>
-        <item m="1" x="1096"/>
-        <item m="1" x="1097"/>
-        <item m="1" x="1098"/>
-        <item m="1" x="1099"/>
-        <item m="1" x="1100"/>
-        <item m="1" x="1101"/>
-        <item m="1" x="1102"/>
-        <item m="1" x="1103"/>
-        <item m="1" x="1104"/>
-        <item m="1" x="1105"/>
-        <item m="1" x="1106"/>
-        <item m="1" x="1107"/>
-        <item m="1" x="1108"/>
-        <item m="1" x="1109"/>
-        <item m="1" x="1110"/>
-        <item m="1" x="1111"/>
-        <item m="1" x="1112"/>
-        <item m="1" x="1113"/>
-        <item m="1" x="1114"/>
-        <item m="1" x="1115"/>
-        <item m="1" x="1116"/>
-        <item m="1" x="1117"/>
-        <item m="1" x="1118"/>
-        <item m="1" x="1119"/>
-        <item m="1" x="1120"/>
-        <item m="1" x="1121"/>
-        <item m="1" x="1122"/>
-        <item m="1" x="1123"/>
-        <item m="1" x="1124"/>
-        <item m="1" x="1125"/>
-        <item m="1" x="1126"/>
-        <item m="1" x="1127"/>
-        <item m="1" x="1128"/>
-        <item m="1" x="1129"/>
-        <item m="1" x="1130"/>
-        <item m="1" x="1131"/>
-        <item m="1" x="1132"/>
-        <item m="1" x="1133"/>
-        <item m="1" x="1134"/>
-        <item m="1" x="1135"/>
-        <item m="1" x="1136"/>
-        <item m="1" x="1137"/>
-        <item m="1" x="1138"/>
-        <item m="1" x="1139"/>
-        <item m="1" x="1140"/>
-        <item m="1" x="1141"/>
-        <item m="1" x="1142"/>
-        <item m="1" x="1143"/>
-        <item m="1" x="1144"/>
-        <item m="1" x="1145"/>
-        <item m="1" x="1146"/>
-        <item m="1" x="1147"/>
-        <item m="1" x="1148"/>
-        <item m="1" x="1149"/>
-        <item m="1" x="1150"/>
-        <item m="1" x="1151"/>
-        <item m="1" x="1152"/>
-        <item m="1" x="1153"/>
-        <item m="1" x="1154"/>
-        <item m="1" x="1155"/>
-        <item m="1" x="1156"/>
-        <item m="1" x="1157"/>
-        <item m="1" x="1158"/>
-        <item m="1" x="1159"/>
-        <item m="1" x="1160"/>
-        <item m="1" x="1161"/>
-        <item m="1" x="1162"/>
-        <item m="1" x="1163"/>
-        <item m="1" x="1164"/>
-        <item m="1" x="1165"/>
-        <item m="1" x="1166"/>
-        <item m="1" x="1167"/>
-        <item m="1" x="1168"/>
-        <item m="1" x="1169"/>
-        <item m="1" x="1170"/>
-        <item m="1" x="1171"/>
-        <item m="1" x="1172"/>
-        <item m="1" x="1173"/>
-        <item m="1" x="1174"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="3509"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of cpu_pct" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C35A375-7966-4646-8505-24ADEE604741}" name="PivotTable15" cacheId="872" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A1:E6" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
+      <items count="7">
         <item m="1" x="1"/>
         <item m="1" x="2"/>
         <item m="1" x="3"/>
         <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item m="1" x="32"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="45"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="2">
+      <items count="9">
+        <item m="1" x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -16328,7 +10907,14 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="2">
+      <items count="9">
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item m="1" x="5"/>
+        <item m="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -16347,7 +10933,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="2447"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -16360,15 +10946,15 @@
   </colFields>
   <colItems count="4">
     <i>
-      <x/>
+      <x v="7"/>
       <x v="1"/>
-      <x/>
+      <x v="7"/>
     </i>
     <i t="default" r="1">
       <x v="1"/>
     </i>
     <i t="default">
-      <x/>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -16377,27 +10963,129 @@
   <dataFields count="1">
     <dataField name="Sum of cpu_pct" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="30" series="1">
+  <chartFormats count="7">
+    <chartFormat chart="2" format="14" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="4">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="59" series="1">
+    <chartFormat chart="2" format="18" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
+        <references count="4">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -16420,8 +11108,8 @@
   <autoFilter ref="A1:L2" xr:uid="{C7FA1B7E-C0DA-4D7A-AA35-375029784535}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{69F8F33B-4158-43F5-8204-07D90F01E0EB}" name="datetime" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{B58890FF-E583-4DBD-A2F5-9F589D2466B5}" name="norm_text_hash_id" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{51278D32-7C3B-4B59-86DF-7A4B462EB9E9}" name="database_name" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{B58890FF-E583-4DBD-A2F5-9F589D2466B5}" name="norm_text_hash_id" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{51278D32-7C3B-4B59-86DF-7A4B462EB9E9}" name="database_name" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{17C5FD6B-772D-4EBD-9816-3AAE3664FDF1}" name="norm_text"/>
     <tableColumn id="3" xr3:uid="{FD3209D6-279F-4A1C-9506-31B9340FD95C}" name="execution_count"/>
     <tableColumn id="4" xr3:uid="{018236F7-AE50-48B1-8F1D-3F620BEB0519}" name="duration_microseconds"/>
@@ -16437,28 +11125,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A62E67F2-A94D-40D1-BC6C-D44992EFC38D}" name="Table2" displayName="Table2" ref="A1:L2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{A62E67F2-A94D-40D1-BC6C-D44992EFC38D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2371AF1-D0C1-4D4D-B924-97F4A2A742CC}" name="Table15" displayName="Table15" ref="A1:L2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:L2" xr:uid="{A2371AF1-D0C1-4D4D-B924-97F4A2A742CC}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C9936654-3AC7-4718-9342-9EC0D1ECFFD6}" name="datetime" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{EEBAE9C0-0C27-4C31-A029-C5CDBD7FE1C5}" name="norm_text_hash_id" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{9963A2D7-7F0A-4494-8E13-E2961DC8EAD5}" name="database_name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E3EBBBE3-5710-4030-AA38-E20AD4553B08}" name="norm_text"/>
-    <tableColumn id="3" xr3:uid="{171E3D44-C982-47E6-9CFA-6053A5502BA0}" name="execution_count"/>
-    <tableColumn id="4" xr3:uid="{082936FB-CE75-4AF1-9141-A3AA9A819EC3}" name="duration_microseconds"/>
-    <tableColumn id="5" xr3:uid="{2FA61231-D12A-4CD5-8A9C-080E918E7020}" name="cpu_microseconds"/>
-    <tableColumn id="6" xr3:uid="{97652190-1B2E-4A13-A351-B99B966B2B8E}" name="cpu_pct"/>
-    <tableColumn id="7" xr3:uid="{9DE6ACB1-FBCD-4EBB-A1AD-DE0373CB9777}" name="logical_reads_pages"/>
-    <tableColumn id="8" xr3:uid="{73049121-9DF8-4147-A38F-17A000FCE29E}" name="physical_reads_pages"/>
-    <tableColumn id="9" xr3:uid="{BFFF81CC-20C3-4B6A-8AC7-3291E1161B34}" name="writes_pages"/>
-    <tableColumn id="10" xr3:uid="{5C961E4C-97FA-40AC-837F-225331515F8B}" name="avg_row_count"/>
+    <tableColumn id="1" xr3:uid="{45C7812F-2254-4047-824F-D51842BBB62D}" name="datetime" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{14D8C1FB-F850-4575-BEFC-3225FFA87AF6}" name="norm_text_hash_id" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{7ABC3C76-CD97-4A0A-9DE9-0E901DBE479E}" name="database_name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{98D7360F-71B9-4C10-B6CB-536DE5E5BB04}" name="norm_text"/>
+    <tableColumn id="3" xr3:uid="{77F722C6-62E1-434D-9CA9-6CD309797286}" name="execution_count"/>
+    <tableColumn id="4" xr3:uid="{8DFF3FF1-4DCE-4926-A304-0D67CDCBB8EB}" name="duration_microseconds"/>
+    <tableColumn id="5" xr3:uid="{9D1C03F6-B64A-44C2-B7D7-C74EAEB7EC5A}" name="cpu_microseconds"/>
+    <tableColumn id="6" xr3:uid="{08DE9198-A196-4CC0-957E-32FDA531FE2A}" name="cpu_pct"/>
+    <tableColumn id="7" xr3:uid="{1AD0EA2F-EFEE-4CD0-9FAF-58187D8C64A4}" name="logical_reads_pages"/>
+    <tableColumn id="8" xr3:uid="{16195438-0EE7-44C7-9EF3-614BEBC33A52}" name="physical_reads_pages"/>
+    <tableColumn id="9" xr3:uid="{38A54EEA-A083-4B42-BA9E-5188A8F0BE94}" name="writes_pages"/>
+    <tableColumn id="10" xr3:uid="{392D102A-5895-496F-999C-0E249642CF75}" name="avg_row_count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}" name="Table3" displayName="Table3" ref="A1:N2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:N2" xr:uid="{DB1720B7-55CB-4433-8BB1-8A24DE0FAA46}"/>
   <tableColumns count="14">
     <tableColumn id="14" xr3:uid="{7C30B4D4-2B90-4AB7-8491-B1D3F256A847}" name="norm_text_hash_id"/>
@@ -16481,7 +11169,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{23EB7B8E-749A-41A7-995D-960631E8F9CE}" name="Table3511" displayName="Table3511" ref="A1:N2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{23EB7B8E-749A-41A7-995D-960631E8F9CE}" name="Table3511" displayName="Table3511" ref="A1:N2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:N2" xr:uid="{A1FD3BC7-8B0B-4BD0-8E6C-092A384E08E4}"/>
   <tableColumns count="14">
     <tableColumn id="4" xr3:uid="{50F77733-CFDF-4D86-B2DC-68B01A81A9A9}" name="norm_text_hash_id"/>
@@ -16504,7 +11192,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{93BEC30A-09F1-4FEE-97F0-47B6427FBD5E}" name="Table361218" displayName="Table361218" ref="A1:N2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{93BEC30A-09F1-4FEE-97F0-47B6427FBD5E}" name="Table361218" displayName="Table361218" ref="A1:N2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:N2" xr:uid="{174DD456-9DE2-4F9C-B4AE-612141D59BB0}"/>
   <tableColumns count="14">
     <tableColumn id="4" xr3:uid="{79C1C2BD-7F08-42F5-9A11-9EB4BF3C059F}" name="norm_text_hash_id"/>
@@ -16527,7 +11215,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{F0068F5C-7E1A-4797-A0AB-EC2906576BE4}" name="Table37131925" displayName="Table37131925" ref="A1:N2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{F0068F5C-7E1A-4797-A0AB-EC2906576BE4}" name="Table37131925" displayName="Table37131925" ref="A1:N2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:N2" xr:uid="{332B5612-12BE-481C-842C-353F69027BA8}"/>
   <tableColumns count="14">
     <tableColumn id="4" xr3:uid="{F1CD3BE9-5D34-4829-9FAD-C8126D2C138C}" name="norm_text_hash_id"/>
@@ -16550,7 +11238,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{17257BAF-5D37-4780-B03D-AE18CDD9FB34}" name="Table3814202632" displayName="Table3814202632" ref="A1:N2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{17257BAF-5D37-4780-B03D-AE18CDD9FB34}" name="Table3814202632" displayName="Table3814202632" ref="A1:N2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:N2" xr:uid="{0BF94567-BB14-4990-B412-EE1EFDA0F11A}"/>
   <tableColumns count="14">
     <tableColumn id="4" xr3:uid="{783FA46B-7D1F-43D3-AD99-D577449EDA3D}" name="norm_text_hash_id"/>
@@ -16573,7 +11261,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{01FD9972-1522-4AE0-924C-47A16C3F31A4}" name="Table391521273339" displayName="Table391521273339" ref="A1:N2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{01FD9972-1522-4AE0-924C-47A16C3F31A4}" name="Table391521273339" displayName="Table391521273339" ref="A1:N2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:N2" xr:uid="{4547EA9B-8543-48D2-B17D-7794DE8A6E16}"/>
   <tableColumns count="14">
     <tableColumn id="4" xr3:uid="{C54D8228-E07B-40EC-A782-FA7B249AB8BF}" name="norm_text_hash_id"/>
@@ -16914,13 +11602,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9506BB-2498-4EA9-91C6-C9697376216C}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -16937,14 +11626,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
+      <c r="B1" t="s">
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -16984,26 +11673,26 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="72" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -17045,13 +11734,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -17100,26 +11789,26 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="72" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="28" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -17161,13 +11850,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -17236,7 +11925,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -17261,7 +11950,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -17278,14 +11968,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
+      <c r="B1" t="s">
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -17321,12 +12011,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631114B7-7266-4DF3-84D2-8C5566EE20D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB153D-8C06-4392-99EB-F77B108A458C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17334,23 +12022,24 @@
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -17363,10 +12052,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -17374,10 +12063,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -17385,12 +12074,12 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -17415,7 +12104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CCB406-45EE-4FF1-B58B-FE788B02DE98}">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17447,26 +12136,26 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="72" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -17508,13 +12197,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -17563,26 +12252,26 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="72" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -17624,13 +12313,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -17679,26 +12368,26 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="72" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -17740,13 +12429,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -17795,26 +12484,26 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="72" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -17856,13 +12545,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>

--- a/QueryPerformance.xlsx
+++ b/QueryPerformance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Version Control\XELoader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484A4558-06A9-405D-ACA3-9D6DB98608C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85017F4C-F154-4121-B41E-D121A9C6251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B24106EA-52C9-4BFF-AE52-91EFFBA0713A}"/>
   </bookViews>
@@ -27,8 +27,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="872" r:id="rId12"/>
-    <pivotCache cacheId="876" r:id="rId13"/>
+    <pivotCache cacheId="955" r:id="rId12"/>
+    <pivotCache cacheId="956" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -331,14 +331,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2128,6 +2127,62 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -7301,7 +7356,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ED96754-C7D7-4A08-AC1B-7D4287B3EA00}" name="PivotTable1" cacheId="876" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ED96754-C7D7-4A08-AC1B-7D4287B3EA00}" name="PivotTable1" cacheId="956" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -10872,7 +10927,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C35A375-7966-4646-8505-24ADEE604741}" name="PivotTable15" cacheId="872" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C35A375-7966-4646-8505-24ADEE604741}" name="PivotTable15" cacheId="955" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:E6" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -10963,7 +11018,7 @@
   <dataFields count="1">
     <dataField name="Sum of cpu_pct" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="7">
+  <chartFormats count="8">
     <chartFormat chart="2" format="14" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="4">
@@ -11086,6 +11141,24 @@
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -11602,8 +11675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9506BB-2498-4EA9-91C6-C9697376216C}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11927,13 +12000,11 @@
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12081,19 +12152,11 @@
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
